--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U610"/>
+  <dimension ref="A1:U611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -770,7 +770,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
@@ -783,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -791,7 +795,7 @@
         </is>
       </c>
       <c r="U6" s="2" t="n">
-        <v>45205</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="7">
@@ -1120,7 +1124,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/08/24</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1146,8 +1150,16 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1161,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1169,7 +1181,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45162</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="13">
@@ -1368,7 +1380,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1401,7 +1413,7 @@
         </is>
       </c>
       <c r="U16" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="17">
@@ -1717,7 +1729,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1750,7 +1762,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45223</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="22">
@@ -1766,7 +1778,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1799,7 +1811,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45201</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="23">
@@ -2002,7 +2014,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023/05/08</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2020,13 +2032,41 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -2039,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22325</v>
+        <v>25150</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2047,7 +2087,7 @@
         </is>
       </c>
       <c r="U26" s="2" t="n">
-        <v>45054</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="27">
@@ -2116,7 +2156,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2149,7 +2189,7 @@
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45202</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="29">
@@ -2999,7 +3039,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3047,7 +3087,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>x</t>
@@ -3068,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>5265</v>
+        <v>5342</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3076,7 +3120,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45217</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="40">
@@ -3092,7 +3136,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3130,7 +3174,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -3145,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3153,7 +3201,7 @@
         </is>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45148</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="41">
@@ -3720,7 +3768,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3768,7 +3816,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
@@ -3781,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1447</v>
+        <v>1500</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3789,7 +3841,7 @@
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="49">
@@ -3854,7 +3906,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3887,7 +3939,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="51">
@@ -4438,7 +4490,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4482,7 +4534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
@@ -4495,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -4503,7 +4559,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="59">
@@ -4604,7 +4660,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4652,7 +4708,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
@@ -4665,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>14456</v>
+        <v>14676</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -4673,7 +4733,7 @@
         </is>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45218</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="61">
@@ -4859,7 +4919,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4892,7 +4952,7 @@
         </is>
       </c>
       <c r="U63" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="64">
@@ -5294,7 +5354,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5342,7 +5402,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
@@ -5355,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>15154</v>
+        <v>15328</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -5363,7 +5427,7 @@
         </is>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45210</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="71">
@@ -5379,7 +5443,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -5412,7 +5476,7 @@
         </is>
       </c>
       <c r="U71" s="2" t="n">
-        <v>45202</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="72">
@@ -5857,7 +5921,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/09/05</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5900,8 +5964,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -5914,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>4121</v>
+        <v>4220</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -5922,7 +5994,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45174</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="78">
@@ -6274,7 +6346,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6322,7 +6394,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -6335,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>9260</v>
+        <v>9261</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -6343,7 +6419,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45218</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="83">
@@ -6359,7 +6435,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6407,7 +6483,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -6420,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>24764</v>
+        <v>24766</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -6428,7 +6508,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45214</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="84">
@@ -6541,7 +6621,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6579,8 +6659,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6594,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>1820</v>
+        <v>1952</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -6602,7 +6690,7 @@
         </is>
       </c>
       <c r="U85" s="2" t="n">
-        <v>45154</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="86">
@@ -6958,7 +7046,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7023,7 +7111,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45222</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="91">
@@ -7274,7 +7362,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2023/10/28</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7347,7 +7435,7 @@
         </is>
       </c>
       <c r="U94" s="2" t="n">
-        <v>45227</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="95">
@@ -7363,7 +7451,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7411,7 +7499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
@@ -7424,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>5664</v>
+        <v>5749</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -7432,7 +7524,7 @@
         </is>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="96">
@@ -7703,7 +7795,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -7751,7 +7843,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
@@ -7764,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>42192</v>
+        <v>42629</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -7772,7 +7868,7 @@
         </is>
       </c>
       <c r="U99" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="100">
@@ -8238,7 +8334,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8303,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>1460</v>
+        <v>1484</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -8311,7 +8407,7 @@
         </is>
       </c>
       <c r="U106" s="2" t="n">
-        <v>45204</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="107">
@@ -9181,7 +9277,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -9229,7 +9325,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -9242,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>7191</v>
+        <v>7192</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -9250,7 +9350,7 @@
         </is>
       </c>
       <c r="U117" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="118">
@@ -9351,7 +9451,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -9399,7 +9499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
@@ -9412,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>15587</v>
+        <v>15860</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -9420,7 +9524,7 @@
         </is>
       </c>
       <c r="U119" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="120">
@@ -9691,7 +9795,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9734,7 +9838,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -9748,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>200227</v>
+        <v>202881</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
@@ -9756,7 +9864,7 @@
         </is>
       </c>
       <c r="U123" s="2" t="n">
-        <v>45215</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="124">
@@ -10456,7 +10564,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -10504,7 +10612,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -10517,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>30316</v>
+        <v>30645</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -10525,7 +10637,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45210</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="133">
@@ -10804,7 +10916,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10847,8 +10959,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
@@ -10861,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>13501</v>
+        <v>13694</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -10869,7 +10989,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45184</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="137">
@@ -10970,7 +11090,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -11018,7 +11138,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
@@ -11031,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>13404</v>
+        <v>13753</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -11039,7 +11163,7 @@
         </is>
       </c>
       <c r="U138" s="2" t="n">
-        <v>45212</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="139">
@@ -11055,7 +11179,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -11103,7 +11227,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
@@ -11116,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>3390</v>
+        <v>3433</v>
       </c>
       <c r="T139" t="inlineStr">
         <is>
@@ -11124,7 +11252,7 @@
         </is>
       </c>
       <c r="U139" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="140">
@@ -11140,7 +11268,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -11188,7 +11316,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -11201,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
@@ -11209,7 +11341,7 @@
         </is>
       </c>
       <c r="U140" s="2" t="n">
-        <v>45223</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="141">
@@ -11225,7 +11357,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -11273,7 +11405,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
@@ -11286,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>28628</v>
+        <v>28935</v>
       </c>
       <c r="T141" t="inlineStr">
         <is>
@@ -11294,7 +11430,7 @@
         </is>
       </c>
       <c r="U141" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="142">
@@ -11529,7 +11665,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -11573,7 +11709,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
@@ -11586,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>16231</v>
+        <v>16424</v>
       </c>
       <c r="T145" t="inlineStr">
         <is>
@@ -11594,7 +11734,7 @@
         </is>
       </c>
       <c r="U145" s="2" t="n">
-        <v>45224</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="146">
@@ -11861,7 +12001,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -11905,7 +12045,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
@@ -11918,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -11926,7 +12070,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45215</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="150">
@@ -12197,7 +12341,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -12245,7 +12389,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
@@ -12258,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>11979</v>
+        <v>12137</v>
       </c>
       <c r="T153" t="inlineStr">
         <is>
@@ -12266,7 +12414,7 @@
         </is>
       </c>
       <c r="U153" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="154">
@@ -12626,7 +12774,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -12659,7 +12807,7 @@
         </is>
       </c>
       <c r="U158" s="2" t="n">
-        <v>45223</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="159">
@@ -12675,7 +12823,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12723,7 +12871,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
@@ -12736,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>21149</v>
+        <v>21364</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -12744,7 +12896,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45215</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="160">
@@ -13298,7 +13450,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13346,7 +13498,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
@@ -13359,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -13367,7 +13523,7 @@
         </is>
       </c>
       <c r="U166" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="167">
@@ -13699,7 +13855,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13747,7 +13903,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
@@ -13760,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -13768,7 +13928,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45204</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="172">
@@ -14205,7 +14365,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -14253,7 +14413,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
@@ -14266,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>41763</v>
+        <v>42257</v>
       </c>
       <c r="T177" t="inlineStr">
         <is>
@@ -14274,7 +14438,7 @@
         </is>
       </c>
       <c r="U177" s="2" t="n">
-        <v>45223</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="178">
@@ -14290,7 +14454,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -14338,7 +14502,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
@@ -14351,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>17493</v>
+        <v>17515</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -14359,7 +14527,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45211</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="179">
@@ -14375,7 +14543,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -14423,7 +14591,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="n">
@@ -14436,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>27483</v>
+        <v>27488</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -14444,7 +14616,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="180">
@@ -14986,7 +15158,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -15034,7 +15206,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="n">
@@ -15047,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T186" t="inlineStr">
         <is>
@@ -15055,7 +15231,7 @@
         </is>
       </c>
       <c r="U186" s="2" t="n">
-        <v>45232</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="187">
@@ -15253,7 +15429,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -15301,7 +15477,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
@@ -15314,7 +15494,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>2928</v>
+        <v>2994</v>
       </c>
       <c r="T189" t="inlineStr">
         <is>
@@ -15322,7 +15502,7 @@
         </is>
       </c>
       <c r="U189" s="2" t="n">
-        <v>45210</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="190">
@@ -15735,7 +15915,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -15783,7 +15963,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="n">
@@ -15796,7 +15980,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>20978</v>
+        <v>21166</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -15804,7 +15988,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45215</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="196">
@@ -16265,7 +16449,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -16313,7 +16497,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
@@ -16326,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T201" t="inlineStr">
         <is>
@@ -16334,7 +16522,7 @@
         </is>
       </c>
       <c r="U201" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="202">
@@ -16407,7 +16595,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -16446,7 +16634,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -16460,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>3483</v>
+        <v>3539</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -16468,7 +16660,7 @@
         </is>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45191</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="204">
@@ -16735,7 +16927,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -16804,7 +16996,7 @@
         </is>
       </c>
       <c r="U207" s="2" t="n">
-        <v>45212</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="208">
@@ -17334,7 +17526,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -17399,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>23062</v>
+        <v>23139</v>
       </c>
       <c r="T214" t="inlineStr">
         <is>
@@ -17407,7 +17599,7 @@
         </is>
       </c>
       <c r="U214" s="2" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="215">
@@ -17423,7 +17615,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -17471,7 +17663,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="n">
@@ -17484,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>30752</v>
+        <v>31133</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -17492,7 +17688,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45204</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="216">
@@ -17678,7 +17874,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -17743,7 +17939,7 @@
         </is>
       </c>
       <c r="U218" s="2" t="n">
-        <v>45212</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="219">
@@ -18095,7 +18291,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -18143,7 +18339,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
@@ -18156,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>45023</v>
+        <v>45585</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -18164,7 +18364,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45212</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="224">
@@ -18508,7 +18708,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -18556,7 +18756,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
@@ -18569,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -18577,7 +18781,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="229">
@@ -18925,7 +19129,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -18990,7 +19194,7 @@
         </is>
       </c>
       <c r="U233" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="234">
@@ -19427,7 +19631,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -19496,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>28081</v>
+        <v>28498</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -19504,7 +19708,7 @@
         </is>
       </c>
       <c r="U239" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="240">
@@ -19605,7 +19809,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -19653,7 +19857,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="n">
@@ -19666,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>21756</v>
+        <v>21999</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -19674,7 +19882,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45217</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="242">
@@ -19690,7 +19898,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -19738,7 +19946,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
@@ -19751,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>28075</v>
+        <v>28227</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -19759,7 +19971,7 @@
         </is>
       </c>
       <c r="U242" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="243">
@@ -19775,7 +19987,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -19823,7 +20035,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="n">
@@ -19836,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -19844,7 +20060,7 @@
         </is>
       </c>
       <c r="U243" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="244">
@@ -20658,7 +20874,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -20706,7 +20922,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="n">
@@ -20719,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -20727,7 +20947,7 @@
         </is>
       </c>
       <c r="U254" s="2" t="n">
-        <v>45209</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="255">
@@ -21164,7 +21384,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -21208,7 +21428,11 @@
         </is>
       </c>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="n">
@@ -21221,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="S260" t="n">
-        <v>15735</v>
+        <v>15810</v>
       </c>
       <c r="T260" t="inlineStr">
         <is>
@@ -21229,7 +21453,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45183</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="261">
@@ -21500,7 +21724,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -21565,7 +21789,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>73557</v>
+        <v>73767</v>
       </c>
       <c r="T264" t="inlineStr">
         <is>
@@ -21573,7 +21797,7 @@
         </is>
       </c>
       <c r="U264" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="265">
@@ -22184,7 +22408,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -22232,7 +22456,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="n">
@@ -22245,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>9776</v>
+        <v>9888</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -22253,7 +22481,7 @@
         </is>
       </c>
       <c r="U272" s="2" t="n">
-        <v>45210</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="273">
@@ -22269,7 +22497,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -22317,7 +22545,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="n">
@@ -22330,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="S273" t="n">
-        <v>13345</v>
+        <v>13389</v>
       </c>
       <c r="T273" t="inlineStr">
         <is>
@@ -22338,7 +22570,7 @@
         </is>
       </c>
       <c r="U273" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="274">
@@ -22439,7 +22671,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -22487,7 +22719,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr">
         <is>
           <t>x</t>
@@ -22504,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>67177</v>
+        <v>67996</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -22512,7 +22748,7 @@
         </is>
       </c>
       <c r="U275" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="276">
@@ -22860,7 +23096,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
@@ -22893,7 +23129,7 @@
         </is>
       </c>
       <c r="U280" s="2" t="n">
-        <v>45211</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="281">
@@ -22909,7 +23145,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -22945,7 +23181,11 @@
         </is>
       </c>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="n">
@@ -22958,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>1375</v>
+        <v>1388</v>
       </c>
       <c r="T281" t="inlineStr">
         <is>
@@ -22966,7 +23206,7 @@
         </is>
       </c>
       <c r="U281" s="2" t="n">
-        <v>45203</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="282">
@@ -23031,7 +23271,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -23079,7 +23319,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="n">
@@ -23092,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>37104</v>
+        <v>36876</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -23100,7 +23344,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45230</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="284">
@@ -23116,7 +23360,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -23164,7 +23408,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="n">
@@ -23177,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -23185,7 +23433,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45211</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="285">
@@ -23250,7 +23498,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/05</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -23298,7 +23546,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="n">
@@ -23311,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -23319,7 +23571,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45212</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="287">
@@ -23420,7 +23672,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -23468,7 +23720,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="n">
@@ -23481,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>62205</v>
+        <v>63299</v>
       </c>
       <c r="T288" t="inlineStr">
         <is>
@@ -23489,7 +23745,7 @@
         </is>
       </c>
       <c r="U288" s="2" t="n">
-        <v>45209</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="289">
@@ -24108,7 +24364,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -24156,7 +24412,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="n">
@@ -24169,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>68266</v>
+        <v>69495</v>
       </c>
       <c r="T296" t="inlineStr">
         <is>
@@ -24177,7 +24437,7 @@
         </is>
       </c>
       <c r="U296" s="2" t="n">
-        <v>45205</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="297">
@@ -25060,7 +25320,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -25108,7 +25368,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="n">
@@ -25121,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>5673</v>
+        <v>5770</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -25129,7 +25393,7 @@
         </is>
       </c>
       <c r="U308" s="2" t="n">
-        <v>45218</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="309">
@@ -25570,7 +25834,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -25618,7 +25882,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="n">
@@ -25631,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="S314" t="n">
-        <v>39525</v>
+        <v>39526</v>
       </c>
       <c r="T314" t="inlineStr">
         <is>
@@ -25639,7 +25907,7 @@
         </is>
       </c>
       <c r="U314" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="315">
@@ -25655,7 +25923,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -25703,7 +25971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="n">
@@ -25716,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>18543</v>
+        <v>18838</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -25724,7 +25996,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45232</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="316">
@@ -25874,7 +26146,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -25922,7 +26194,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="n">
@@ -25935,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>62592</v>
+        <v>63426</v>
       </c>
       <c r="T318" t="inlineStr">
         <is>
@@ -25943,7 +26219,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45212</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="319">
@@ -26210,7 +26486,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
@@ -26242,7 +26518,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N322" t="inlineStr">
         <is>
           <t>x</t>
@@ -26259,7 +26539,7 @@
         <v>0</v>
       </c>
       <c r="S322" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T322" t="inlineStr">
         <is>
@@ -26267,7 +26547,7 @@
         </is>
       </c>
       <c r="U322" s="2" t="n">
-        <v>45219</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="323">
@@ -26453,7 +26733,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -26501,7 +26781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="n">
@@ -26514,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>32821</v>
+        <v>33221</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -26522,7 +26806,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45216</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="326">
@@ -26538,7 +26822,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -26586,7 +26870,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="n">
@@ -26599,7 +26887,7 @@
         <v>0</v>
       </c>
       <c r="S326" t="n">
-        <v>12467</v>
+        <v>12637</v>
       </c>
       <c r="T326" t="inlineStr">
         <is>
@@ -26607,7 +26895,7 @@
         </is>
       </c>
       <c r="U326" s="2" t="n">
-        <v>45209</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="327">
@@ -26623,7 +26911,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/08/17</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26661,8 +26949,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -26676,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>36646</v>
+        <v>37596</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -26684,7 +26980,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45155</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="328">
@@ -27170,7 +27466,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
@@ -27181,12 +27477,12 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="n">
@@ -27199,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="S334" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T334" t="inlineStr">
         <is>
@@ -27207,7 +27503,7 @@
         </is>
       </c>
       <c r="U334" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="335">
@@ -27669,7 +27965,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -27717,7 +28013,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="n">
@@ -27730,7 +28030,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>53931</v>
+        <v>53932</v>
       </c>
       <c r="T341" t="inlineStr">
         <is>
@@ -27738,7 +28038,7 @@
         </is>
       </c>
       <c r="U341" s="2" t="n">
-        <v>45211</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="342">
@@ -28264,7 +28564,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -28333,7 +28633,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="349">
@@ -28434,7 +28734,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -28482,7 +28782,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="n">
@@ -28495,7 +28799,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>125588</v>
+        <v>126024</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -28503,7 +28807,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45215</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="351">
@@ -28851,7 +29155,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -28899,7 +29203,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="n">
@@ -28912,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>7800</v>
+        <v>7933</v>
       </c>
       <c r="T355" t="inlineStr">
         <is>
@@ -28920,7 +29228,7 @@
         </is>
       </c>
       <c r="U355" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="356">
@@ -29021,7 +29329,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -29069,7 +29377,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
@@ -29082,7 +29394,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>31124</v>
+        <v>31130</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -29090,7 +29402,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="358">
@@ -29786,7 +30098,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -29834,7 +30146,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="n">
@@ -29847,7 +30163,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>2222</v>
+        <v>2264</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -29855,7 +30171,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45209</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="367">
@@ -30555,7 +30871,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -30603,7 +30919,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="n">
@@ -30616,7 +30936,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>50766</v>
+        <v>51408</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -30624,7 +30944,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45229</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="376">
@@ -30895,7 +31215,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -30943,7 +31263,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M379" t="inlineStr"/>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="n">
@@ -30956,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="S379" t="n">
-        <v>46860</v>
+        <v>48070</v>
       </c>
       <c r="T379" t="inlineStr">
         <is>
@@ -30964,7 +31288,7 @@
         </is>
       </c>
       <c r="U379" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="380">
@@ -31397,7 +31721,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -31470,7 +31794,7 @@
         </is>
       </c>
       <c r="U385" s="2" t="n">
-        <v>45233</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="386">
@@ -31486,7 +31810,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -31534,7 +31858,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M386" t="inlineStr"/>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="n">
@@ -31547,7 +31875,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>24365</v>
+        <v>24657</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -31555,7 +31883,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45216</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="387">
@@ -32154,7 +32482,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -32202,7 +32530,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="n">
@@ -32215,7 +32547,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>21213</v>
+        <v>21743</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -32223,7 +32555,7 @@
         </is>
       </c>
       <c r="U394" s="2" t="n">
-        <v>45225</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="395">
@@ -32409,7 +32741,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -32453,7 +32785,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="n">
@@ -32466,7 +32802,7 @@
         <v>0</v>
       </c>
       <c r="S397" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -32474,7 +32810,7 @@
         </is>
       </c>
       <c r="U397" s="2" t="n">
-        <v>45204</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="398">
@@ -32838,7 +33174,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -32886,7 +33222,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M402" t="inlineStr"/>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="n">
@@ -32899,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>14509</v>
+        <v>14534</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -32907,7 +33247,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45232</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="403">
@@ -33008,7 +33348,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -33056,7 +33396,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="n">
@@ -33069,7 +33413,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>47101</v>
+        <v>47694</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -33077,7 +33421,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45211</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="405">
@@ -33178,7 +33522,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2023/09/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -33221,8 +33565,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L406" t="inlineStr"/>
-      <c r="M406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="n">
@@ -33235,7 +33587,7 @@
         <v>0</v>
       </c>
       <c r="S406" t="n">
-        <v>9668</v>
+        <v>9894</v>
       </c>
       <c r="T406" t="inlineStr">
         <is>
@@ -33243,7 +33595,7 @@
         </is>
       </c>
       <c r="U406" s="2" t="n">
-        <v>45180</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="407">
@@ -33753,7 +34105,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -33801,7 +34153,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="n">
@@ -33814,7 +34170,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -33822,7 +34178,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45203</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="414">
@@ -33915,7 +34271,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -33963,7 +34319,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="n">
@@ -33976,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="S415" t="n">
-        <v>28854</v>
+        <v>29134</v>
       </c>
       <c r="T415" t="inlineStr">
         <is>
@@ -33984,7 +34344,7 @@
         </is>
       </c>
       <c r="U415" s="2" t="n">
-        <v>45215</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="416">
@@ -34166,7 +34526,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -34214,7 +34574,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="n">
@@ -34227,7 +34591,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>2816</v>
+        <v>2822</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -34235,7 +34599,7 @@
         </is>
       </c>
       <c r="U418" s="2" t="n">
-        <v>45224</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="419">
@@ -34336,7 +34700,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -34384,7 +34748,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M420" t="inlineStr"/>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="n">
@@ -34397,7 +34765,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>3892</v>
+        <v>3910</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -34405,7 +34773,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45205</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="421">
@@ -34927,7 +35295,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -34975,7 +35343,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="n">
@@ -34988,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>72574</v>
+        <v>73398</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -34996,7 +35368,7 @@
         </is>
       </c>
       <c r="U427" s="2" t="n">
-        <v>45210</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="428">
@@ -35012,7 +35384,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -35060,7 +35432,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr"/>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="n">
@@ -35073,7 +35449,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>44726</v>
+        <v>45257</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -35081,7 +35457,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45212</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="429">
@@ -35182,7 +35558,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>2023/09/29</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -35225,7 +35601,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M430" t="inlineStr"/>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
@@ -35239,7 +35619,7 @@
         <v>0</v>
       </c>
       <c r="S430" t="n">
-        <v>17850</v>
+        <v>17994</v>
       </c>
       <c r="T430" t="inlineStr">
         <is>
@@ -35247,7 +35627,7 @@
         </is>
       </c>
       <c r="U430" s="2" t="n">
-        <v>45198</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="431">
@@ -35348,7 +35728,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -35396,7 +35776,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="n">
@@ -35409,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>34525</v>
+        <v>35519</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -35417,7 +35801,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45232</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="433">
@@ -35603,7 +35987,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -35672,7 +36056,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45212</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="436">
@@ -36360,7 +36744,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -36408,7 +36792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr"/>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
@@ -36425,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="n">
-        <v>6659</v>
+        <v>6898</v>
       </c>
       <c r="T444" t="inlineStr">
         <is>
@@ -36433,7 +36821,7 @@
         </is>
       </c>
       <c r="U444" s="2" t="n">
-        <v>45204</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="445">
@@ -37097,7 +37485,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -37145,7 +37533,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M453" t="inlineStr"/>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="n">
@@ -37158,7 +37550,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -37166,7 +37558,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45209</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="454">
@@ -37267,7 +37659,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -37315,7 +37707,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="n">
@@ -37328,7 +37724,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>48047</v>
+        <v>48584</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -37336,7 +37732,7 @@
         </is>
       </c>
       <c r="U455" s="2" t="n">
-        <v>45210</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="456">
@@ -37611,7 +38007,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -37676,7 +38072,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>4246</v>
+        <v>4263</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -37684,7 +38080,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="460">
@@ -37700,7 +38096,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -37748,7 +38144,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M460" t="inlineStr"/>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="n">
@@ -37761,7 +38161,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>20419</v>
+        <v>20713</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -37769,7 +38169,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45211</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="461">
@@ -37785,7 +38185,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -37833,7 +38233,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="n">
@@ -37846,7 +38250,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>13247</v>
+        <v>13399</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -37854,7 +38258,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45216</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="462">
@@ -37870,7 +38274,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -37918,7 +38322,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M462" t="inlineStr"/>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="n">
@@ -37931,7 +38339,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>2239</v>
+        <v>2270</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -37939,7 +38347,7 @@
         </is>
       </c>
       <c r="U462" s="2" t="n">
-        <v>45210</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="463">
@@ -38291,7 +38699,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/10/01</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -38339,7 +38747,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="n">
@@ -38352,7 +38764,7 @@
         <v>0</v>
       </c>
       <c r="S467" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T467" t="inlineStr">
         <is>
@@ -38360,7 +38772,7 @@
         </is>
       </c>
       <c r="U467" s="2" t="n">
-        <v>45200</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="468">
@@ -38376,7 +38788,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -38421,7 +38833,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45211</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="469">
@@ -38522,7 +38934,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -38583,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="S470" t="n">
-        <v>74898</v>
+        <v>77000</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
@@ -38591,7 +39003,7 @@
         </is>
       </c>
       <c r="U470" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="471">
@@ -38607,7 +39019,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -38655,7 +39067,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="n">
@@ -38668,7 +39084,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>31445</v>
+        <v>32519</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
@@ -38676,7 +39092,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45212</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="472">
@@ -38951,7 +39367,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -38999,7 +39415,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M475" t="inlineStr"/>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="n">
@@ -39012,7 +39432,7 @@
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>1489</v>
+        <v>1537</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
@@ -39020,7 +39440,7 @@
         </is>
       </c>
       <c r="U475" s="2" t="n">
-        <v>45205</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="476">
@@ -39036,7 +39456,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -39084,7 +39504,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M476" t="inlineStr"/>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="n">
@@ -39097,7 +39521,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>2010</v>
+        <v>2084</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -39105,7 +39529,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45210</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="477">
@@ -39121,7 +39545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
@@ -39198,7 +39622,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45212</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="478">
@@ -39214,7 +39638,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -39262,7 +39686,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M478" t="inlineStr"/>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="n">
@@ -39275,7 +39703,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>95850</v>
+        <v>97001</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -39283,7 +39711,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45211</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="479">
@@ -39433,7 +39861,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -39502,7 +39930,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45233</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="482">
@@ -41561,7 +41989,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -41609,7 +42037,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M509" t="inlineStr"/>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="n">
@@ -41622,7 +42054,7 @@
         <v>0</v>
       </c>
       <c r="S509" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="T509" t="inlineStr">
         <is>
@@ -41630,7 +42062,7 @@
         </is>
       </c>
       <c r="U509" s="2" t="n">
-        <v>45205</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="510">
@@ -41646,7 +42078,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -41690,7 +42122,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M510" t="inlineStr"/>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="n">
@@ -41703,7 +42139,7 @@
         <v>0</v>
       </c>
       <c r="S510" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="T510" t="inlineStr">
         <is>
@@ -41711,7 +42147,7 @@
         </is>
       </c>
       <c r="U510" s="2" t="n">
-        <v>45211</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="511">
@@ -41796,7 +42232,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -41844,7 +42280,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M512" t="inlineStr"/>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="n">
@@ -41857,7 +42297,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>2077</v>
+        <v>2228</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -41865,7 +42305,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="513">
@@ -42371,7 +42811,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -42395,7 +42835,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M519" t="inlineStr"/>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="n">
@@ -42408,7 +42852,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -42416,7 +42860,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45232</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="520">
@@ -42667,7 +43111,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -42715,7 +43159,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="n">
@@ -42728,7 +43176,7 @@
         <v>0</v>
       </c>
       <c r="S523" t="n">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="T523" t="inlineStr">
         <is>
@@ -42736,7 +43184,7 @@
         </is>
       </c>
       <c r="U523" s="2" t="n">
-        <v>45217</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="524">
@@ -42837,7 +43285,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -42885,7 +43333,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
@@ -42898,7 +43350,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -42906,7 +43358,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="526">
@@ -43238,7 +43690,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -43282,7 +43734,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M530" t="inlineStr"/>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="n">
@@ -43295,7 +43751,7 @@
         <v>0</v>
       </c>
       <c r="S530" t="n">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="T530" t="inlineStr">
         <is>
@@ -43303,7 +43759,7 @@
         </is>
       </c>
       <c r="U530" s="2" t="n">
-        <v>45209</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="531">
@@ -43319,7 +43775,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
@@ -43359,7 +43815,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="n">
@@ -43372,7 +43832,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -43380,7 +43840,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45229</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="532">
@@ -43465,7 +43925,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -43513,7 +43973,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M533" t="inlineStr"/>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="n">
@@ -43526,7 +43990,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="n">
-        <v>3382</v>
+        <v>3438</v>
       </c>
       <c r="T533" t="inlineStr">
         <is>
@@ -43534,7 +43998,7 @@
         </is>
       </c>
       <c r="U533" s="2" t="n">
-        <v>45202</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="534">
@@ -43599,7 +44063,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
@@ -43627,7 +44091,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M535" t="inlineStr"/>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="n">
@@ -43640,7 +44108,7 @@
         <v>0</v>
       </c>
       <c r="S535" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T535" t="inlineStr">
         <is>
@@ -43648,7 +44116,7 @@
         </is>
       </c>
       <c r="U535" s="2" t="n">
-        <v>45201</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="536">
@@ -43741,7 +44209,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -43789,7 +44257,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="n">
@@ -43802,7 +44274,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="n">
-        <v>795</v>
+        <v>850</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -43810,7 +44282,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45216</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="538">
@@ -43826,7 +44298,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -43874,7 +44346,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="n">
@@ -43887,7 +44363,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="T538" t="inlineStr">
         <is>
@@ -43895,7 +44371,7 @@
         </is>
       </c>
       <c r="U538" s="2" t="n">
-        <v>45203</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="539">
@@ -44102,7 +44578,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -44150,7 +44626,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="n">
@@ -44163,7 +44643,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -44171,7 +44651,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45204</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="543">
@@ -44187,7 +44667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -44235,7 +44715,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
@@ -44248,7 +44732,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -44256,7 +44740,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45219</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="544">
@@ -44272,7 +44756,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -44320,7 +44804,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M544" t="inlineStr"/>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="n">
@@ -44333,7 +44821,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -44341,7 +44829,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45202</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="545">
@@ -45232,7 +45720,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -45280,7 +45768,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M556" t="inlineStr"/>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N556" t="inlineStr"/>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="n">
@@ -45293,7 +45785,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -45301,7 +45793,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45202</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="557">
@@ -45463,7 +45955,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -45511,7 +46003,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M559" t="inlineStr"/>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N559" t="inlineStr"/>
       <c r="O559" t="inlineStr"/>
       <c r="P559" t="n">
@@ -45524,7 +46020,7 @@
         <v>0</v>
       </c>
       <c r="S559" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="T559" t="inlineStr">
         <is>
@@ -45532,7 +46028,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45201</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="560">
@@ -45933,7 +46429,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -45981,7 +46477,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M565" t="inlineStr"/>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="n">
@@ -45994,7 +46494,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T565" t="inlineStr">
         <is>
@@ -46002,7 +46502,7 @@
         </is>
       </c>
       <c r="U565" s="2" t="n">
-        <v>45211</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="566">
@@ -46188,7 +46688,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -46236,7 +46736,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M568" t="inlineStr"/>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N568" t="inlineStr"/>
       <c r="O568" t="inlineStr"/>
       <c r="P568" t="n">
@@ -46249,7 +46753,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="n">
-        <v>1506</v>
+        <v>1701</v>
       </c>
       <c r="T568" t="inlineStr">
         <is>
@@ -46257,7 +46761,7 @@
         </is>
       </c>
       <c r="U568" s="2" t="n">
-        <v>45205</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="569">
@@ -46419,7 +46923,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -46467,7 +46971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M571" t="inlineStr"/>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N571" t="inlineStr"/>
       <c r="O571" t="inlineStr"/>
       <c r="P571" t="n">
@@ -46480,7 +46988,7 @@
         <v>0</v>
       </c>
       <c r="S571" t="n">
-        <v>779</v>
+        <v>827</v>
       </c>
       <c r="T571" t="inlineStr">
         <is>
@@ -46488,7 +46996,7 @@
         </is>
       </c>
       <c r="U571" s="2" t="n">
-        <v>45203</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="572">
@@ -46581,7 +47089,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -46629,7 +47137,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M573" t="inlineStr"/>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="n">
@@ -46642,7 +47154,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -46650,7 +47162,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="574">
@@ -46751,7 +47263,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -46799,7 +47311,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M575" t="inlineStr"/>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N575" t="inlineStr"/>
       <c r="O575" t="inlineStr"/>
       <c r="P575" t="n">
@@ -46812,7 +47328,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -46820,7 +47336,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45215</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="576">
@@ -47055,7 +47571,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -47095,7 +47611,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M579" t="inlineStr"/>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N579" t="inlineStr"/>
       <c r="O579" t="inlineStr"/>
       <c r="P579" t="n">
@@ -47108,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="S579" t="n">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="T579" t="inlineStr">
         <is>
@@ -47116,7 +47636,7 @@
         </is>
       </c>
       <c r="U579" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="580">
@@ -47132,7 +47652,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -47175,7 +47695,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="inlineStr"/>
@@ -47189,7 +47713,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="n">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="T580" t="inlineStr">
         <is>
@@ -47197,7 +47721,7 @@
         </is>
       </c>
       <c r="U580" s="2" t="n">
-        <v>45181</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="581">
@@ -47493,7 +48017,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -47537,7 +48061,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M585" t="inlineStr"/>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N585" t="inlineStr"/>
       <c r="O585" t="inlineStr"/>
       <c r="P585" t="n">
@@ -47550,7 +48078,7 @@
         <v>0</v>
       </c>
       <c r="S585" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="T585" t="inlineStr">
         <is>
@@ -47558,7 +48086,7 @@
         </is>
       </c>
       <c r="U585" s="2" t="n">
-        <v>45205</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="586">
@@ -47574,7 +48102,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/11/04</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -47614,7 +48142,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="n">
@@ -47627,7 +48159,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>2484</v>
+        <v>3824</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -47635,7 +48167,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45234</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="587">
@@ -47728,7 +48260,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -47776,7 +48308,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M588" t="inlineStr"/>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N588" t="inlineStr"/>
       <c r="O588" t="inlineStr"/>
       <c r="P588" t="n">
@@ -47789,7 +48325,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -47797,7 +48333,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="589">
@@ -48032,7 +48568,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/08/08</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -48070,8 +48606,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M592" t="inlineStr"/>
       <c r="N592" t="inlineStr"/>
       <c r="O592" t="inlineStr">
@@ -48089,7 +48633,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -48097,7 +48641,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45146</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="593">
@@ -48194,7 +48738,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
@@ -48226,7 +48770,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M594" t="inlineStr"/>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N594" t="inlineStr"/>
       <c r="O594" t="inlineStr"/>
       <c r="P594" t="n">
@@ -48239,7 +48787,7 @@
         <v>0</v>
       </c>
       <c r="S594" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T594" t="inlineStr">
         <is>
@@ -48247,7 +48795,7 @@
         </is>
       </c>
       <c r="U594" s="2" t="n">
-        <v>45210</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="595">
@@ -48316,7 +48864,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
@@ -48348,7 +48896,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M596" t="inlineStr"/>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N596" t="inlineStr"/>
       <c r="O596" t="inlineStr"/>
       <c r="P596" t="n">
@@ -48361,7 +48913,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -48369,7 +48921,7 @@
         </is>
       </c>
       <c r="U596" s="2" t="n">
-        <v>45209</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="597">
@@ -48385,7 +48937,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -48433,7 +48985,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="n">
@@ -48446,7 +49002,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -48454,7 +49010,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="598">
@@ -48616,7 +49172,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
@@ -48644,7 +49200,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M600" t="inlineStr"/>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N600" t="inlineStr"/>
       <c r="O600" t="inlineStr"/>
       <c r="P600" t="n">
@@ -48657,7 +49217,7 @@
         <v>0</v>
       </c>
       <c r="S600" t="n">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="T600" t="inlineStr">
         <is>
@@ -48665,7 +49225,7 @@
         </is>
       </c>
       <c r="U600" s="2" t="n">
-        <v>45209</v>
+        <v>45237</v>
       </c>
     </row>
     <row r="601">
@@ -48856,7 +49416,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -48901,7 +49461,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45216</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="605">
@@ -49055,7 +49615,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
@@ -49079,7 +49639,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M607" t="inlineStr"/>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N607" t="inlineStr"/>
       <c r="O607" t="inlineStr"/>
       <c r="P607" t="n">
@@ -49092,7 +49656,7 @@
         <v>0</v>
       </c>
       <c r="S607" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T607" t="inlineStr">
         <is>
@@ -49100,7 +49664,7 @@
         </is>
       </c>
       <c r="U607" s="2" t="n">
-        <v>45205</v>
+        <v>45236</v>
       </c>
     </row>
     <row r="608">
@@ -49193,7 +49757,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -49241,7 +49805,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N609" t="inlineStr"/>
       <c r="O609" t="inlineStr"/>
       <c r="P609" t="n">
@@ -49254,7 +49822,7 @@
         <v>0</v>
       </c>
       <c r="S609" t="n">
-        <v>76785</v>
+        <v>87939</v>
       </c>
       <c r="T609" t="inlineStr">
         <is>
@@ -49262,7 +49830,7 @@
         </is>
       </c>
       <c r="U609" s="2" t="n">
-        <v>45229</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="610">
@@ -49273,44 +49841,20 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Corporación Cultural y de Extensión de La Ilustre Municipalidad de Constitución</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
-        </is>
-      </c>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I610" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2023/11/10</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr"/>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
           <t>x</t>
@@ -49326,7 +49870,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M610" t="inlineStr"/>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N610" t="inlineStr"/>
       <c r="O610" t="inlineStr"/>
       <c r="P610" t="n">
@@ -49339,14 +49887,99 @@
         <v>0</v>
       </c>
       <c r="S610" t="n">
+        <v>4</v>
+      </c>
+      <c r="T610" t="inlineStr">
+        <is>
+          <t>FU016</t>
+        </is>
+      </c>
+      <c r="U610" s="2" t="n">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Corporación Cultural y de Extensión de La Ilustre Municipalidad de Constitución</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>2023/10/17</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr"/>
+      <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
+      <c r="S611" t="n">
         <v>55</v>
       </c>
-      <c r="T610" t="inlineStr">
+      <c r="T611" t="inlineStr">
         <is>
           <t>CM108</t>
         </is>
       </c>
-      <c r="U610" s="2" t="n">
+      <c r="U611" s="2" t="n">
         <v>45216</v>
       </c>
     </row>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -685,7 +685,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
@@ -698,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -706,7 +710,7 @@
         </is>
       </c>
       <c r="U5" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1128,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1173,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1181,7 +1185,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1250,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1279,7 +1283,7 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="15">
@@ -1514,7 +1518,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1557,8 +1561,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1571,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1579,7 +1591,7 @@
         </is>
       </c>
       <c r="U18" s="2" t="n">
-        <v>45202</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="19">
@@ -1595,7 +1607,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1643,7 +1655,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1656,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>8760</v>
+        <v>8873</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1664,7 +1680,7 @@
         </is>
       </c>
       <c r="U19" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="20">
@@ -1729,7 +1745,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1762,7 +1778,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45236</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="22">
@@ -3266,7 +3282,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3331,7 +3347,7 @@
         </is>
       </c>
       <c r="U42" s="2" t="n">
-        <v>45224</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="43">
@@ -4239,7 +4255,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4287,7 +4303,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -4300,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>7136</v>
+        <v>7323</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4308,7 +4328,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="56">
@@ -4401,7 +4421,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4449,7 +4469,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
@@ -4466,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>69036</v>
+        <v>70069</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -4474,7 +4498,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45209</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="58">
@@ -4749,7 +4773,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4797,7 +4821,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -4810,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>15057</v>
+        <v>15126</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -4818,7 +4846,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45209</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="62">
@@ -4834,7 +4862,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4882,7 +4910,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
@@ -4895,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>515</v>
+        <v>743</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -4903,7 +4935,7 @@
         </is>
       </c>
       <c r="U62" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="63">
@@ -4968,7 +5000,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5029,7 +5061,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45222</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="65">
@@ -5118,7 +5150,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -5151,7 +5183,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45205</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="67">
@@ -5662,7 +5694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5727,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>87832</v>
+        <v>88723</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -5735,7 +5767,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="75">
@@ -6010,7 +6042,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6058,7 +6090,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -6071,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>10908</v>
+        <v>11085</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6079,7 +6115,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45211</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="79">
@@ -6435,7 +6471,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6500,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>24766</v>
+        <v>25035</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -6508,7 +6544,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45237</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="84">
@@ -6876,7 +6912,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6924,7 +6960,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -6937,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>80421</v>
+        <v>80693</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -6945,7 +6985,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="89">
@@ -7884,7 +7924,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7932,7 +7972,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
@@ -7945,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>76447</v>
+        <v>77392</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -7953,7 +7997,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45210</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="101">
@@ -7969,7 +8013,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -8017,7 +8061,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
@@ -8030,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>21174</v>
+        <v>21176</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -8038,7 +8086,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45222</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="102">
@@ -8184,7 +8232,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8233,7 +8281,7 @@
         </is>
       </c>
       <c r="U104" s="2" t="n">
-        <v>45201</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="105">
@@ -8249,7 +8297,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8297,7 +8345,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
@@ -8310,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>44629</v>
+        <v>45135</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -8318,7 +8370,7 @@
         </is>
       </c>
       <c r="U105" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="106">
@@ -8597,7 +8649,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -8645,7 +8697,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
@@ -8658,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>33603</v>
+        <v>34129</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -8666,7 +8722,7 @@
         </is>
       </c>
       <c r="U109" s="2" t="n">
-        <v>45225</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="110">
@@ -9107,7 +9163,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9155,7 +9211,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
@@ -9168,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>75915</v>
+        <v>77187</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -9176,7 +9236,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="116">
@@ -9192,7 +9252,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9240,7 +9300,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
@@ -9253,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>11924</v>
+        <v>12043</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -9261,7 +9325,7 @@
         </is>
       </c>
       <c r="U116" s="2" t="n">
-        <v>45210</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="117">
@@ -9625,7 +9689,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9673,7 +9737,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -9686,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -9694,7 +9762,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="122">
@@ -9710,7 +9778,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9779,7 +9847,7 @@
         </is>
       </c>
       <c r="U122" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="123">
@@ -9880,7 +9948,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9953,7 +10021,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="125">
@@ -10054,7 +10122,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -10102,7 +10170,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
@@ -10115,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>1513</v>
+        <v>1531</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -10123,7 +10195,7 @@
         </is>
       </c>
       <c r="U126" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="127">
@@ -10224,7 +10296,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -10272,7 +10344,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -10285,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -10293,7 +10369,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="129">
@@ -10309,7 +10385,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -10357,7 +10433,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -10370,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>211324</v>
+        <v>214978</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -10378,7 +10458,7 @@
         </is>
       </c>
       <c r="U129" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="130">
@@ -11005,7 +11085,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -11053,7 +11133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
@@ -11066,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T137" t="inlineStr">
         <is>
@@ -11074,7 +11158,7 @@
         </is>
       </c>
       <c r="U137" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="138">
@@ -11495,7 +11579,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -11543,7 +11627,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
@@ -11556,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T143" t="inlineStr">
         <is>
@@ -11564,7 +11652,7 @@
         </is>
       </c>
       <c r="U143" s="2" t="n">
-        <v>45210</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="144">
@@ -11580,7 +11668,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -11628,7 +11716,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
@@ -11641,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -11649,7 +11741,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="145">
@@ -11916,7 +12008,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -11964,7 +12056,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
@@ -11977,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>16728</v>
+        <v>16924</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -11985,7 +12081,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="149">
@@ -12086,7 +12182,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -12122,7 +12218,11 @@
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
@@ -12135,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -12143,7 +12243,7 @@
         </is>
       </c>
       <c r="U150" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="151">
@@ -12159,7 +12259,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -12207,7 +12307,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -12220,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>41746</v>
+        <v>42376</v>
       </c>
       <c r="T151" t="inlineStr">
         <is>
@@ -12228,7 +12332,7 @@
         </is>
       </c>
       <c r="U151" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="152">
@@ -12244,7 +12348,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -12317,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>12025</v>
+        <v>12196</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -12325,7 +12429,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="153">
@@ -12689,7 +12793,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/12</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12737,7 +12841,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
@@ -12750,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>28672</v>
+        <v>29220</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -12758,7 +12866,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45215</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="158">
@@ -13102,7 +13210,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13171,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>2897</v>
+        <v>2953</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -13179,7 +13287,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="163">
@@ -13195,7 +13303,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13243,7 +13351,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
@@ -13256,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>39907</v>
+        <v>40487</v>
       </c>
       <c r="T163" t="inlineStr">
         <is>
@@ -13264,7 +13376,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="164">
@@ -13365,7 +13477,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13413,7 +13525,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
@@ -13426,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>41787</v>
+        <v>41835</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -13434,7 +13550,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45209</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="166">
@@ -13624,7 +13740,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13672,7 +13788,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
@@ -13685,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>14179</v>
+        <v>14506</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -13693,7 +13813,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="169">
@@ -14114,7 +14234,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -14162,7 +14282,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
@@ -14175,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>22374</v>
+        <v>22807</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -14183,7 +14307,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="175">
@@ -14280,7 +14404,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -14328,7 +14452,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
@@ -14341,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>12773</v>
+        <v>12926</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -14349,7 +14477,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="177">
@@ -14454,7 +14582,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -14519,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>17515</v>
+        <v>17667</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -14527,7 +14655,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="179">
@@ -14806,7 +14934,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14854,7 +14982,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
@@ -14867,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -14875,7 +15007,7 @@
         </is>
       </c>
       <c r="U182" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="183">
@@ -14976,7 +15108,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -15024,7 +15156,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
@@ -15037,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>12081</v>
+        <v>12208</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
@@ -15045,7 +15181,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="185">
@@ -15061,7 +15197,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -15134,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>33751</v>
+        <v>34242</v>
       </c>
       <c r="T185" t="inlineStr">
         <is>
@@ -15142,7 +15278,7 @@
         </is>
       </c>
       <c r="U185" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="186">
@@ -15518,7 +15654,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -15551,7 +15687,7 @@
         </is>
       </c>
       <c r="U190" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="191">
@@ -15737,7 +15873,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -15781,7 +15917,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -15794,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>6537</v>
+        <v>6614</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -15802,7 +15942,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="194">
@@ -15915,7 +16055,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -15980,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>21166</v>
+        <v>21178</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -15988,7 +16128,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45239</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="196">
@@ -16089,7 +16229,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -16137,7 +16277,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
@@ -16150,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -16158,7 +16302,7 @@
         </is>
       </c>
       <c r="U197" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="198">
@@ -16271,7 +16415,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -16344,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>24080</v>
+        <v>24310</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -16352,7 +16496,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="200">
@@ -16676,7 +16820,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -16720,7 +16864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="n">
@@ -16733,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -16741,7 +16889,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45209</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="205">
@@ -16757,7 +16905,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -16818,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>126516</v>
+        <v>128533</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -16826,7 +16974,7 @@
         </is>
       </c>
       <c r="U205" s="2" t="n">
-        <v>45233</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="206">
@@ -16842,7 +16990,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -16890,7 +17038,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="n">
@@ -16903,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="T206" t="inlineStr">
         <is>
@@ -16911,7 +17063,7 @@
         </is>
       </c>
       <c r="U206" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="207">
@@ -17012,7 +17164,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -17060,7 +17212,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="n">
@@ -17073,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>5096</v>
+        <v>5226</v>
       </c>
       <c r="T208" t="inlineStr">
         <is>
@@ -17081,7 +17237,7 @@
         </is>
       </c>
       <c r="U208" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="209">
@@ -17097,7 +17253,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -17145,7 +17301,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="n">
@@ -17158,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="S209" t="n">
-        <v>73454</v>
+        <v>74548</v>
       </c>
       <c r="T209" t="inlineStr">
         <is>
@@ -17166,7 +17326,7 @@
         </is>
       </c>
       <c r="U209" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="210">
@@ -17182,7 +17342,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -17230,7 +17390,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
@@ -17243,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>39111</v>
+        <v>39658</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -17251,7 +17415,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="211">
@@ -17356,7 +17520,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -17404,7 +17568,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
@@ -17417,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>14242</v>
+        <v>14383</v>
       </c>
       <c r="T212" t="inlineStr">
         <is>
@@ -17425,7 +17593,7 @@
         </is>
       </c>
       <c r="U212" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="213">
@@ -17441,7 +17609,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -17489,7 +17657,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
@@ -17502,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>9887</v>
+        <v>9987</v>
       </c>
       <c r="T213" t="inlineStr">
         <is>
@@ -17510,7 +17682,7 @@
         </is>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45209</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="214">
@@ -17704,7 +17876,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -17752,7 +17924,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
@@ -17765,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>37309</v>
+        <v>37801</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -17773,7 +17949,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="217">
@@ -17874,7 +18050,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -17918,7 +18094,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="n">
@@ -17931,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>15214</v>
+        <v>15348</v>
       </c>
       <c r="T218" t="inlineStr">
         <is>
@@ -17939,7 +18119,7 @@
         </is>
       </c>
       <c r="U218" s="2" t="n">
-        <v>45238</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="219">
@@ -18040,7 +18220,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -18109,7 +18289,7 @@
         </is>
       </c>
       <c r="U220" s="2" t="n">
-        <v>45232</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="221">
@@ -18125,7 +18305,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -18169,7 +18349,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
@@ -18182,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>21175</v>
+        <v>21256</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -18190,7 +18374,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="222">
@@ -18291,7 +18475,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -18364,7 +18548,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45239</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="224">
@@ -18465,7 +18649,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -18513,7 +18697,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
@@ -18526,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>19211</v>
+        <v>19557</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -18534,7 +18722,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="226">
@@ -19210,7 +19398,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -19253,8 +19441,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="n">
@@ -19267,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="T234" t="inlineStr">
         <is>
@@ -19275,7 +19471,7 @@
         </is>
       </c>
       <c r="U234" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="235">
@@ -19291,7 +19487,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -19339,7 +19535,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="n">
@@ -19352,7 +19552,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -19360,7 +19560,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45208</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="236">
@@ -20161,7 +20361,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -20209,7 +20409,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
@@ -20222,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>9195</v>
+        <v>9434</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -20230,7 +20434,7 @@
         </is>
       </c>
       <c r="U245" s="2" t="n">
-        <v>45210</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="246">
@@ -20246,7 +20450,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -20294,7 +20498,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="n">
@@ -20307,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -20315,7 +20523,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="247">
@@ -20416,7 +20624,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -20464,7 +20672,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="n">
@@ -20477,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -20485,7 +20697,7 @@
         </is>
       </c>
       <c r="U248" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="249">
@@ -20963,7 +21175,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -21011,7 +21223,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="n">
@@ -21024,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>11830</v>
+        <v>12091</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -21032,7 +21248,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="256">
@@ -21129,7 +21345,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -21177,7 +21393,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
@@ -21190,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>23868</v>
+        <v>24108</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -21198,7 +21418,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="258">
@@ -21214,7 +21434,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -21262,7 +21482,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="n">
@@ -21275,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>14199</v>
+        <v>14354</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -21283,7 +21507,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="259">
@@ -21299,7 +21523,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -21347,7 +21571,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="n">
@@ -21360,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="S259" t="n">
-        <v>66032</v>
+        <v>67616</v>
       </c>
       <c r="T259" t="inlineStr">
         <is>
@@ -21368,7 +21596,7 @@
         </is>
       </c>
       <c r="U259" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="260">
@@ -21554,7 +21782,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -21602,7 +21830,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="n">
@@ -21615,7 +21847,7 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>19421</v>
+        <v>19723</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
@@ -21623,7 +21855,7 @@
         </is>
       </c>
       <c r="U262" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="263">
@@ -21639,7 +21871,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -21687,7 +21919,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="n">
@@ -21700,7 +21936,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>14287</v>
+        <v>14579</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -21708,7 +21944,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="264">
@@ -21724,7 +21960,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -21789,7 +22025,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>73767</v>
+        <v>74405</v>
       </c>
       <c r="T264" t="inlineStr">
         <is>
@@ -21797,7 +22033,7 @@
         </is>
       </c>
       <c r="U264" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="265">
@@ -21813,7 +22049,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -21861,7 +22097,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="n">
@@ -21874,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>23245</v>
+        <v>23555</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -21882,7 +22122,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="266">
@@ -21898,7 +22138,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -21946,7 +22186,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="n">
@@ -21959,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T266" t="inlineStr">
         <is>
@@ -21967,7 +22211,7 @@
         </is>
       </c>
       <c r="U266" s="2" t="n">
-        <v>45218</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="267">
@@ -21983,7 +22227,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -22031,7 +22275,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="n">
@@ -22044,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>12230</v>
+        <v>12281</v>
       </c>
       <c r="T267" t="inlineStr">
         <is>
@@ -22052,7 +22300,7 @@
         </is>
       </c>
       <c r="U267" s="2" t="n">
-        <v>45213</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="268">
@@ -22238,7 +22486,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -22286,7 +22534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="n">
@@ -22299,7 +22551,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>7313</v>
+        <v>7401</v>
       </c>
       <c r="T270" t="inlineStr">
         <is>
@@ -22307,7 +22559,7 @@
         </is>
       </c>
       <c r="U270" s="2" t="n">
-        <v>45224</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="271">
@@ -22764,7 +23016,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -22825,7 +23077,7 @@
         </is>
       </c>
       <c r="U276" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="277">
@@ -22841,7 +23093,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -22889,7 +23141,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="n">
@@ -22902,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>7682</v>
+        <v>7783</v>
       </c>
       <c r="T277" t="inlineStr">
         <is>
@@ -22910,7 +23166,7 @@
         </is>
       </c>
       <c r="U277" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="278">
@@ -23011,7 +23267,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -23059,7 +23315,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="n">
@@ -23072,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>32777</v>
+        <v>33223</v>
       </c>
       <c r="T279" t="inlineStr">
         <is>
@@ -23080,7 +23340,7 @@
         </is>
       </c>
       <c r="U279" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="280">
@@ -23271,7 +23531,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -23336,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>36876</v>
+        <v>37280</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -23344,7 +23604,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="284">
@@ -23587,7 +23847,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -23635,7 +23895,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="n">
@@ -23648,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="S287" t="n">
-        <v>23418</v>
+        <v>23933</v>
       </c>
       <c r="T287" t="inlineStr">
         <is>
@@ -23656,7 +23920,7 @@
         </is>
       </c>
       <c r="U287" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="288">
@@ -23761,7 +24025,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -23809,7 +24073,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
@@ -23822,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>10058</v>
+        <v>10245</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -23830,7 +24098,7 @@
         </is>
       </c>
       <c r="U289" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="290">
@@ -24109,7 +24377,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -24157,7 +24425,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="n">
@@ -24170,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>19278</v>
+        <v>19634</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -24178,7 +24450,7 @@
         </is>
       </c>
       <c r="U293" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="294">
@@ -24194,7 +24466,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -24242,7 +24514,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="n">
@@ -24255,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>12697</v>
+        <v>12785</v>
       </c>
       <c r="T294" t="inlineStr">
         <is>
@@ -24263,7 +24539,7 @@
         </is>
       </c>
       <c r="U294" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="295">
@@ -24846,7 +25122,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -24894,7 +25170,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="n">
@@ -24907,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="S302" t="n">
-        <v>15669</v>
+        <v>15670</v>
       </c>
       <c r="T302" t="inlineStr">
         <is>
@@ -24915,7 +25195,7 @@
         </is>
       </c>
       <c r="U302" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="303">
@@ -25065,7 +25345,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -25113,7 +25393,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="n">
@@ -25126,7 +25410,7 @@
         <v>0</v>
       </c>
       <c r="S305" t="n">
-        <v>37872</v>
+        <v>38253</v>
       </c>
       <c r="T305" t="inlineStr">
         <is>
@@ -25134,7 +25418,7 @@
         </is>
       </c>
       <c r="U305" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="306">
@@ -25235,7 +25519,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -25283,7 +25567,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="n">
@@ -25296,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="T307" t="inlineStr">
         <is>
@@ -25304,7 +25592,7 @@
         </is>
       </c>
       <c r="U307" s="2" t="n">
-        <v>45209</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="308">
@@ -25494,7 +25782,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/12</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -25542,7 +25830,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="n">
@@ -25555,7 +25847,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="n">
-        <v>9618</v>
+        <v>9750</v>
       </c>
       <c r="T310" t="inlineStr">
         <is>
@@ -25563,7 +25855,7 @@
         </is>
       </c>
       <c r="U310" s="2" t="n">
-        <v>45217</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="311">
@@ -25579,7 +25871,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -25627,7 +25919,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="n">
@@ -25640,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="n">
-        <v>168511</v>
+        <v>170471</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -25648,7 +25944,7 @@
         </is>
       </c>
       <c r="U311" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="312">
@@ -25834,7 +26130,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -25899,7 +26195,7 @@
         <v>0</v>
       </c>
       <c r="S314" t="n">
-        <v>39526</v>
+        <v>40104</v>
       </c>
       <c r="T314" t="inlineStr">
         <is>
@@ -25907,7 +26203,7 @@
         </is>
       </c>
       <c r="U314" s="2" t="n">
-        <v>45237</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="315">
@@ -25923,7 +26219,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -25988,7 +26284,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>18838</v>
+        <v>18839</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -25996,7 +26292,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="316">
@@ -26012,7 +26308,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -26060,7 +26356,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="n">
@@ -26073,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>52179</v>
+        <v>52643</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -26081,7 +26381,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="317">
@@ -26235,7 +26535,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -26278,8 +26578,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="n">
@@ -26292,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>29007</v>
+        <v>29639</v>
       </c>
       <c r="T319" t="inlineStr">
         <is>
@@ -26300,7 +26608,7 @@
         </is>
       </c>
       <c r="U319" s="2" t="n">
-        <v>45204</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="320">
@@ -26316,7 +26624,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -26364,7 +26672,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="n">
@@ -26377,7 +26689,7 @@
         <v>0</v>
       </c>
       <c r="S320" t="n">
-        <v>61430</v>
+        <v>62145</v>
       </c>
       <c r="T320" t="inlineStr">
         <is>
@@ -26385,7 +26697,7 @@
         </is>
       </c>
       <c r="U320" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="321">
@@ -26733,7 +27045,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -26798,7 +27110,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>33221</v>
+        <v>33223</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -26806,7 +27118,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45238</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="326">
@@ -26911,7 +27223,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26959,7 +27271,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="n">
@@ -26972,7 +27288,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>37596</v>
+        <v>38071</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -26980,7 +27296,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45236</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="328">
@@ -27081,7 +27397,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -27150,7 +27466,7 @@
         </is>
       </c>
       <c r="U329" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="330">
@@ -27166,7 +27482,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -27214,7 +27530,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="n">
@@ -27227,7 +27547,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>42646</v>
+        <v>43287</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -27235,7 +27555,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="331">
@@ -27251,7 +27571,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -27320,7 +27640,7 @@
         </is>
       </c>
       <c r="U331" s="2" t="n">
-        <v>45205</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="332">
@@ -27519,7 +27839,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -27567,7 +27887,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="n">
@@ -27580,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="S335" t="n">
-        <v>57981</v>
+        <v>58523</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -27588,7 +27912,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="336">
@@ -27604,7 +27928,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -27652,7 +27976,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="n">
@@ -27665,7 +27993,7 @@
         <v>0</v>
       </c>
       <c r="S336" t="n">
-        <v>12878</v>
+        <v>12985</v>
       </c>
       <c r="T336" t="inlineStr">
         <is>
@@ -27673,7 +28001,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="337">
@@ -27750,7 +28078,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -27793,7 +28121,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
@@ -27807,7 +28139,7 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>41743</v>
+        <v>42254</v>
       </c>
       <c r="T338" t="inlineStr">
         <is>
@@ -27815,7 +28147,7 @@
         </is>
       </c>
       <c r="U338" s="2" t="n">
-        <v>45202</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="339">
@@ -27831,7 +28163,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
@@ -27864,7 +28196,7 @@
         </is>
       </c>
       <c r="U339" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="340">
@@ -28224,7 +28556,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -28272,7 +28604,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="n">
@@ -28285,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>22123</v>
+        <v>22383</v>
       </c>
       <c r="T344" t="inlineStr">
         <is>
@@ -28293,7 +28629,7 @@
         </is>
       </c>
       <c r="U344" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="345">
@@ -28309,7 +28645,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -28370,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>2209</v>
+        <v>2254</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -28378,7 +28714,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="346">
@@ -28394,7 +28730,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -28442,7 +28778,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="n">
@@ -28455,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>49047</v>
+        <v>49052</v>
       </c>
       <c r="T346" t="inlineStr">
         <is>
@@ -28463,7 +28803,7 @@
         </is>
       </c>
       <c r="U346" s="2" t="n">
-        <v>45217</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="347">
@@ -29495,7 +29835,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -29543,7 +29883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="n">
@@ -29556,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>82094</v>
+        <v>83147</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -29564,7 +29908,7 @@
         </is>
       </c>
       <c r="U359" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="360">
@@ -29750,7 +30094,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -29798,7 +30142,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M362" t="inlineStr"/>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="n">
@@ -29811,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="S362" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T362" t="inlineStr">
         <is>
@@ -29819,7 +30167,7 @@
         </is>
       </c>
       <c r="U362" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="363">
@@ -29835,7 +30183,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -29883,7 +30231,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="n">
@@ -29896,7 +30248,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>27006</v>
+        <v>27349</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -29904,7 +30256,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45218</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="364">
@@ -30187,7 +30539,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -30235,7 +30587,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M367" t="inlineStr"/>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="n">
@@ -30248,7 +30604,7 @@
         <v>0</v>
       </c>
       <c r="S367" t="n">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="T367" t="inlineStr">
         <is>
@@ -30256,7 +30612,7 @@
         </is>
       </c>
       <c r="U367" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="368">
@@ -30272,7 +30628,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -30320,7 +30676,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="n">
@@ -30333,7 +30693,7 @@
         <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -30341,7 +30701,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="369">
@@ -30527,7 +30887,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -30571,7 +30931,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M371" t="inlineStr"/>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="n">
@@ -30584,7 +30948,7 @@
         <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T371" t="inlineStr">
         <is>
@@ -30592,7 +30956,7 @@
         </is>
       </c>
       <c r="U371" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="372">
@@ -30871,7 +31235,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -30936,7 +31300,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>51408</v>
+        <v>51576</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -30944,7 +31308,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45237</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="376">
@@ -31130,7 +31494,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -31178,7 +31542,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M378" t="inlineStr"/>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="n">
@@ -31191,7 +31559,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>1892</v>
+        <v>1927</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -31199,7 +31567,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45217</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="379">
@@ -31389,7 +31757,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -31425,7 +31793,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M381" t="inlineStr"/>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="n">
@@ -31438,7 +31810,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>15362</v>
+        <v>15536</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -31446,7 +31818,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="382">
@@ -31462,7 +31834,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -31510,7 +31882,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr"/>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="n">
@@ -31523,7 +31899,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -31531,7 +31907,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45210</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="383">
@@ -31547,7 +31923,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -31595,7 +31971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M383" t="inlineStr"/>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="n">
@@ -31608,7 +31988,7 @@
         <v>0</v>
       </c>
       <c r="S383" t="n">
-        <v>2011</v>
+        <v>2221</v>
       </c>
       <c r="T383" t="inlineStr">
         <is>
@@ -31616,7 +31996,7 @@
         </is>
       </c>
       <c r="U383" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="384">
@@ -31899,7 +32279,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -31947,7 +32327,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr"/>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="n">
@@ -31960,7 +32344,7 @@
         <v>0</v>
       </c>
       <c r="S387" t="n">
-        <v>31365</v>
+        <v>31661</v>
       </c>
       <c r="T387" t="inlineStr">
         <is>
@@ -31968,7 +32352,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="388">
@@ -31984,7 +32368,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -32032,7 +32416,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="n">
@@ -32045,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>13505</v>
+        <v>13747</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -32053,7 +32441,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45217</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="389">
@@ -32154,7 +32542,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -32202,7 +32590,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M390" t="inlineStr"/>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="n">
@@ -32215,7 +32607,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>125690</v>
+        <v>127767</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -32223,7 +32615,7 @@
         </is>
       </c>
       <c r="U390" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="391">
@@ -32409,7 +32801,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -32466,7 +32858,7 @@
         </is>
       </c>
       <c r="U393" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="394">
@@ -32919,7 +33311,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -32967,7 +33359,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M399" t="inlineStr"/>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="n">
@@ -32980,7 +33376,7 @@
         <v>0</v>
       </c>
       <c r="S399" t="n">
-        <v>63748</v>
+        <v>64533</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -32988,7 +33384,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="400">
@@ -33089,7 +33485,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -33137,7 +33533,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
@@ -33150,7 +33550,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>6810</v>
+        <v>6883</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -33158,7 +33558,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45209</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="402">
@@ -33174,7 +33574,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -33239,7 +33639,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>14534</v>
+        <v>14541</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -33247,7 +33647,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="403">
@@ -33437,7 +33837,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -33485,7 +33885,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M405" t="inlineStr"/>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="n">
@@ -33498,7 +33902,7 @@
         <v>0</v>
       </c>
       <c r="S405" t="n">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="T405" t="inlineStr">
         <is>
@@ -33506,7 +33910,7 @@
         </is>
       </c>
       <c r="U405" s="2" t="n">
-        <v>45209</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="406">
@@ -33672,7 +34076,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -33720,7 +34124,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M408" t="inlineStr"/>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N408" t="inlineStr">
         <is>
           <t>x</t>
@@ -33741,7 +34149,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>15007</v>
+        <v>15233</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -33749,7 +34157,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45213</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="409">
@@ -33935,7 +34343,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -33983,7 +34391,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="n">
@@ -33996,7 +34408,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>12484</v>
+        <v>13329</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -34004,7 +34416,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="412">
@@ -34360,7 +34772,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -34408,7 +34820,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="n">
@@ -34421,7 +34837,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>2186</v>
+        <v>2205</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -34429,7 +34845,7 @@
         </is>
       </c>
       <c r="U416" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="417">
@@ -34445,7 +34861,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -34489,7 +34905,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="n">
@@ -34502,7 +34922,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>15839</v>
+        <v>15848</v>
       </c>
       <c r="T417" t="inlineStr">
         <is>
@@ -34510,7 +34930,7 @@
         </is>
       </c>
       <c r="U417" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="418">
@@ -34789,7 +35209,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -34837,7 +35257,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M421" t="inlineStr"/>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="n">
@@ -34850,7 +35274,7 @@
         <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>17282</v>
+        <v>17504</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -34858,7 +35282,7 @@
         </is>
       </c>
       <c r="U421" s="2" t="n">
-        <v>45232</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="422">
@@ -35728,7 +36152,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -35793,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>35519</v>
+        <v>35520</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -35801,7 +36225,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="433">
@@ -35817,7 +36241,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -35886,7 +36310,7 @@
         </is>
       </c>
       <c r="U433" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="434">
@@ -36072,7 +36496,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -36120,7 +36544,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="n">
@@ -36133,7 +36561,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>32155</v>
+        <v>32574</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -36141,7 +36569,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="437">
@@ -36234,7 +36662,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -36282,7 +36710,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M438" t="inlineStr"/>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="n">
@@ -36295,7 +36727,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>10948</v>
+        <v>11031</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -36303,7 +36735,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45210</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="439">
@@ -36319,7 +36751,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -36367,7 +36799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="n">
@@ -36380,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>5556</v>
+        <v>5557</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -36388,7 +36824,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45219</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="440">
@@ -36404,7 +36840,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -36452,7 +36888,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M440" t="inlineStr"/>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="n">
@@ -36465,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -36473,7 +36913,7 @@
         </is>
       </c>
       <c r="U440" s="2" t="n">
-        <v>45202</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="441">
@@ -36659,7 +37099,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -36707,7 +37147,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M443" t="inlineStr"/>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="n">
@@ -36720,7 +37164,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>2673</v>
+        <v>2701</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -36728,7 +37172,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="444">
@@ -37149,7 +37593,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -37197,7 +37641,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="n">
@@ -37210,7 +37658,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="T449" t="inlineStr">
         <is>
@@ -37218,7 +37666,7 @@
         </is>
       </c>
       <c r="U449" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="450">
@@ -37234,7 +37682,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -37282,7 +37730,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M450" t="inlineStr"/>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="n">
@@ -37295,7 +37747,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>140477</v>
+        <v>141829</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -37303,7 +37755,7 @@
         </is>
       </c>
       <c r="U450" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="451">
@@ -37404,7 +37856,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -37448,7 +37900,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="n">
@@ -37461,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -37469,7 +37925,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45209</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="453">
@@ -37748,7 +38204,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -37796,7 +38252,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="n">
@@ -37809,7 +38269,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>36251</v>
+        <v>36700</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -37817,7 +38277,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45211</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="457">
@@ -37833,7 +38293,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -37881,7 +38341,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M457" t="inlineStr"/>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="n">
@@ -37894,7 +38358,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>14968</v>
+        <v>15009</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -37902,7 +38366,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45215</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="458">
@@ -38185,7 +38649,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -38258,7 +38722,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="462">
@@ -38849,7 +39313,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -38897,7 +39361,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="n">
@@ -38910,7 +39378,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -38918,7 +39386,7 @@
         </is>
       </c>
       <c r="U469" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="470">
@@ -39108,7 +39576,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -39185,7 +39653,7 @@
         </is>
       </c>
       <c r="U472" s="2" t="n">
-        <v>45224</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="473">
@@ -39776,7 +40244,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -39824,7 +40292,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M480" t="inlineStr"/>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="n">
@@ -39837,7 +40309,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>673487</v>
+        <v>700933</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -39845,7 +40317,7 @@
         </is>
       </c>
       <c r="U480" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="481">
@@ -39861,7 +40333,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -39909,7 +40381,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M481" t="inlineStr"/>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="n">
@@ -39922,7 +40398,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>2723</v>
+        <v>2835</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -39930,7 +40406,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45239</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="482">
@@ -39946,7 +40422,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -39989,7 +40465,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M482" t="inlineStr"/>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
@@ -40003,7 +40483,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -40011,7 +40491,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="483">
@@ -40027,7 +40507,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -40075,7 +40555,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="n">
@@ -40088,7 +40572,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -40096,7 +40580,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45210</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="484">
@@ -40578,7 +41062,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -40626,7 +41110,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="n">
@@ -40639,7 +41127,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="n">
-        <v>2006</v>
+        <v>2131</v>
       </c>
       <c r="T490" t="inlineStr">
         <is>
@@ -40647,7 +41135,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="491">
@@ -41730,7 +42218,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -41778,7 +42266,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M506" t="inlineStr"/>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr"/>
       <c r="P506" t="n">
@@ -41791,7 +42283,7 @@
         <v>0</v>
       </c>
       <c r="S506" t="n">
-        <v>4325</v>
+        <v>4515</v>
       </c>
       <c r="T506" t="inlineStr">
         <is>
@@ -41799,7 +42291,7 @@
         </is>
       </c>
       <c r="U506" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="507">
@@ -41904,7 +42396,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -41952,7 +42444,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M508" t="inlineStr"/>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="n">
@@ -41965,7 +42461,7 @@
         <v>0</v>
       </c>
       <c r="S508" t="n">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="T508" t="inlineStr">
         <is>
@@ -41973,7 +42469,7 @@
         </is>
       </c>
       <c r="U508" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="509">
@@ -42406,7 +42902,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -42454,7 +42950,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M514" t="inlineStr"/>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="n">
@@ -42467,7 +42967,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="T514" t="inlineStr">
         <is>
@@ -42475,7 +42975,7 @@
         </is>
       </c>
       <c r="U514" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="515">
@@ -42491,7 +42991,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -42534,8 +43034,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L515" t="inlineStr"/>
-      <c r="M515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="n">
@@ -42548,7 +43056,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="T515" t="inlineStr">
         <is>
@@ -42556,7 +43064,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45216</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="516">
@@ -42811,7 +43319,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -42852,7 +43360,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>1648</v>
+        <v>2054</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -42860,7 +43368,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45239</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="520">
@@ -42876,7 +43384,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -42924,7 +43432,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="n">
@@ -42937,7 +43449,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>9468</v>
+        <v>10050</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -42945,7 +43457,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="521">
@@ -43022,7 +43534,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2023/11/01</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -43095,7 +43607,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45231</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="523">
@@ -43200,7 +43712,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -43248,7 +43760,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M524" t="inlineStr"/>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="n">
@@ -43261,7 +43777,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>1420</v>
+        <v>1520</v>
       </c>
       <c r="T524" t="inlineStr">
         <is>
@@ -43269,7 +43785,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45212</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="525">
@@ -43856,7 +44372,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -43909,7 +44425,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="533">
@@ -45072,7 +45588,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -45133,7 +45649,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>1431</v>
+        <v>1452</v>
       </c>
       <c r="T548" t="inlineStr">
         <is>
@@ -45141,7 +45657,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45215</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="549">
@@ -45157,7 +45673,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -45205,7 +45721,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="n">
@@ -45218,7 +45738,7 @@
         <v>0</v>
       </c>
       <c r="S549" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T549" t="inlineStr">
         <is>
@@ -45226,7 +45746,7 @@
         </is>
       </c>
       <c r="U549" s="2" t="n">
-        <v>45201</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="550">
@@ -45242,7 +45762,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -45290,7 +45810,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M550" t="inlineStr"/>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="n">
@@ -45303,7 +45827,7 @@
         <v>0</v>
       </c>
       <c r="S550" t="n">
-        <v>4500</v>
+        <v>4863</v>
       </c>
       <c r="T550" t="inlineStr">
         <is>
@@ -45311,7 +45835,7 @@
         </is>
       </c>
       <c r="U550" s="2" t="n">
-        <v>45216</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="551">
@@ -45327,7 +45851,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -45375,7 +45899,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M551" t="inlineStr"/>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="n">
@@ -45388,7 +45916,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T551" t="inlineStr">
         <is>
@@ -45396,7 +45924,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="552">
@@ -46044,7 +46572,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -46092,7 +46620,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M560" t="inlineStr"/>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="n">
@@ -46105,7 +46637,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="n">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="T560" t="inlineStr">
         <is>
@@ -46113,7 +46645,7 @@
         </is>
       </c>
       <c r="U560" s="2" t="n">
-        <v>45229</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="561">
@@ -46348,7 +46880,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -46391,8 +46923,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L564" t="inlineStr"/>
-      <c r="M564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N564" t="inlineStr"/>
       <c r="O564" t="inlineStr"/>
       <c r="P564" t="n">
@@ -46405,7 +46945,7 @@
         <v>0</v>
       </c>
       <c r="S564" t="n">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="T564" t="inlineStr">
         <is>
@@ -46413,7 +46953,7 @@
         </is>
       </c>
       <c r="U564" s="2" t="n">
-        <v>45203</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="565">
@@ -46603,7 +47143,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/12</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -46651,7 +47191,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M567" t="inlineStr"/>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N567" t="inlineStr"/>
       <c r="O567" t="inlineStr"/>
       <c r="P567" t="n">
@@ -46664,7 +47208,7 @@
         <v>0</v>
       </c>
       <c r="S567" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="T567" t="inlineStr">
         <is>
@@ -46672,7 +47216,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45210</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="568">
@@ -47012,7 +47556,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
@@ -47052,7 +47596,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M572" t="inlineStr"/>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N572" t="inlineStr"/>
       <c r="O572" t="inlineStr"/>
       <c r="P572" t="n">
@@ -47065,7 +47613,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T572" t="inlineStr">
         <is>
@@ -47073,7 +47621,7 @@
         </is>
       </c>
       <c r="U572" s="2" t="n">
-        <v>45210</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="573">
@@ -47089,7 +47637,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -47154,7 +47702,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>1546</v>
+        <v>1786</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -47162,7 +47710,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45238</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="574">
@@ -47352,7 +47900,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -47372,7 +47920,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M576" t="inlineStr"/>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="n">
@@ -47385,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -47393,7 +47945,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45219</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="577">
@@ -47652,7 +48204,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -47700,7 +48252,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M580" t="inlineStr"/>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="inlineStr"/>
       <c r="P580" t="n">
@@ -47713,7 +48269,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="n">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="T580" t="inlineStr">
         <is>
@@ -47721,7 +48277,7 @@
         </is>
       </c>
       <c r="U580" s="2" t="n">
-        <v>45238</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="581">
@@ -47798,7 +48354,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -47846,7 +48402,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M582" t="inlineStr"/>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N582" t="inlineStr"/>
       <c r="O582" t="inlineStr"/>
       <c r="P582" t="n">
@@ -47859,7 +48419,7 @@
         <v>0</v>
       </c>
       <c r="S582" t="n">
-        <v>1554</v>
+        <v>1732</v>
       </c>
       <c r="T582" t="inlineStr">
         <is>
@@ -47867,7 +48427,7 @@
         </is>
       </c>
       <c r="U582" s="2" t="n">
-        <v>45212</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="583">
@@ -47883,7 +48443,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>2023/09/13</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -47926,8 +48486,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L583" t="inlineStr"/>
-      <c r="M583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N583" t="inlineStr"/>
       <c r="O583" t="inlineStr"/>
       <c r="P583" t="n">
@@ -47940,7 +48508,7 @@
         <v>0</v>
       </c>
       <c r="S583" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T583" t="inlineStr">
         <is>
@@ -47948,7 +48516,7 @@
         </is>
       </c>
       <c r="U583" s="2" t="n">
-        <v>45182</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="584">
@@ -48483,7 +49051,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2023/10/22</t>
+          <t>2023/11/12</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -48531,7 +49099,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M591" t="inlineStr"/>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N591" t="inlineStr"/>
       <c r="O591" t="inlineStr"/>
       <c r="P591" t="n">
@@ -48544,7 +49116,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T591" t="inlineStr">
         <is>
@@ -48552,7 +49124,7 @@
         </is>
       </c>
       <c r="U591" s="2" t="n">
-        <v>45221</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="592">
@@ -49241,7 +49813,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -49265,7 +49837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M601" t="inlineStr"/>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="n">
@@ -49278,7 +49854,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -49286,7 +49862,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45211</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="602">
@@ -49416,7 +49992,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -49440,7 +50016,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M604" t="inlineStr"/>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N604" t="inlineStr"/>
       <c r="O604" t="inlineStr"/>
       <c r="P604" t="n">
@@ -49453,7 +50033,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="T604" t="inlineStr">
         <is>
@@ -49461,7 +50041,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45240</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="605">

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -961,7 +961,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
@@ -974,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -982,7 +986,7 @@
         </is>
       </c>
       <c r="U9" s="2" t="n">
-        <v>45204</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="10">
@@ -1047,7 +1051,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1091,7 +1095,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
@@ -1104,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1112,7 +1120,7 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="12">
@@ -1299,7 +1307,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1347,7 +1355,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -1360,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1368,7 +1380,7 @@
         </is>
       </c>
       <c r="U15" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="16">
@@ -2306,7 +2318,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2354,7 +2366,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -2367,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21505</v>
+        <v>21800</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2375,7 +2391,7 @@
         </is>
       </c>
       <c r="U30" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="31">
@@ -2800,7 +2816,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2848,7 +2864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2861,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>4239</v>
+        <v>4286</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -2869,7 +2889,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="37">
@@ -2970,7 +2990,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3018,7 +3038,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
@@ -3031,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39372</v>
+        <v>41524</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3039,7 +3063,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="39">
@@ -3233,7 +3257,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -3266,7 +3290,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="42">
@@ -3363,7 +3387,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3411,7 +3435,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
@@ -3424,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22595</v>
+        <v>23261</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -3432,7 +3460,7 @@
         </is>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="44">
@@ -3448,7 +3476,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3496,7 +3524,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
@@ -3509,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -3517,7 +3549,7 @@
         </is>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="45">
@@ -3533,7 +3565,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3581,7 +3613,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
@@ -3594,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -3602,7 +3638,7 @@
         </is>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="46">
@@ -3618,7 +3654,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3683,7 +3719,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="47">
@@ -3699,7 +3735,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3768,7 +3804,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="48">
@@ -3873,7 +3909,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3906,7 +3942,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="50">
@@ -4085,7 +4121,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4133,7 +4169,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
@@ -4146,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>4457</v>
+        <v>4551</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -4154,7 +4194,7 @@
         </is>
       </c>
       <c r="U53" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="54">
@@ -4170,7 +4210,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4218,7 +4258,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
@@ -4231,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>11462</v>
+        <v>11607</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4239,7 +4283,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="55">
@@ -4599,7 +4643,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4668,7 +4712,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="60">
@@ -5000,7 +5044,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5038,9 +5082,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -5053,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>12068</v>
+        <v>12517</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5061,7 +5117,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="65">
@@ -5199,7 +5255,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5247,7 +5303,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
@@ -5260,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>23645</v>
+        <v>23892</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -5268,7 +5328,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45222</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="68">
@@ -5333,7 +5393,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -5370,7 +5430,7 @@
         </is>
       </c>
       <c r="U69" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="70">
@@ -5868,7 +5928,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5916,7 +5976,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
@@ -5929,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -5937,7 +6001,7 @@
         </is>
       </c>
       <c r="U76" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="77">
@@ -6131,7 +6195,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6179,7 +6243,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
@@ -6192,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>132791</v>
+        <v>133314</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -6200,7 +6268,7 @@
         </is>
       </c>
       <c r="U79" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="80">
@@ -6216,7 +6284,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6264,7 +6332,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -6277,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>5234</v>
+        <v>5298</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -6285,7 +6357,7 @@
         </is>
       </c>
       <c r="U80" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="81">
@@ -6301,7 +6373,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6345,7 +6417,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
@@ -6358,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -6366,7 +6442,7 @@
         </is>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="82">
@@ -6382,7 +6458,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6447,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>9261</v>
+        <v>9391</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -6455,7 +6531,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="83">
@@ -6560,7 +6636,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6641,7 +6717,7 @@
         </is>
       </c>
       <c r="U84" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="85">
@@ -6827,7 +6903,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6875,7 +6951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -6888,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>11642</v>
+        <v>11861</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -6896,7 +6976,7 @@
         </is>
       </c>
       <c r="U87" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="88">
@@ -7001,7 +7081,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7070,7 +7150,7 @@
         </is>
       </c>
       <c r="U89" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="90">
@@ -7232,7 +7312,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7280,7 +7360,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -7293,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>16724</v>
+        <v>16878</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -7301,7 +7385,7 @@
         </is>
       </c>
       <c r="U92" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="93">
@@ -7317,7 +7401,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7365,7 +7449,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -7378,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>4398</v>
+        <v>4401</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -7386,7 +7474,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="94">
@@ -7750,7 +7838,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7798,7 +7886,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -7811,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>65864</v>
+        <v>66620</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -7819,7 +7911,7 @@
         </is>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="99">
@@ -8013,7 +8105,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -8078,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>21176</v>
+        <v>21443</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -8086,7 +8178,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="102">
@@ -8151,7 +8243,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8195,7 +8287,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
@@ -8208,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>24962</v>
+        <v>25100</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -8216,7 +8312,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="104">
@@ -8475,7 +8571,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8523,7 +8619,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -8536,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>3941</v>
+        <v>3977</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -8544,7 +8644,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="108">
@@ -8738,7 +8838,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -8786,7 +8886,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -8799,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>89452</v>
+        <v>90578</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -8807,7 +8911,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="111">
@@ -8993,7 +9097,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9041,7 +9145,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -9054,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>1963</v>
+        <v>2002</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -9062,7 +9170,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="114">
@@ -9078,7 +9186,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9126,7 +9234,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
@@ -9139,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>224028</v>
+        <v>226014</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -9147,7 +9259,7 @@
         </is>
       </c>
       <c r="U114" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="115">
@@ -9430,7 +9542,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -9478,7 +9590,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
@@ -9491,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>4530</v>
+        <v>4559</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -9499,7 +9615,7 @@
         </is>
       </c>
       <c r="U118" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="119">
@@ -9604,7 +9720,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -9652,7 +9768,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
@@ -9665,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>9050</v>
+        <v>9261</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -9673,7 +9793,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="121">
@@ -9948,7 +10068,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -10013,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>11737</v>
+        <v>11739</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
@@ -10021,7 +10141,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="125">
@@ -10037,7 +10157,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -10085,7 +10205,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -10098,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>22069</v>
+        <v>22359</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -10106,7 +10230,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="126">
@@ -10211,7 +10335,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -10259,7 +10383,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
@@ -10272,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>20722</v>
+        <v>20977</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -10280,7 +10408,7 @@
         </is>
       </c>
       <c r="U127" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="128">
@@ -10474,7 +10602,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -10522,7 +10650,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -10535,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>36300</v>
+        <v>36871</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -10543,7 +10675,7 @@
         </is>
       </c>
       <c r="U130" s="2" t="n">
-        <v>45218</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="131">
@@ -10559,7 +10691,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -10607,7 +10739,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
@@ -10620,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>24499</v>
+        <v>24816</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -10628,7 +10764,7 @@
         </is>
       </c>
       <c r="U131" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="132">
@@ -10733,7 +10869,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -10781,7 +10917,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
@@ -10794,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -10802,7 +10942,7 @@
         </is>
       </c>
       <c r="U133" s="2" t="n">
-        <v>45209</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="134">
@@ -12704,7 +12844,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12769,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>43452</v>
+        <v>44137</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -12777,7 +12917,7 @@
         </is>
       </c>
       <c r="U156" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="157">
@@ -13113,7 +13253,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13186,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>42403</v>
+        <v>42830</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -13194,7 +13334,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="162">
@@ -13829,7 +13969,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13877,7 +14017,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
@@ -13890,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>79504</v>
+        <v>81404</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -13898,7 +14042,7 @@
         </is>
       </c>
       <c r="U169" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="170">
@@ -14234,7 +14378,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -14307,7 +14451,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="175">
@@ -14760,7 +14904,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -14825,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>92908</v>
+        <v>94231</v>
       </c>
       <c r="T180" t="inlineStr">
         <is>
@@ -14833,7 +14977,7 @@
         </is>
       </c>
       <c r="U180" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="181">
@@ -15023,7 +15167,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -15071,7 +15215,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -15084,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>37272</v>
+        <v>37729</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -15092,7 +15240,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="184">
@@ -15383,7 +15531,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -15431,7 +15579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
@@ -15444,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>8379</v>
+        <v>8557</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
@@ -15452,7 +15604,7 @@
         </is>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="188">
@@ -15468,7 +15620,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -15541,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>29230</v>
+        <v>29661</v>
       </c>
       <c r="T188" t="inlineStr">
         <is>
@@ -15549,7 +15701,7 @@
         </is>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="189">
@@ -15703,7 +15855,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -15751,7 +15903,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr">
         <is>
           <t>x</t>
@@ -15768,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>63702</v>
+        <v>64382</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -15776,7 +15932,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="192">
@@ -15792,7 +15948,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -15836,7 +15992,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
@@ -15849,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T192" t="inlineStr">
         <is>
@@ -15857,7 +16017,7 @@
         </is>
       </c>
       <c r="U192" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="193">
@@ -15958,7 +16118,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -16031,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>17765</v>
+        <v>17957</v>
       </c>
       <c r="T194" t="inlineStr">
         <is>
@@ -16039,7 +16199,7 @@
         </is>
       </c>
       <c r="U194" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="195">
@@ -16055,7 +16215,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -16120,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>21178</v>
+        <v>21179</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -16128,7 +16288,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="196">
@@ -16144,7 +16304,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -16192,7 +16352,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="n">
@@ -16205,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>20954</v>
+        <v>20989</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -16213,7 +16377,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="197">
@@ -17079,7 +17243,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -17127,7 +17291,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="n">
@@ -17140,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>5819</v>
+        <v>5910</v>
       </c>
       <c r="T207" t="inlineStr">
         <is>
@@ -17148,7 +17316,7 @@
         </is>
       </c>
       <c r="U207" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="208">
@@ -17698,7 +17866,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -17763,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>23139</v>
+        <v>23308</v>
       </c>
       <c r="T214" t="inlineStr">
         <is>
@@ -17771,7 +17939,7 @@
         </is>
       </c>
       <c r="U214" s="2" t="n">
-        <v>45236</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="215">
@@ -18135,7 +18303,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -18183,7 +18351,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="n">
@@ -18196,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>42677</v>
+        <v>43275</v>
       </c>
       <c r="T219" t="inlineStr">
         <is>
@@ -18204,7 +18376,7 @@
         </is>
       </c>
       <c r="U219" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="220">
@@ -18390,7 +18562,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -18438,7 +18610,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -18451,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>74688</v>
+        <v>75492</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -18459,7 +18635,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="223">
@@ -18564,7 +18740,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -18612,7 +18788,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="n">
@@ -18625,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>6916</v>
+        <v>6993</v>
       </c>
       <c r="T224" t="inlineStr">
         <is>
@@ -18633,7 +18813,7 @@
         </is>
       </c>
       <c r="U224" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="225">
@@ -19232,7 +19412,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -19280,7 +19460,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
@@ -19293,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -19301,7 +19485,7 @@
         </is>
       </c>
       <c r="U232" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="233">
@@ -19661,7 +19845,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -19709,7 +19893,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="n">
@@ -19722,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>44221</v>
+        <v>45000</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -19730,7 +19918,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="238">
@@ -19746,7 +19934,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -19794,7 +19982,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="n">
@@ -19807,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>31484</v>
+        <v>31921</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -19815,7 +20007,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="239">
@@ -20276,7 +20468,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -20324,7 +20516,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="n">
@@ -20337,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>12320</v>
+        <v>12468</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -20345,7 +20541,7 @@
         </is>
       </c>
       <c r="U244" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="245">
@@ -20539,7 +20735,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -20588,7 +20784,11 @@
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="n">
         <v>0</v>
@@ -20600,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="T247" t="inlineStr">
         <is>
@@ -20608,7 +20808,7 @@
         </is>
       </c>
       <c r="U247" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="248">
@@ -20713,7 +20913,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -20782,7 +20982,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="250">
@@ -21001,7 +21201,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -21049,7 +21249,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="n">
@@ -21062,7 +21266,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -21070,7 +21274,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="254">
@@ -21175,7 +21379,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -21240,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>12091</v>
+        <v>12093</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -21248,7 +21452,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="256">
@@ -21264,7 +21468,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -21308,7 +21512,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="n">
@@ -21321,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>10740</v>
+        <v>10744</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -21329,7 +21537,7 @@
         </is>
       </c>
       <c r="U256" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="257">
@@ -21697,7 +21905,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -21745,7 +21953,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="n">
@@ -21758,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>2736</v>
+        <v>2789</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
@@ -21766,7 +21978,7 @@
         </is>
       </c>
       <c r="U261" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="262">
@@ -22316,7 +22528,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -22385,7 +22597,7 @@
         </is>
       </c>
       <c r="U268" s="2" t="n">
-        <v>45233</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="269">
@@ -22401,7 +22613,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -22449,7 +22661,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="n">
@@ -22462,7 +22678,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>24445</v>
+        <v>24719</v>
       </c>
       <c r="T269" t="inlineStr">
         <is>
@@ -22470,7 +22686,7 @@
         </is>
       </c>
       <c r="U269" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="270">
@@ -23182,7 +23398,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -23230,7 +23446,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="n">
@@ -23243,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="S278" t="n">
-        <v>19639</v>
+        <v>19837</v>
       </c>
       <c r="T278" t="inlineStr">
         <is>
@@ -23251,7 +23471,7 @@
         </is>
       </c>
       <c r="U278" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="279">
@@ -24114,7 +24334,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -24183,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>26808</v>
+        <v>27543</v>
       </c>
       <c r="T290" t="inlineStr">
         <is>
@@ -24191,7 +24411,7 @@
         </is>
       </c>
       <c r="U290" s="2" t="n">
-        <v>45211</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="291">
@@ -24207,7 +24427,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -24255,7 +24475,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="n">
@@ -24268,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>6085</v>
+        <v>6181</v>
       </c>
       <c r="T291" t="inlineStr">
         <is>
@@ -24276,7 +24500,7 @@
         </is>
       </c>
       <c r="U291" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="292">
@@ -24292,7 +24516,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -24340,7 +24564,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="n">
@@ -24353,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>44904</v>
+        <v>45657</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
@@ -24361,7 +24589,7 @@
         </is>
       </c>
       <c r="U292" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="293">
@@ -24555,7 +24783,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -24603,7 +24831,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="n">
@@ -24616,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>19340</v>
+        <v>19539</v>
       </c>
       <c r="T295" t="inlineStr">
         <is>
@@ -24624,7 +24856,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="296">
@@ -24729,7 +24961,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -24777,7 +25009,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="n">
@@ -24790,7 +25026,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>6201</v>
+        <v>6295</v>
       </c>
       <c r="T297" t="inlineStr">
         <is>
@@ -24798,7 +25034,7 @@
         </is>
       </c>
       <c r="U297" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="298">
@@ -24814,7 +25050,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -24862,7 +25098,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="n">
@@ -24875,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>12805</v>
+        <v>12813</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -24883,7 +25123,7 @@
         </is>
       </c>
       <c r="U298" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="299">
@@ -24899,7 +25139,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -24910,12 +25150,12 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="n">
@@ -24936,7 +25176,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="300">
@@ -24952,7 +25192,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -25000,7 +25240,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="n">
@@ -25013,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>2497</v>
+        <v>2515</v>
       </c>
       <c r="T300" t="inlineStr">
         <is>
@@ -25021,7 +25265,7 @@
         </is>
       </c>
       <c r="U300" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="301">
@@ -25037,7 +25281,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -25085,7 +25329,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="n">
@@ -25098,7 +25346,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>17546</v>
+        <v>17787</v>
       </c>
       <c r="T301" t="inlineStr">
         <is>
@@ -25106,7 +25354,7 @@
         </is>
       </c>
       <c r="U301" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="302">
@@ -25122,7 +25370,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -25187,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="S302" t="n">
-        <v>15670</v>
+        <v>15858</v>
       </c>
       <c r="T302" t="inlineStr">
         <is>
@@ -25195,7 +25443,7 @@
         </is>
       </c>
       <c r="U302" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="303">
@@ -25296,7 +25544,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
@@ -25329,7 +25577,7 @@
         </is>
       </c>
       <c r="U304" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="305">
@@ -25434,7 +25682,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -25482,7 +25730,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="n">
@@ -25495,7 +25747,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>24664</v>
+        <v>25018</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -25503,7 +25755,7 @@
         </is>
       </c>
       <c r="U306" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="307">
@@ -26045,7 +26297,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -26093,7 +26345,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="n">
@@ -26106,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="S313" t="n">
-        <v>3198</v>
+        <v>3235</v>
       </c>
       <c r="T313" t="inlineStr">
         <is>
@@ -26114,7 +26370,7 @@
         </is>
       </c>
       <c r="U313" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="314">
@@ -26308,7 +26564,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -26373,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>52643</v>
+        <v>52675</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -26381,7 +26637,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="317">
@@ -26713,7 +26969,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -26761,7 +27017,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="n">
@@ -26774,7 +27034,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -26782,7 +27042,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="322">
@@ -26798,7 +27058,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
@@ -26859,7 +27119,7 @@
         </is>
       </c>
       <c r="U322" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="323">
@@ -26875,7 +27135,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -26923,7 +27183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="n">
@@ -26936,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>1559</v>
+        <v>1584</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -26944,7 +27208,7 @@
         </is>
       </c>
       <c r="U323" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="324">
@@ -26960,7 +27224,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -27029,7 +27293,7 @@
         </is>
       </c>
       <c r="U324" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="325">
@@ -27312,7 +27576,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -27360,7 +27624,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="n">
@@ -27373,7 +27641,7 @@
         <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>18450</v>
+        <v>18529</v>
       </c>
       <c r="T328" t="inlineStr">
         <is>
@@ -27381,7 +27649,7 @@
         </is>
       </c>
       <c r="U328" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="329">
@@ -27397,7 +27665,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -27445,7 +27713,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="n">
@@ -27458,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>20869</v>
+        <v>21467</v>
       </c>
       <c r="T329" t="inlineStr">
         <is>
@@ -27466,7 +27738,7 @@
         </is>
       </c>
       <c r="U329" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="330">
@@ -27656,7 +27928,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -27700,7 +27972,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="n">
@@ -27713,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T332" t="inlineStr">
         <is>
@@ -27721,7 +27997,7 @@
         </is>
       </c>
       <c r="U332" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="333">
@@ -27737,7 +28013,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
@@ -27770,7 +28046,7 @@
         </is>
       </c>
       <c r="U333" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="334">
@@ -28212,7 +28488,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -28260,7 +28536,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
@@ -28273,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -28281,7 +28561,7 @@
         </is>
       </c>
       <c r="U340" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="341">
@@ -28297,7 +28577,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -28362,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>53932</v>
+        <v>54611</v>
       </c>
       <c r="T341" t="inlineStr">
         <is>
@@ -28370,7 +28650,7 @@
         </is>
       </c>
       <c r="U341" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="342">
@@ -28471,7 +28751,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -28519,7 +28799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="n">
@@ -28532,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -28540,7 +28824,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="344">
@@ -28819,7 +29103,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -28867,7 +29151,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="n">
@@ -28880,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="S347" t="n">
-        <v>10059</v>
+        <v>10080</v>
       </c>
       <c r="T347" t="inlineStr">
         <is>
@@ -28888,7 +29176,7 @@
         </is>
       </c>
       <c r="U347" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="348">
@@ -28904,7 +29192,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -28952,7 +29240,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="n">
@@ -28965,7 +29257,7 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>5214</v>
+        <v>5276</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -28973,7 +29265,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="349">
@@ -29074,7 +29366,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -29139,7 +29431,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>126024</v>
+        <v>126743</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -29147,7 +29439,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="351">
@@ -29248,7 +29540,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -29296,7 +29588,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="n">
@@ -29309,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="n">
-        <v>10663</v>
+        <v>10794</v>
       </c>
       <c r="T352" t="inlineStr">
         <is>
@@ -29317,7 +29613,7 @@
         </is>
       </c>
       <c r="U352" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="353">
@@ -29410,7 +29706,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -29458,7 +29754,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="n">
@@ -29471,7 +29771,7 @@
         <v>0</v>
       </c>
       <c r="S354" t="n">
-        <v>1954</v>
+        <v>2224</v>
       </c>
       <c r="T354" t="inlineStr">
         <is>
@@ -29479,7 +29779,7 @@
         </is>
       </c>
       <c r="U354" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="355">
@@ -29584,7 +29884,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -29653,7 +29953,7 @@
         </is>
       </c>
       <c r="U356" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="357">
@@ -29835,7 +30135,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -29908,7 +30208,7 @@
         </is>
       </c>
       <c r="U359" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="360">
@@ -30009,7 +30309,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -30057,7 +30357,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="n">
@@ -30070,7 +30374,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>48519</v>
+        <v>49123</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -30078,7 +30382,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="362">
@@ -30183,7 +30487,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -30248,7 +30552,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>27349</v>
+        <v>27353</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -30256,7 +30560,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="364">
@@ -30717,7 +31021,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -30765,7 +31069,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M369" t="inlineStr"/>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="n">
@@ -30778,7 +31086,7 @@
         <v>0</v>
       </c>
       <c r="S369" t="n">
-        <v>12429</v>
+        <v>12556</v>
       </c>
       <c r="T369" t="inlineStr">
         <is>
@@ -30786,7 +31094,7 @@
         </is>
       </c>
       <c r="U369" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="370">
@@ -30802,7 +31110,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -30850,7 +31158,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M370" t="inlineStr"/>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="n">
@@ -30863,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="S370" t="n">
-        <v>1985</v>
+        <v>1999</v>
       </c>
       <c r="T370" t="inlineStr">
         <is>
@@ -30871,7 +31183,7 @@
         </is>
       </c>
       <c r="U370" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="371">
@@ -31150,7 +31462,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -31198,7 +31510,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M374" t="inlineStr"/>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="n">
@@ -31211,7 +31527,7 @@
         <v>0</v>
       </c>
       <c r="S374" t="n">
-        <v>5637</v>
+        <v>5722</v>
       </c>
       <c r="T374" t="inlineStr">
         <is>
@@ -31219,7 +31535,7 @@
         </is>
       </c>
       <c r="U374" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="375">
@@ -31324,7 +31640,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -31372,7 +31688,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M376" t="inlineStr"/>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="n">
@@ -31385,7 +31705,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>4216</v>
+        <v>4298</v>
       </c>
       <c r="T376" t="inlineStr">
         <is>
@@ -31393,7 +31713,7 @@
         </is>
       </c>
       <c r="U376" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="377">
@@ -31672,7 +31992,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -31720,7 +32040,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M380" t="inlineStr"/>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="n">
@@ -31733,7 +32057,7 @@
         <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>4806</v>
+        <v>4832</v>
       </c>
       <c r="T380" t="inlineStr">
         <is>
@@ -31741,7 +32065,7 @@
         </is>
       </c>
       <c r="U380" s="2" t="n">
-        <v>45205</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="381">
@@ -32368,7 +32692,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -32433,7 +32757,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>13747</v>
+        <v>13754</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -32441,7 +32765,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="389">
@@ -32457,7 +32781,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -32505,7 +32829,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr"/>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="n">
@@ -32518,7 +32846,7 @@
         <v>0</v>
       </c>
       <c r="S389" t="n">
-        <v>6578</v>
+        <v>6590</v>
       </c>
       <c r="T389" t="inlineStr">
         <is>
@@ -32526,7 +32854,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="390">
@@ -32631,7 +32959,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -32679,7 +33007,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="n">
@@ -32692,7 +33024,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>910</v>
+        <v>923</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -32700,7 +33032,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="392">
@@ -32716,7 +33048,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -32764,7 +33096,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M392" t="inlineStr"/>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="n">
@@ -32777,7 +33113,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -32785,7 +33121,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="393">
@@ -32963,7 +33299,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -33011,7 +33347,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr"/>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="n">
@@ -33024,7 +33364,7 @@
         <v>0</v>
       </c>
       <c r="S395" t="n">
-        <v>15072</v>
+        <v>15093</v>
       </c>
       <c r="T395" t="inlineStr">
         <is>
@@ -33032,7 +33372,7 @@
         </is>
       </c>
       <c r="U395" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="396">
@@ -33048,7 +33388,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -33096,7 +33436,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M396" t="inlineStr"/>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="n">
@@ -33109,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="S396" t="n">
-        <v>8547</v>
+        <v>8656</v>
       </c>
       <c r="T396" t="inlineStr">
         <is>
@@ -33117,7 +33461,7 @@
         </is>
       </c>
       <c r="U396" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="397">
@@ -33400,7 +33744,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -33448,7 +33792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M400" t="inlineStr"/>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr"/>
       <c r="P400" t="n">
@@ -33461,7 +33809,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>20329</v>
+        <v>20659</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -33469,7 +33817,7 @@
         </is>
       </c>
       <c r="U400" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="401">
@@ -33663,7 +34011,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -33711,7 +34059,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M403" t="inlineStr"/>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="n">
@@ -33724,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="S403" t="n">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="T403" t="inlineStr">
         <is>
@@ -33732,7 +34084,7 @@
         </is>
       </c>
       <c r="U403" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="404">
@@ -34173,7 +34525,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -34221,7 +34573,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M409" t="inlineStr"/>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="n">
@@ -34234,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="S409" t="n">
-        <v>49699</v>
+        <v>51205</v>
       </c>
       <c r="T409" t="inlineStr">
         <is>
@@ -34242,7 +34598,7 @@
         </is>
       </c>
       <c r="U409" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="410">
@@ -34258,7 +34614,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -34306,7 +34662,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M410" t="inlineStr"/>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="n">
@@ -34319,7 +34679,7 @@
         <v>0</v>
       </c>
       <c r="S410" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T410" t="inlineStr">
         <is>
@@ -34327,7 +34687,7 @@
         </is>
       </c>
       <c r="U410" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="411">
@@ -35035,7 +35395,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -35083,7 +35443,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M419" t="inlineStr"/>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="n">
@@ -35096,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>15042</v>
+        <v>15440</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -35104,7 +35468,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="420">
@@ -35387,7 +35751,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -35435,7 +35799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M423" t="inlineStr"/>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="n">
@@ -35448,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="T423" t="inlineStr">
         <is>
@@ -35456,7 +35824,7 @@
         </is>
       </c>
       <c r="U423" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="424">
@@ -35557,7 +35925,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -35614,7 +35982,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>17997</v>
+        <v>17669</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -35622,7 +35990,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="426">
@@ -35897,7 +36265,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -35945,7 +36313,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="n">
@@ -35958,7 +36330,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>23645</v>
+        <v>23902</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -35966,7 +36338,7 @@
         </is>
       </c>
       <c r="U429" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="430">
@@ -36411,7 +36783,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -36459,7 +36831,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr"/>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="n">
@@ -36472,7 +36848,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>73496</v>
+        <v>75175</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -36480,7 +36856,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45236</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="436">
@@ -36585,7 +36961,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
@@ -36625,7 +37001,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M437" t="inlineStr"/>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="n">
@@ -36638,7 +37018,7 @@
         <v>0</v>
       </c>
       <c r="S437" t="n">
-        <v>3984</v>
+        <v>4018</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -36646,7 +37026,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="438">
@@ -36751,7 +37131,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -36824,7 +37204,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45243</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="440">
@@ -37014,7 +37394,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -37062,7 +37442,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M442" t="inlineStr"/>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="n">
@@ -37075,7 +37459,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T442" t="inlineStr">
         <is>
@@ -37083,7 +37467,7 @@
         </is>
       </c>
       <c r="U442" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="443">
@@ -37374,7 +37758,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -37422,7 +37806,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M446" t="inlineStr"/>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="n">
@@ -37435,7 +37823,7 @@
         <v>0</v>
       </c>
       <c r="S446" t="n">
-        <v>11099</v>
+        <v>11259</v>
       </c>
       <c r="T446" t="inlineStr">
         <is>
@@ -37443,7 +37831,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="447">
@@ -37459,7 +37847,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
@@ -37492,7 +37880,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45209</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="448">
@@ -37508,7 +37896,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -37577,7 +37965,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="449">
@@ -37747,7 +38135,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>141829</v>
+        <v>142001</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -37771,7 +38159,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -37819,7 +38207,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="n">
@@ -37832,7 +38224,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -37840,7 +38232,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="452">
@@ -38382,7 +38774,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -38447,7 +38839,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>152688</v>
+        <v>154691</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -38455,7 +38847,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="459">
@@ -38649,7 +39041,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -38714,7 +39106,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>13399</v>
+        <v>13510</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -38722,7 +39114,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="462">
@@ -38912,7 +39304,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -38955,8 +39347,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L464" t="inlineStr"/>
-      <c r="M464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="n">
@@ -38969,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="S464" t="n">
-        <v>43808</v>
+        <v>45837</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -38977,7 +39377,7 @@
         </is>
       </c>
       <c r="U464" s="2" t="n">
-        <v>45177</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="465">
@@ -39078,7 +39478,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -39126,7 +39526,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M466" t="inlineStr"/>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="n">
@@ -39139,7 +39543,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="n">
-        <v>58620</v>
+        <v>59839</v>
       </c>
       <c r="T466" t="inlineStr">
         <is>
@@ -39147,7 +39551,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="467">
@@ -39402,7 +39806,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -39450,7 +39854,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="n">
@@ -39463,7 +39871,7 @@
         <v>0</v>
       </c>
       <c r="S470" t="n">
-        <v>77000</v>
+        <v>79579</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
@@ -39471,7 +39879,7 @@
         </is>
       </c>
       <c r="U470" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="471">
@@ -40835,7 +41243,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -40867,7 +41275,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M487" t="inlineStr"/>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="n">
@@ -40880,7 +41292,7 @@
         <v>0</v>
       </c>
       <c r="S487" t="n">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="T487" t="inlineStr">
         <is>
@@ -40888,7 +41300,7 @@
         </is>
       </c>
       <c r="U487" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="488">
@@ -40904,7 +41316,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
@@ -40940,7 +41352,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="n">
@@ -40953,7 +41369,7 @@
         <v>0</v>
       </c>
       <c r="S488" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
@@ -40961,7 +41377,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="489">
@@ -40977,7 +41393,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -41025,7 +41441,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M489" t="inlineStr"/>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="n">
@@ -41038,7 +41458,7 @@
         <v>0</v>
       </c>
       <c r="S489" t="n">
-        <v>1048</v>
+        <v>1112</v>
       </c>
       <c r="T489" t="inlineStr">
         <is>
@@ -41046,7 +41466,7 @@
         </is>
       </c>
       <c r="U489" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="490">
@@ -41500,7 +41920,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -41533,10 +41953,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
-      <c r="M496" t="inlineStr"/>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="n">
@@ -41549,7 +41985,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>755</v>
+        <v>795</v>
       </c>
       <c r="T496" t="inlineStr">
         <is>
@@ -41557,7 +41993,7 @@
         </is>
       </c>
       <c r="U496" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="497">
@@ -41788,7 +42224,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
@@ -41821,7 +42257,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="501">
@@ -41910,7 +42346,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -41958,7 +42394,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M502" t="inlineStr"/>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="n">
@@ -41971,7 +42411,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="T502" t="inlineStr">
         <is>
@@ -41979,7 +42419,7 @@
         </is>
       </c>
       <c r="U502" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="503">
@@ -42084,7 +42524,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -42132,7 +42572,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M504" t="inlineStr"/>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="n">
@@ -42145,7 +42589,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>11232</v>
+        <v>11848</v>
       </c>
       <c r="T504" t="inlineStr">
         <is>
@@ -42153,7 +42597,7 @@
         </is>
       </c>
       <c r="U504" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="505">
@@ -42817,7 +43261,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -42865,7 +43309,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="n">
@@ -42878,7 +43326,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -42886,7 +43334,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="514">
@@ -43238,7 +43686,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -43281,7 +43729,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr"/>
@@ -43295,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>1260</v>
+        <v>1321</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -43303,7 +43755,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="519">
@@ -43319,7 +43771,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -43368,7 +43820,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="520">
@@ -43890,7 +44342,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
@@ -43930,7 +44382,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M526" t="inlineStr"/>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="n">
@@ -43943,7 +44399,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="T526" t="inlineStr">
         <is>
@@ -43951,7 +44407,7 @@
         </is>
       </c>
       <c r="U526" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="527">
@@ -43967,7 +44423,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -44015,7 +44471,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M527" t="inlineStr"/>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="n">
@@ -44028,7 +44488,7 @@
         <v>0</v>
       </c>
       <c r="S527" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T527" t="inlineStr">
         <is>
@@ -44036,7 +44496,7 @@
         </is>
       </c>
       <c r="U527" s="2" t="n">
-        <v>45210</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="528">
@@ -45361,7 +45821,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -45409,7 +45869,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="n">
@@ -45422,7 +45886,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="T545" t="inlineStr">
         <is>
@@ -45430,7 +45894,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="546">
@@ -46661,7 +47125,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -46709,7 +47173,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M561" t="inlineStr"/>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N561" t="inlineStr"/>
       <c r="O561" t="inlineStr"/>
       <c r="P561" t="n">
@@ -46722,7 +47190,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="T561" t="inlineStr">
         <is>
@@ -46730,7 +47198,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45210</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="562">
@@ -47321,7 +47789,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -47369,7 +47837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M569" t="inlineStr"/>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr"/>
       <c r="P569" t="n">
@@ -47382,7 +47854,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -47390,7 +47862,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="570">
@@ -48917,7 +49389,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
@@ -48953,7 +49425,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M589" t="inlineStr"/>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N589" t="inlineStr"/>
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="n">
@@ -48966,7 +49442,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -48974,7 +49450,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="590">
@@ -49383,7 +49859,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -49399,7 +49875,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M595" t="inlineStr"/>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N595" t="inlineStr"/>
       <c r="O595" t="inlineStr"/>
       <c r="P595" t="n">
@@ -49412,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T595" t="inlineStr">
         <is>
@@ -49420,7 +49900,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="596">
@@ -49878,15 +50358,39 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr"/>
-      <c r="H602" t="inlineStr"/>
-      <c r="I602" t="inlineStr"/>
+          <t>2023/11/17</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J602" t="inlineStr">
         <is>
           <t>x</t>
@@ -49902,7 +50406,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N602" t="inlineStr"/>
       <c r="O602" t="inlineStr"/>
       <c r="P602" t="n">
@@ -49915,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="S602" t="n">
-        <v>1343</v>
+        <v>4568</v>
       </c>
       <c r="T602" t="inlineStr">
         <is>
@@ -49923,7 +50431,7 @@
         </is>
       </c>
       <c r="U602" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="603">

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -2228,24 +2228,64 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>2023/12/27</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
         <v>0</v>
@@ -2257,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2265,7 +2305,7 @@
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45257</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="29">
@@ -4200,7 +4240,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4223,13 +4263,41 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>0</v>
@@ -4241,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>20077</v>
+        <v>21028</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4249,7 +4317,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45282</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="53">
@@ -4953,7 +5021,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5006,7 +5074,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
         <v>0</v>
@@ -5018,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>14676</v>
+        <v>14925</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5026,7 +5098,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45240</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="62">
@@ -10448,7 +10520,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -10501,7 +10573,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
         <v>0</v>
@@ -10513,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>205529</v>
+        <v>208164</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
@@ -10521,7 +10597,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45277</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="125">
@@ -10537,7 +10613,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -10595,7 +10671,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P125" t="n">
         <v>0</v>
       </c>
@@ -10606,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>11880</v>
+        <v>12020</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -10614,7 +10694,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45272</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="126">
@@ -15856,7 +15936,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -15925,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>38196</v>
+        <v>38197</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
@@ -15933,7 +16013,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="185">
@@ -16746,7 +16826,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -16819,7 +16899,7 @@
         </is>
       </c>
       <c r="U194" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="195">
@@ -18639,7 +18719,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -18708,7 +18788,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>23612</v>
+        <v>23614</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -18716,7 +18796,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45273</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="216">
@@ -19100,7 +19180,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -19177,7 +19257,7 @@
         </is>
       </c>
       <c r="U220" s="2" t="n">
-        <v>45275</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="221">
@@ -19998,7 +20078,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -20046,8 +20126,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="n">
         <v>0</v>
@@ -20059,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="T230" t="inlineStr">
         <is>
@@ -20067,7 +20155,7 @@
         </is>
       </c>
       <c r="U230" s="2" t="n">
-        <v>45229</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="231">
@@ -21078,7 +21166,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -21131,7 +21219,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
         <v>0</v>
@@ -21143,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>21999</v>
+        <v>22224</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -21151,7 +21243,7 @@
         </is>
       </c>
       <c r="U242" s="2" t="n">
-        <v>45239</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="243">
@@ -22587,7 +22679,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -22640,7 +22732,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="n">
         <v>0</v>
@@ -22652,7 +22748,7 @@
         <v>0</v>
       </c>
       <c r="S259" t="n">
-        <v>14354</v>
+        <v>14509</v>
       </c>
       <c r="T259" t="inlineStr">
         <is>
@@ -22660,7 +22756,7 @@
         </is>
       </c>
       <c r="U259" s="2" t="n">
-        <v>45243</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="260">
@@ -23141,7 +23237,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -23210,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>74805</v>
+        <v>75481</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -23218,7 +23314,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45273</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="266">
@@ -24071,7 +24167,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -24124,7 +24220,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="n">
         <v>0</v>
@@ -24136,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>53277</v>
+        <v>53908</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -24144,7 +24244,7 @@
         </is>
       </c>
       <c r="U275" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="276">
@@ -24792,7 +24892,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -24850,7 +24950,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P284" t="n">
         <v>0</v>
       </c>
@@ -24861,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>37780</v>
+        <v>37783</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -24869,7 +24973,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45280</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="285">
@@ -25771,7 +25875,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -25848,7 +25952,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45278</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="296">
@@ -29923,7 +30027,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -29976,7 +30080,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="n">
         <v>0</v>
@@ -29988,7 +30096,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>17786</v>
+        <v>18107</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -29996,7 +30104,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45252</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="344">
@@ -30752,7 +30860,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -30829,7 +30937,7 @@
         </is>
       </c>
       <c r="U352" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="353">
@@ -31383,7 +31491,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -31452,7 +31560,7 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>32897</v>
+        <v>32972</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -31460,7 +31568,7 @@
         </is>
       </c>
       <c r="U359" s="2" t="n">
-        <v>45281</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="360">
@@ -33154,7 +33262,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -33207,7 +33315,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="n">
         <v>0</v>
@@ -33219,7 +33331,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>1982</v>
+        <v>2001</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -33227,7 +33339,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45259</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="379">
@@ -35831,7 +35943,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -35849,12 +35961,32 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr"/>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M407" t="inlineStr"/>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
@@ -35868,7 +36000,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>21195</v>
+        <v>21692</v>
       </c>
       <c r="T407" t="inlineStr">
         <is>
@@ -35876,7 +36008,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45037</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="408">
@@ -36268,7 +36400,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -36321,7 +36453,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N412" t="inlineStr"/>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="n">
         <v>0</v>
@@ -36333,7 +36469,7 @@
         <v>0</v>
       </c>
       <c r="S412" t="n">
-        <v>11667</v>
+        <v>11735</v>
       </c>
       <c r="T412" t="inlineStr">
         <is>
@@ -36341,7 +36477,7 @@
         </is>
       </c>
       <c r="U412" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="413">
@@ -36450,7 +36586,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -36494,7 +36630,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr"/>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="n">
@@ -36507,7 +36647,7 @@
         <v>0</v>
       </c>
       <c r="S414" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="T414" t="inlineStr">
         <is>
@@ -36515,7 +36655,7 @@
         </is>
       </c>
       <c r="U414" s="2" t="n">
-        <v>45254</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="415">
@@ -36531,7 +36671,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -36608,7 +36748,7 @@
         </is>
       </c>
       <c r="U415" s="2" t="n">
-        <v>45266</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="416">
@@ -37449,7 +37589,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -37498,7 +37638,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N425" t="inlineStr"/>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="n">
         <v>0</v>
@@ -37510,7 +37654,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>18039</v>
+        <v>18416</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -37518,7 +37662,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="426">
@@ -39710,7 +39854,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -39763,7 +39907,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N450" t="inlineStr"/>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="n">
         <v>0</v>
@@ -39775,7 +39923,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>142001</v>
+        <v>143550</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -39783,7 +39931,7 @@
         </is>
       </c>
       <c r="U450" s="2" t="n">
-        <v>45245</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="451">
@@ -41898,7 +42046,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -41951,7 +42099,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N474" t="inlineStr"/>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="n">
         <v>0</v>
@@ -41963,7 +42115,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -41971,7 +42123,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="475">
@@ -43582,7 +43734,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -43635,7 +43787,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N494" t="inlineStr"/>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="n">
         <v>0</v>
@@ -43647,7 +43803,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -43655,7 +43811,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45250</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="495">
@@ -44007,7 +44163,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -44046,9 +44202,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L499" t="inlineStr"/>
-      <c r="M499" t="inlineStr"/>
-      <c r="N499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="n">
         <v>0</v>
@@ -44060,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -44068,7 +44236,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45211</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="500">
@@ -44084,7 +44252,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/07/03</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -44117,11 +44285,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
-      <c r="M500" t="inlineStr"/>
-      <c r="N500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="n">
         <v>0</v>
@@ -44133,7 +44321,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>1450</v>
+        <v>1657</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
@@ -44141,7 +44329,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45110</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="501">
@@ -45492,7 +45680,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
@@ -45545,7 +45733,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="517">
@@ -45804,7 +45992,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -45857,7 +46045,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N520" t="inlineStr"/>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="n">
         <v>0</v>
@@ -45869,7 +46061,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -45877,7 +46069,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45238</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="521">
@@ -46257,7 +46449,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/01/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
@@ -46282,7 +46474,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -46290,7 +46482,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>44936</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="526">
@@ -47780,7 +47972,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -47849,7 +48041,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>1637</v>
+        <v>1754</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -47857,7 +48049,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45252</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="545">
@@ -48104,7 +48296,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -48162,7 +48354,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O548" t="inlineStr"/>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P548" t="n">
         <v>0</v>
       </c>
@@ -48173,7 +48369,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>5225</v>
+        <v>5586</v>
       </c>
       <c r="T548" t="inlineStr">
         <is>
@@ -48181,7 +48377,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45271</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="549">
@@ -50500,7 +50696,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -50553,7 +50749,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N576" t="inlineStr"/>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="n">
         <v>0</v>
@@ -50565,7 +50765,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -50573,7 +50773,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45278</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="577">
@@ -51735,7 +51935,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -51788,7 +51988,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N591" t="inlineStr"/>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O591" t="inlineStr">
         <is>
           <t>x</t>
@@ -51804,7 +52008,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="n">
-        <v>880</v>
+        <v>928</v>
       </c>
       <c r="T591" t="inlineStr">
         <is>
@@ -51812,7 +52016,7 @@
         </is>
       </c>
       <c r="U591" s="2" t="n">
-        <v>45278</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="592">
@@ -51828,7 +52032,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -51876,7 +52080,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M592" t="inlineStr"/>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N592" t="inlineStr"/>
       <c r="O592" t="inlineStr"/>
       <c r="P592" t="n">
@@ -51889,7 +52097,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -51897,7 +52105,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45251</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="593">
@@ -52509,7 +52717,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -52538,7 +52746,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N601" t="inlineStr"/>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="n">
         <v>0</v>
@@ -52550,7 +52762,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -52558,7 +52770,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45244</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="602">
@@ -53373,7 +53585,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -53430,7 +53642,7 @@
         </is>
       </c>
       <c r="U613" s="2" t="n">
-        <v>45251</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="614">

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="24">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45264</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="30">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2614,7 +2614,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2633,7 +2637,7 @@
         </is>
       </c>
       <c r="U32" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="33">
@@ -3519,7 +3523,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3584,7 +3588,7 @@
         </is>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="44">
@@ -5438,7 +5442,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5491,7 +5495,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
         <v>0</v>
@@ -5503,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>26648</v>
+        <v>27113</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -5511,7 +5519,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="67">
@@ -7915,7 +7923,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7992,7 +8000,7 @@
         </is>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="96">
@@ -8655,7 +8663,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -8688,7 +8696,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="104">
@@ -9137,7 +9145,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9195,7 +9203,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
@@ -9206,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -9214,7 +9226,7 @@
         </is>
       </c>
       <c r="U109" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="110">
@@ -9509,7 +9521,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9582,7 +9594,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="114">
@@ -10520,7 +10532,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/01</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -10597,7 +10609,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45286</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="125">
@@ -10613,7 +10625,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -10694,7 +10706,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="126">
@@ -11640,7 +11652,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11698,7 +11710,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
@@ -11709,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>12816</v>
+        <v>13026</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -11717,7 +11733,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="137">
@@ -13707,7 +13723,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -13740,7 +13756,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45240</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="160">
@@ -14225,7 +14241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -14279,7 +14295,11 @@
         </is>
       </c>
       <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P165" t="n">
         <v>0</v>
       </c>
@@ -14290,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>7040</v>
+        <v>7049</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -14298,7 +14318,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="166">
@@ -15212,7 +15232,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -15262,7 +15282,11 @@
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P176" t="n">
         <v>0</v>
       </c>
@@ -15273,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>2032</v>
+        <v>2067</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -15281,7 +15305,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="177">
@@ -15386,7 +15410,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15444,7 +15468,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P178" t="n">
         <v>0</v>
       </c>
@@ -15455,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>42748</v>
+        <v>43211</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -15463,7 +15491,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="179">
@@ -15843,7 +15871,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -15901,7 +15929,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P183" t="n">
         <v>0</v>
       </c>
@@ -15912,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -15920,7 +15952,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45274</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="184">
@@ -16219,7 +16251,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -16296,7 +16328,7 @@
         </is>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45266</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="188">
@@ -17886,7 +17918,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -17959,7 +17991,7 @@
         </is>
       </c>
       <c r="U206" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="207">
@@ -18068,7 +18100,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -18145,7 +18177,7 @@
         </is>
       </c>
       <c r="U208" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="209">
@@ -18719,7 +18751,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -18777,7 +18809,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O215" t="inlineStr"/>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P215" t="n">
         <v>0</v>
       </c>
@@ -18788,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>23614</v>
+        <v>23738</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -18796,7 +18832,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="216">
@@ -19273,7 +19309,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19350,7 +19386,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="222">
@@ -20171,7 +20207,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -20225,7 +20261,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P231" t="n">
         <v>0</v>
       </c>
@@ -20236,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -20244,7 +20284,7 @@
         </is>
       </c>
       <c r="U231" s="2" t="n">
-        <v>45281</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="232">
@@ -21166,7 +21206,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -21224,7 +21264,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O242" t="inlineStr"/>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P242" t="n">
         <v>0</v>
       </c>
@@ -21235,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>22224</v>
+        <v>22462</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -21243,7 +21287,7 @@
         </is>
       </c>
       <c r="U242" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="243">
@@ -22311,7 +22355,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -22369,7 +22413,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O255" t="inlineStr"/>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P255" t="n">
         <v>0</v>
       </c>
@@ -22380,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -22388,7 +22436,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45267</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="256">
@@ -23237,7 +23285,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -23306,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>75481</v>
+        <v>75482</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -23314,7 +23362,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45288</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="266">
@@ -26393,7 +26441,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -26451,7 +26499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O301" t="inlineStr"/>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P301" t="n">
         <v>0</v>
       </c>
@@ -26462,7 +26514,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>2533</v>
+        <v>2550</v>
       </c>
       <c r="T301" t="inlineStr">
         <is>
@@ -26470,7 +26522,7 @@
         </is>
       </c>
       <c r="U301" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="302">
@@ -26579,7 +26631,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -26637,7 +26689,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O303" t="inlineStr"/>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P303" t="n">
         <v>0</v>
       </c>
@@ -26648,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>16048</v>
+        <v>16049</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -26656,7 +26712,7 @@
         </is>
       </c>
       <c r="U303" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="304">
@@ -26765,7 +26821,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
@@ -26798,7 +26854,7 @@
         </is>
       </c>
       <c r="U305" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="306">
@@ -27744,7 +27800,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -27821,7 +27877,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="317">
@@ -27837,7 +27893,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -27895,7 +27951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O317" t="inlineStr"/>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P317" t="n">
         <v>0</v>
       </c>
@@ -27906,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="S317" t="n">
-        <v>53170</v>
+        <v>53613</v>
       </c>
       <c r="T317" t="inlineStr">
         <is>
@@ -27914,7 +27974,7 @@
         </is>
       </c>
       <c r="U317" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="318">
@@ -28254,7 +28314,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -28307,7 +28367,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="n">
         <v>0</v>
@@ -28319,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="S322" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T322" t="inlineStr">
         <is>
@@ -28327,7 +28391,7 @@
         </is>
       </c>
       <c r="U322" s="2" t="n">
-        <v>45247</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="323">
@@ -28699,7 +28763,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -28757,7 +28821,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O327" t="inlineStr"/>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P327" t="n">
         <v>0</v>
       </c>
@@ -28768,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>12811</v>
+        <v>12813</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -28776,7 +28844,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45271</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="328">
@@ -29934,7 +30002,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -29992,7 +30060,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O342" t="inlineStr"/>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P342" t="n">
         <v>0</v>
       </c>
@@ -30003,7 +30075,7 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>55271</v>
+        <v>55272</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -30011,7 +30083,7 @@
         </is>
       </c>
       <c r="U342" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="343">
@@ -30767,7 +30839,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -30825,7 +30897,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O351" t="inlineStr"/>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P351" t="n">
         <v>0</v>
       </c>
@@ -30836,7 +30912,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>127904</v>
+        <v>128219</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -30844,7 +30920,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45277</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="352">
@@ -33169,7 +33245,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -33238,7 +33314,7 @@
         <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>4381</v>
+        <v>4465</v>
       </c>
       <c r="T377" t="inlineStr">
         <is>
@@ -33246,7 +33322,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="378">
@@ -33626,7 +33702,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -33684,7 +33760,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O382" t="inlineStr"/>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P382" t="n">
         <v>0</v>
       </c>
@@ -33695,7 +33775,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -33703,7 +33783,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="383">
@@ -34091,7 +34171,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -34168,7 +34248,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="388">
@@ -35943,7 +36023,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -35966,7 +36046,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr"/>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I407" t="inlineStr">
         <is>
           <t>x</t>
@@ -35987,8 +36071,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr"/>
-      <c r="N407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="n">
         <v>0</v>
@@ -36000,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>21692</v>
+        <v>23487</v>
       </c>
       <c r="T407" t="inlineStr">
         <is>
@@ -36008,7 +36100,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="408">
@@ -36671,7 +36763,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -36729,7 +36821,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O415" t="inlineStr"/>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P415" t="n">
         <v>0</v>
       </c>
@@ -36740,7 +36836,7 @@
         <v>0</v>
       </c>
       <c r="S415" t="n">
-        <v>29409</v>
+        <v>29678</v>
       </c>
       <c r="T415" t="inlineStr">
         <is>
@@ -36748,7 +36844,7 @@
         </is>
       </c>
       <c r="U415" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="416">
@@ -37128,7 +37224,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -37205,7 +37301,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="421">
@@ -37221,7 +37317,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -37298,7 +37394,7 @@
         </is>
       </c>
       <c r="U421" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="422">
@@ -38228,7 +38324,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -38286,7 +38382,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O432" t="inlineStr"/>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P432" t="n">
         <v>0</v>
       </c>
@@ -38297,7 +38397,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>36018</v>
+        <v>36517</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -38305,7 +38405,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45278</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="433">
@@ -38507,7 +38607,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -38584,7 +38684,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="436">
@@ -38871,7 +38971,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -38929,7 +39029,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O439" t="inlineStr"/>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P439" t="n">
         <v>0</v>
       </c>
@@ -38940,7 +39044,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>5621</v>
+        <v>5686</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -38948,7 +39052,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="440">
@@ -42418,7 +42522,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -42476,7 +42580,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O478" t="inlineStr"/>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P478" t="n">
         <v>0</v>
       </c>
@@ -42487,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>98138</v>
+        <v>99277</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -42495,7 +42603,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="479">
@@ -42746,7 +42854,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -42799,8 +42907,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N482" t="inlineStr"/>
-      <c r="O482" t="inlineStr"/>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P482" t="n">
         <v>0</v>
       </c>
@@ -42811,7 +42927,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>2835</v>
+        <v>3062</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -42819,7 +42935,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45278</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="483">
@@ -43641,7 +43757,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -43699,7 +43815,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P493" t="n">
         <v>0</v>
       </c>
@@ -43710,7 +43830,7 @@
         <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
@@ -43718,7 +43838,7 @@
         </is>
       </c>
       <c r="U493" s="2" t="n">
-        <v>45265</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="494">
@@ -44252,7 +44372,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -44310,7 +44430,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P500" t="n">
         <v>0</v>
       </c>
@@ -44321,7 +44445,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>1657</v>
+        <v>1698</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
@@ -44329,7 +44453,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45287</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="501">
@@ -44903,7 +45027,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -44961,7 +45085,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O507" t="inlineStr"/>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P507" t="n">
         <v>0</v>
       </c>
@@ -44972,7 +45100,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -44980,7 +45108,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="508">
@@ -44996,7 +45124,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -45050,7 +45178,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O508" t="inlineStr"/>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P508" t="n">
         <v>0</v>
       </c>
@@ -45061,7 +45193,7 @@
         <v>0</v>
       </c>
       <c r="S508" t="n">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="T508" t="inlineStr">
         <is>
@@ -45069,7 +45201,7 @@
         </is>
       </c>
       <c r="U508" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="509">
@@ -45433,7 +45565,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -45506,7 +45638,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45251</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="514">
@@ -45595,7 +45727,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -45643,7 +45775,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M515" t="inlineStr"/>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="n">
@@ -45656,7 +45792,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>1321</v>
+        <v>1383</v>
       </c>
       <c r="T515" t="inlineStr">
         <is>
@@ -45664,7 +45800,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45247</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="516">
@@ -45680,7 +45816,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
@@ -45733,7 +45869,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="517">
@@ -45842,7 +45978,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
@@ -45864,10 +46000,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
-      <c r="M518" t="inlineStr"/>
-      <c r="N518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="n">
         <v>0</v>
@@ -45879,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -45887,7 +46039,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45154</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="519">
@@ -46656,7 +46808,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -46710,7 +46862,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O528" t="inlineStr"/>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P528" t="n">
         <v>0</v>
       </c>
@@ -46721,7 +46877,7 @@
         <v>0</v>
       </c>
       <c r="S528" t="n">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="T528" t="inlineStr">
         <is>
@@ -46729,7 +46885,7 @@
         </is>
       </c>
       <c r="U528" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="529">
@@ -46745,7 +46901,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
@@ -46795,7 +46951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O529" t="inlineStr"/>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P529" t="n">
         <v>0</v>
       </c>
@@ -46806,7 +46966,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -46814,7 +46974,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45282</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="530">
@@ -47604,7 +47764,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -47657,8 +47817,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N540" t="inlineStr"/>
-      <c r="O540" t="inlineStr"/>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P540" t="n">
         <v>0</v>
       </c>
@@ -47669,7 +47837,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T540" t="inlineStr">
         <is>
@@ -47677,7 +47845,7 @@
         </is>
       </c>
       <c r="U540" s="2" t="n">
-        <v>45238</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="541">
@@ -47786,7 +47954,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -47844,7 +48012,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O542" t="inlineStr"/>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P542" t="n">
         <v>0</v>
       </c>
@@ -47855,7 +48027,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -47863,7 +48035,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="543">
@@ -48114,7 +48286,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -48187,7 +48359,7 @@
         </is>
       </c>
       <c r="U546" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="547">
@@ -48486,7 +48658,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -48540,7 +48712,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O550" t="inlineStr"/>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P550" t="n">
         <v>0</v>
       </c>
@@ -48551,7 +48727,7 @@
         <v>0</v>
       </c>
       <c r="S550" t="n">
-        <v>1427</v>
+        <v>1485</v>
       </c>
       <c r="T550" t="inlineStr">
         <is>
@@ -48559,7 +48735,7 @@
         </is>
       </c>
       <c r="U550" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="551">
@@ -48810,7 +48986,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -48868,7 +49044,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O554" t="inlineStr"/>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P554" t="n">
         <v>0</v>
       </c>
@@ -48879,7 +49059,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="T554" t="inlineStr">
         <is>
@@ -48887,7 +49067,7 @@
         </is>
       </c>
       <c r="U554" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="555">
@@ -49741,7 +49921,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -49794,7 +49974,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N565" t="inlineStr"/>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="n">
         <v>0</v>
@@ -49806,7 +49990,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="T565" t="inlineStr">
         <is>
@@ -49814,7 +49998,7 @@
         </is>
       </c>
       <c r="U565" s="2" t="n">
-        <v>45265</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="566">
@@ -49923,7 +50107,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -49981,7 +50165,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O567" t="inlineStr"/>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P567" t="n">
         <v>0</v>
       </c>
@@ -49992,7 +50180,7 @@
         <v>0</v>
       </c>
       <c r="S567" t="n">
-        <v>1897</v>
+        <v>2091</v>
       </c>
       <c r="T567" t="inlineStr">
         <is>
@@ -50000,7 +50188,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="568">
@@ -50170,7 +50358,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -50228,7 +50416,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O570" t="inlineStr"/>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P570" t="n">
         <v>0</v>
       </c>
@@ -50239,7 +50431,7 @@
         <v>0</v>
       </c>
       <c r="S570" t="n">
-        <v>878</v>
+        <v>929</v>
       </c>
       <c r="T570" t="inlineStr">
         <is>
@@ -50247,7 +50439,7 @@
         </is>
       </c>
       <c r="U570" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="571">
@@ -50510,7 +50702,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -50568,7 +50760,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O574" t="inlineStr"/>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P574" t="n">
         <v>0</v>
       </c>
@@ -50579,7 +50775,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T574" t="inlineStr">
         <is>
@@ -50587,7 +50783,7 @@
         </is>
       </c>
       <c r="U574" s="2" t="n">
-        <v>45280</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="575">
@@ -50603,7 +50799,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -50661,7 +50857,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O575" t="inlineStr"/>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P575" t="n">
         <v>0</v>
       </c>
@@ -50672,7 +50872,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -50680,7 +50880,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="576">
@@ -50789,7 +50989,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -50807,8 +51007,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G577" t="inlineStr"/>
-      <c r="H577" t="inlineStr"/>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I577" t="inlineStr">
         <is>
           <t>x</t>
@@ -50839,7 +51047,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O577" t="inlineStr"/>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P577" t="n">
         <v>0</v>
       </c>
@@ -50850,7 +51062,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="n">
-        <v>185</v>
+        <v>477</v>
       </c>
       <c r="T577" t="inlineStr">
         <is>
@@ -50858,7 +51070,7 @@
         </is>
       </c>
       <c r="U577" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="578">
@@ -51607,7 +51819,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -51665,7 +51877,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O587" t="inlineStr"/>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P587" t="n">
         <v>0</v>
       </c>
@@ -51676,7 +51892,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -51684,7 +51900,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45278</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="588">
@@ -52259,7 +52475,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -52293,7 +52509,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O595" t="inlineStr"/>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P595" t="n">
         <v>0</v>
       </c>
@@ -52304,7 +52524,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T595" t="inlineStr">
         <is>
@@ -52312,7 +52532,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="596">
@@ -53001,7 +53221,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -53050,8 +53270,16 @@
         </is>
       </c>
       <c r="M605" t="inlineStr"/>
-      <c r="N605" t="inlineStr"/>
-      <c r="O605" t="inlineStr"/>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P605" t="n">
         <v>0</v>
       </c>
@@ -53062,7 +53290,7 @@
         <v>0</v>
       </c>
       <c r="S605" t="n">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="T605" t="inlineStr">
         <is>
@@ -53070,7 +53298,7 @@
         </is>
       </c>
       <c r="U605" s="2" t="n">
-        <v>45209</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="606">
@@ -53204,7 +53432,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -53265,7 +53493,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="609">
@@ -53658,7 +53886,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -53708,7 +53936,11 @@
       </c>
       <c r="M614" t="inlineStr"/>
       <c r="N614" t="inlineStr"/>
-      <c r="O614" t="inlineStr"/>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P614" t="n">
         <v>0</v>
       </c>
@@ -53719,7 +53951,7 @@
         <v>0</v>
       </c>
       <c r="S614" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="T614" t="inlineStr">
         <is>
@@ -53727,7 +53959,7 @@
         </is>
       </c>
       <c r="U614" s="2" t="n">
-        <v>45279</v>
+        <v>45295</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U616"/>
+  <dimension ref="A1:U619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1040,7 +1040,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1059,7 +1063,7 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="11">
@@ -1866,7 +1870,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1899,7 +1903,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="23">
@@ -2487,7 +2491,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2545,7 +2549,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22093</v>
+        <v>22383</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2564,7 +2572,7 @@
         </is>
       </c>
       <c r="U31" s="2" t="n">
-        <v>45278</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="32">
@@ -2859,7 +2867,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2917,7 +2925,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -2936,7 +2948,7 @@
         </is>
       </c>
       <c r="U35" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="36">
@@ -3045,7 +3057,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3103,7 +3115,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -3114,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4389</v>
+        <v>4417</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3122,7 +3138,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45273</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="38">
@@ -3138,7 +3154,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3196,7 +3212,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
@@ -3207,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17503</v>
+        <v>17742</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3215,7 +3235,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="39">
@@ -4109,7 +4129,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4167,7 +4187,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
@@ -4178,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1552</v>
+        <v>1601</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4186,7 +4210,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45272</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="50">
@@ -5619,7 +5643,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -5656,7 +5680,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="68">
@@ -5814,7 +5838,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5851,7 +5875,7 @@
         </is>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45279</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="71">
@@ -5867,7 +5891,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -5940,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>15501</v>
+        <v>15673</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -5948,7 +5972,7 @@
         </is>
       </c>
       <c r="U71" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="72">
@@ -6587,7 +6611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6645,7 +6669,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
@@ -6656,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>11263</v>
+        <v>11437</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -6664,7 +6692,7 @@
         </is>
       </c>
       <c r="U79" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="80">
@@ -7254,7 +7282,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7312,7 +7340,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
@@ -7323,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>2077</v>
+        <v>2140</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7331,7 +7363,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45271</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="87">
@@ -9434,7 +9466,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9492,7 +9524,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P110" t="n">
         <v>0</v>
       </c>
@@ -9503,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>34656</v>
+        <v>35184</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -9511,7 +9547,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45266</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="111">
@@ -10485,7 +10521,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10539,7 +10575,11 @@
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -10550,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>9472</v>
+        <v>9688</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -10558,7 +10598,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="122">
@@ -10861,7 +10901,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -10942,7 +10982,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="126">
@@ -10958,7 +10998,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -11016,7 +11056,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P126" t="n">
         <v>0</v>
       </c>
@@ -11027,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>22647</v>
+        <v>22929</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -11035,7 +11079,7 @@
         </is>
       </c>
       <c r="U126" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="127">
@@ -11148,7 +11192,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11206,7 +11250,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
@@ -11217,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>21227</v>
+        <v>21470</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -11225,7 +11273,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="129">
@@ -11435,7 +11483,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11504,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>37442</v>
+        <v>37504</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -11512,7 +11560,7 @@
         </is>
       </c>
       <c r="U131" s="2" t="n">
-        <v>45282</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="132">
@@ -12009,7 +12057,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12067,7 +12115,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P137" t="n">
         <v>0</v>
       </c>
@@ -12078,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>14047</v>
+        <v>14229</v>
       </c>
       <c r="T137" t="inlineStr">
         <is>
@@ -12086,7 +12138,7 @@
         </is>
       </c>
       <c r="U137" s="2" t="n">
-        <v>45272</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="138">
@@ -12199,7 +12251,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12280,7 +12332,7 @@
         </is>
       </c>
       <c r="U139" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="140">
@@ -12636,7 +12688,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12694,7 +12746,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P144" t="n">
         <v>0</v>
       </c>
@@ -12705,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -12713,7 +12769,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="145">
@@ -13012,7 +13068,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13065,8 +13121,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P148" t="n">
         <v>0</v>
       </c>
@@ -13077,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>9037</v>
+        <v>9201</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -13085,7 +13149,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45257</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="149">
@@ -13101,7 +13165,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13159,7 +13223,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
@@ -13170,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>17119</v>
+        <v>17312</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -13178,7 +13246,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="150">
@@ -13849,7 +13917,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13922,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>44837</v>
+        <v>45484</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -13930,7 +13998,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="158">
@@ -14864,7 +14932,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -14917,7 +14985,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
         <v>0</v>
@@ -14929,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -14937,7 +15009,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45258</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="169">
@@ -15147,7 +15219,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -15175,7 +15247,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
@@ -15188,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -15196,7 +15272,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45252</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="172">
@@ -15871,7 +15947,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -15944,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>17895</v>
+        <v>18011</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -15952,7 +16028,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="180">
@@ -15968,7 +16044,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -16026,7 +16102,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P180" t="n">
         <v>0</v>
       </c>
@@ -16037,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>27512</v>
+        <v>27538</v>
       </c>
       <c r="T180" t="inlineStr">
         <is>
@@ -16045,7 +16125,7 @@
         </is>
       </c>
       <c r="U180" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="181">
@@ -16158,7 +16238,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -16207,7 +16287,11 @@
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
         <v>0</v>
@@ -16219,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>2963</v>
+        <v>3002</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -16227,7 +16311,7 @@
         </is>
       </c>
       <c r="U182" s="2" t="n">
-        <v>45252</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="183">
@@ -16340,7 +16424,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -16421,7 +16505,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="185">
@@ -17541,7 +17625,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -17614,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>21210</v>
+        <v>21211</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -17622,7 +17706,7 @@
         </is>
       </c>
       <c r="U197" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="198">
@@ -17832,7 +17916,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -17905,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>24545</v>
+        <v>24780</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -17913,7 +17997,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="201">
@@ -18528,7 +18612,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -18601,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>6088</v>
+        <v>6089</v>
       </c>
       <c r="T208" t="inlineStr">
         <is>
@@ -18609,7 +18693,7 @@
         </is>
       </c>
       <c r="U208" s="2" t="n">
-        <v>45299</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="209">
@@ -19967,7 +20051,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -20025,7 +20109,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P223" t="n">
         <v>0</v>
       </c>
@@ -20036,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>76305</v>
+        <v>77118</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -20044,7 +20132,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="224">
@@ -21649,7 +21737,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -21707,7 +21795,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P241" t="n">
         <v>0</v>
       </c>
@@ -21718,7 +21810,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>10403</v>
+        <v>10515</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -21726,7 +21818,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="242">
@@ -22324,7 +22416,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -22378,7 +22470,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P248" t="n">
         <v>0</v>
       </c>
@@ -22389,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -22397,7 +22493,7 @@
         </is>
       </c>
       <c r="U248" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="249">
@@ -24180,7 +24276,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -24238,7 +24334,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P268" t="n">
         <v>0</v>
       </c>
@@ -24249,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>12331</v>
+        <v>12381</v>
       </c>
       <c r="T268" t="inlineStr">
         <is>
@@ -24257,7 +24357,7 @@
         </is>
       </c>
       <c r="U268" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="269">
@@ -25122,7 +25222,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -25180,7 +25280,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P278" t="n">
         <v>0</v>
       </c>
@@ -25191,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="S278" t="n">
-        <v>7882</v>
+        <v>7967</v>
       </c>
       <c r="T278" t="inlineStr">
         <is>
@@ -25199,7 +25303,7 @@
         </is>
       </c>
       <c r="U278" s="2" t="n">
-        <v>45275</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="279">
@@ -26995,7 +27099,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -27053,7 +27157,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O299" t="inlineStr"/>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P299" t="n">
         <v>0</v>
       </c>
@@ -27064,7 +27172,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>13089</v>
+        <v>13235</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -27072,7 +27180,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="300">
@@ -27909,7 +28017,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -27967,7 +28075,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P309" t="n">
         <v>0</v>
       </c>
@@ -27978,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>50257</v>
+        <v>50853</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -27986,7 +28098,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="310">
@@ -28487,7 +28599,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -28560,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>19138</v>
+        <v>19432</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -28568,7 +28680,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="316">
@@ -28730,7 +28842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -28803,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>65007</v>
+        <v>65061</v>
       </c>
       <c r="T318" t="inlineStr">
         <is>
@@ -28811,7 +28923,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="319">
@@ -28827,7 +28939,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -28880,8 +28992,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N319" t="inlineStr"/>
-      <c r="O319" t="inlineStr"/>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P319" t="n">
         <v>0</v>
       </c>
@@ -28892,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>29639</v>
+        <v>30537</v>
       </c>
       <c r="T319" t="inlineStr">
         <is>
@@ -28900,7 +29020,7 @@
         </is>
       </c>
       <c r="U319" s="2" t="n">
-        <v>45243</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="320">
@@ -29381,7 +29501,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -29439,7 +29559,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P325" t="n">
         <v>0</v>
       </c>
@@ -29450,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>33626</v>
+        <v>33996</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -29458,7 +29582,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45267</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="326">
@@ -30352,7 +30476,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -30410,7 +30534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O336" t="inlineStr"/>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P336" t="n">
         <v>0</v>
       </c>
@@ -30421,7 +30549,7 @@
         <v>0</v>
       </c>
       <c r="S336" t="n">
-        <v>13090</v>
+        <v>13196</v>
       </c>
       <c r="T336" t="inlineStr">
         <is>
@@ -30429,7 +30557,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="337">
@@ -30506,7 +30634,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -30564,7 +30692,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O338" t="inlineStr"/>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P338" t="n">
         <v>0</v>
       </c>
@@ -30575,7 +30707,7 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>43282</v>
+        <v>43779</v>
       </c>
       <c r="T338" t="inlineStr">
         <is>
@@ -30583,7 +30715,7 @@
         </is>
       </c>
       <c r="U338" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="339">
@@ -30935,7 +31067,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -30993,7 +31125,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P343" t="n">
         <v>0</v>
       </c>
@@ -31004,7 +31140,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -31012,7 +31148,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="344">
@@ -31315,7 +31451,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -31373,7 +31509,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O347" t="inlineStr"/>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P347" t="n">
         <v>0</v>
       </c>
@@ -31384,7 +31524,7 @@
         <v>0</v>
       </c>
       <c r="S347" t="n">
-        <v>10101</v>
+        <v>10121</v>
       </c>
       <c r="T347" t="inlineStr">
         <is>
@@ -31392,7 +31532,7 @@
         </is>
       </c>
       <c r="U347" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="348">
@@ -31505,7 +31645,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -31563,7 +31703,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O349" t="inlineStr"/>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P349" t="n">
         <v>0</v>
       </c>
@@ -31574,7 +31718,7 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>11147</v>
+        <v>11180</v>
       </c>
       <c r="T349" t="inlineStr">
         <is>
@@ -31582,7 +31726,7 @@
         </is>
       </c>
       <c r="U349" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="350">
@@ -31598,7 +31742,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -31671,7 +31815,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>129080</v>
+        <v>129199</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -31679,7 +31823,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="351">
@@ -31695,7 +31839,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -31768,7 +31912,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>34776</v>
+        <v>35227</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -31776,7 +31920,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="352">
@@ -32544,7 +32688,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -32617,7 +32761,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>12426</v>
+        <v>12431</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -32625,7 +32769,7 @@
         </is>
       </c>
       <c r="U360" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="361">
@@ -32835,7 +32979,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -32908,7 +33052,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>28030</v>
+        <v>28034</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -32916,7 +33060,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45301</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="364">
@@ -33029,7 +33173,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -33102,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>16898</v>
+        <v>17123</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -33110,7 +33254,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="366">
@@ -33991,7 +34135,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -34064,7 +34208,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>53004</v>
+        <v>53180</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -34072,7 +34216,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="376">
@@ -34282,7 +34426,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -34340,7 +34484,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O378" t="inlineStr"/>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P378" t="n">
         <v>0</v>
       </c>
@@ -34351,7 +34499,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>1962</v>
+        <v>1997</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -34359,7 +34507,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45272</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="379">
@@ -34375,7 +34523,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -34433,7 +34581,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O379" t="inlineStr"/>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P379" t="n">
         <v>0</v>
       </c>
@@ -34444,7 +34596,7 @@
         <v>0</v>
       </c>
       <c r="S379" t="n">
-        <v>49291</v>
+        <v>50499</v>
       </c>
       <c r="T379" t="inlineStr">
         <is>
@@ -34452,7 +34604,7 @@
         </is>
       </c>
       <c r="U379" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="380">
@@ -35042,7 +35194,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -35115,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>32405</v>
+        <v>32483</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -35123,7 +35275,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45305</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="387">
@@ -35139,7 +35291,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -35212,7 +35364,7 @@
         <v>0</v>
       </c>
       <c r="S387" t="n">
-        <v>14242</v>
+        <v>14249</v>
       </c>
       <c r="T387" t="inlineStr">
         <is>
@@ -35220,7 +35372,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="388">
@@ -36291,7 +36443,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -36349,7 +36501,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O399" t="inlineStr"/>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P399" t="n">
         <v>0</v>
       </c>
@@ -36360,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="S399" t="n">
-        <v>20990</v>
+        <v>21318</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -36368,7 +36524,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="400">
@@ -36578,7 +36734,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -36636,7 +36792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O402" t="inlineStr"/>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P402" t="n">
         <v>0</v>
       </c>
@@ -36647,7 +36807,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>3817</v>
+        <v>3828</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -36655,7 +36815,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="403">
@@ -36768,7 +36928,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -36826,7 +36986,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O404" t="inlineStr"/>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P404" t="n">
         <v>0</v>
       </c>
@@ -36837,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -36845,7 +37009,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="405">
@@ -38086,7 +38250,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -38144,7 +38308,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O418" t="inlineStr"/>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P418" t="n">
         <v>0</v>
       </c>
@@ -38155,7 +38323,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>15838</v>
+        <v>16229</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -38163,7 +38331,7 @@
         </is>
       </c>
       <c r="U418" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="419">
@@ -38470,7 +38638,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -38528,7 +38696,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O422" t="inlineStr"/>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P422" t="n">
         <v>0</v>
       </c>
@@ -38539,7 +38711,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -38547,7 +38719,7 @@
         </is>
       </c>
       <c r="U422" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="423">
@@ -38563,7 +38735,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -38621,7 +38793,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O423" t="inlineStr"/>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P423" t="n">
         <v>0</v>
       </c>
@@ -38632,7 +38808,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>14462</v>
+        <v>14610</v>
       </c>
       <c r="T423" t="inlineStr">
         <is>
@@ -38640,7 +38816,7 @@
         </is>
       </c>
       <c r="U423" s="2" t="n">
-        <v>45299</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="424">
@@ -38749,7 +38925,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -38803,7 +38979,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P425" t="n">
         <v>0</v>
       </c>
@@ -38814,7 +38994,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -38822,7 +39002,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45281</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="426">
@@ -39416,7 +39596,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -39474,7 +39654,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O432" t="inlineStr"/>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P432" t="n">
         <v>0</v>
       </c>
@@ -39485,7 +39669,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -39493,7 +39677,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="433">
@@ -41369,7 +41553,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -41442,7 +41626,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>28975</v>
+        <v>29257</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -41450,7 +41634,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45300</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="454">
@@ -41757,7 +41941,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -41815,7 +41999,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O457" t="inlineStr"/>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P457" t="n">
         <v>0</v>
       </c>
@@ -41826,7 +42014,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>156691</v>
+        <v>158681</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -41834,7 +42022,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="458">
@@ -41850,7 +42038,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2024/01/07</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -41923,7 +42111,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>4300</v>
+        <v>4317</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -41931,7 +42119,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45298</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="459">
@@ -43253,7 +43441,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -43311,7 +43499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P473" t="n">
         <v>0</v>
       </c>
@@ -43322,7 +43514,7 @@
         <v>0</v>
       </c>
       <c r="S473" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
@@ -43330,7 +43522,7 @@
         </is>
       </c>
       <c r="U473" s="2" t="n">
-        <v>45307</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="474">
@@ -44070,7 +44262,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -44128,7 +44320,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O482" t="inlineStr"/>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P482" t="n">
         <v>0</v>
       </c>
@@ -44139,7 +44335,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -44147,7 +44343,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="483">
@@ -44697,7 +44893,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -44755,7 +44951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O489" t="inlineStr"/>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P489" t="n">
         <v>0</v>
       </c>
@@ -44766,7 +44966,7 @@
         <v>0</v>
       </c>
       <c r="S489" t="n">
-        <v>2260</v>
+        <v>2389</v>
       </c>
       <c r="T489" t="inlineStr">
         <is>
@@ -44774,7 +44974,7 @@
         </is>
       </c>
       <c r="U489" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="490">
@@ -44989,7 +45189,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -45047,7 +45247,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P493" t="n">
         <v>0</v>
       </c>
@@ -45058,7 +45262,7 @@
         <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
@@ -45066,7 +45270,7 @@
         </is>
       </c>
       <c r="U493" s="2" t="n">
-        <v>45285</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="494">
@@ -46829,7 +47033,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/07/11</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -46862,12 +47066,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
-      <c r="M513" t="inlineStr"/>
-      <c r="N513" t="inlineStr"/>
-      <c r="O513" t="inlineStr"/>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P513" t="n">
         <v>0</v>
       </c>
@@ -46878,7 +47106,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -46886,7 +47114,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45118</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="514">
@@ -46902,7 +47130,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -46955,7 +47183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N514" t="inlineStr"/>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="n">
         <v>0</v>
@@ -46967,7 +47199,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>1383</v>
+        <v>1446</v>
       </c>
       <c r="T514" t="inlineStr">
         <is>
@@ -46975,7 +47207,7 @@
         </is>
       </c>
       <c r="U514" s="2" t="n">
-        <v>45294</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="515">
@@ -46991,7 +47223,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -47048,7 +47280,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="516">
@@ -50767,7 +50999,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -50825,7 +51057,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O559" t="inlineStr"/>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P559" t="n">
         <v>0</v>
       </c>
@@ -50836,7 +51072,7 @@
         <v>0</v>
       </c>
       <c r="S559" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="T559" t="inlineStr">
         <is>
@@ -50844,7 +51080,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="560">
@@ -51333,7 +51569,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -51406,7 +51642,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="T565" t="inlineStr">
         <is>
@@ -51414,7 +51650,7 @@
         </is>
       </c>
       <c r="U565" s="2" t="n">
-        <v>45295</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="566">
@@ -52130,7 +52366,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -52188,7 +52424,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O574" t="inlineStr"/>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P574" t="n">
         <v>0</v>
       </c>
@@ -52199,7 +52439,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="T574" t="inlineStr">
         <is>
@@ -52207,7 +52447,7 @@
         </is>
       </c>
       <c r="U574" s="2" t="n">
-        <v>45286</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="575">
@@ -52320,7 +52560,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -52393,7 +52633,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45282</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="577">
@@ -53166,7 +53406,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -53212,7 +53452,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O586" t="inlineStr"/>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P586" t="n">
         <v>0</v>
       </c>
@@ -53223,7 +53467,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>771</v>
+        <v>911</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -53231,7 +53475,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="587">
@@ -54888,7 +55132,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -54945,7 +55189,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="609">
@@ -55265,7 +55509,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D613" t="inlineStr"/>
@@ -55302,7 +55546,7 @@
         </is>
       </c>
       <c r="U613" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="614">
@@ -55468,6 +55712,165 @@
         <v>45306</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Municipalidad de Panquehue</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr"/>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
+      <c r="S617" t="n">
+        <v>114</v>
+      </c>
+      <c r="T617" t="inlineStr">
+        <is>
+          <t>MU201</t>
+        </is>
+      </c>
+      <c r="U617" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Municipalidad de Constitución</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+      <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
+      <c r="S618" t="n">
+        <v>14</v>
+      </c>
+      <c r="T618" t="inlineStr">
+        <is>
+          <t>MU064</t>
+        </is>
+      </c>
+      <c r="U618" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr"/>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr"/>
+      <c r="N619" t="inlineStr"/>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
+      <c r="S619" t="n">
+        <v>412</v>
+      </c>
+      <c r="T619" t="inlineStr">
+        <is>
+          <t>FU003</t>
+        </is>
+      </c>
+      <c r="U619" s="2" t="n">
+        <v>45308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U619"/>
+  <dimension ref="A1:U620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1600,7 +1600,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>17297</v>
+        <v>17630</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1619,7 +1623,7 @@
         </is>
       </c>
       <c r="U18" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="19">
@@ -1635,7 +1639,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1688,7 +1692,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
         <v>0</v>
@@ -1700,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1708,7 +1716,7 @@
         </is>
       </c>
       <c r="U19" s="2" t="n">
-        <v>45244</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="20">
@@ -2685,7 +2693,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2739,7 +2747,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2758,7 +2770,7 @@
         </is>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45279</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="34">
@@ -2774,7 +2786,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2832,7 +2844,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5399</v>
+        <v>5490</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2851,7 +2867,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="35">
@@ -5121,7 +5137,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5179,7 +5195,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
@@ -5190,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>14925</v>
+        <v>15137</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5198,7 +5218,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45286</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="62">
@@ -6328,7 +6348,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6381,8 +6401,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
@@ -6393,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>30441</v>
+        <v>30902</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -6401,7 +6429,7 @@
         </is>
       </c>
       <c r="U76" s="2" t="n">
-        <v>45251</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="77">
@@ -7379,7 +7407,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7437,7 +7465,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P87" t="n">
         <v>0</v>
       </c>
@@ -7448,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7456,7 +7488,7 @@
         </is>
       </c>
       <c r="U87" s="2" t="n">
-        <v>45271</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="88">
@@ -7905,7 +7937,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7986,7 +8018,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="94">
@@ -10428,7 +10460,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10486,7 +10518,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
@@ -10497,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>16112</v>
+        <v>16364</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -10505,7 +10541,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="121">
@@ -10808,7 +10844,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -10866,7 +10902,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P124" t="n">
         <v>0</v>
       </c>
@@ -10877,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>208164</v>
+        <v>210831</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
@@ -10885,7 +10925,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="125">
@@ -12639,7 +12679,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -12672,7 +12712,7 @@
         </is>
       </c>
       <c r="U143" s="2" t="n">
-        <v>45232</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="144">
@@ -13068,7 +13108,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13149,7 +13189,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="149">
@@ -21737,7 +21777,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -21810,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>10515</v>
+        <v>10524</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -21818,7 +21858,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45309</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="242">
@@ -22699,7 +22739,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -22780,7 +22820,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="252">
@@ -22930,7 +22970,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -22988,7 +23028,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O254" t="inlineStr"/>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P254" t="n">
         <v>0</v>
       </c>
@@ -22999,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -23007,7 +23051,7 @@
         </is>
       </c>
       <c r="U254" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="255">
@@ -23217,7 +23261,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/20</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -23294,7 +23338,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45306</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="258">
@@ -24183,7 +24227,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -24241,7 +24285,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P267" t="n">
         <v>0</v>
       </c>
@@ -24252,7 +24300,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T267" t="inlineStr">
         <is>
@@ -24260,7 +24308,7 @@
         </is>
       </c>
       <c r="U267" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="268">
@@ -24373,7 +24421,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24446,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>9114</v>
+        <v>9285</v>
       </c>
       <c r="T269" t="inlineStr">
         <is>
@@ -24454,7 +24502,7 @@
         </is>
       </c>
       <c r="U269" s="2" t="n">
-        <v>45301</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="270">
@@ -24955,7 +25003,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -25013,7 +25061,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P275" t="n">
         <v>0</v>
       </c>
@@ -25024,7 +25076,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>53908</v>
+        <v>54452</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -25032,7 +25084,7 @@
         </is>
       </c>
       <c r="U275" s="2" t="n">
-        <v>45289</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="276">
@@ -25416,7 +25468,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -25497,7 +25549,7 @@
         </is>
       </c>
       <c r="U280" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="281">
@@ -25513,7 +25565,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -25546,7 +25598,7 @@
         </is>
       </c>
       <c r="U281" s="2" t="n">
-        <v>45300</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="282">
@@ -26424,7 +26476,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -26482,7 +26534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O292" t="inlineStr"/>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P292" t="n">
         <v>0</v>
       </c>
@@ -26493,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>6277</v>
+        <v>6373</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
@@ -26501,7 +26557,7 @@
         </is>
       </c>
       <c r="U292" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="293">
@@ -27633,7 +27689,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -27691,7 +27747,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O305" t="inlineStr"/>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P305" t="n">
         <v>0</v>
       </c>
@@ -27702,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="S305" t="n">
-        <v>38652</v>
+        <v>39042</v>
       </c>
       <c r="T305" t="inlineStr">
         <is>
@@ -27710,7 +27770,7 @@
         </is>
       </c>
       <c r="U305" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="306">
@@ -27920,7 +27980,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -28001,7 +28061,7 @@
         </is>
       </c>
       <c r="U308" s="2" t="n">
-        <v>45300</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="309">
@@ -28308,7 +28368,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -28389,7 +28449,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45307</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="313">
@@ -28599,7 +28659,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -28680,7 +28740,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45309</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="316">
@@ -28696,7 +28756,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -28769,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>53613</v>
+        <v>53657</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -28777,7 +28837,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45296</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="317">
@@ -29133,7 +29193,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -29191,7 +29251,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O321" t="inlineStr"/>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P321" t="n">
         <v>0</v>
       </c>
@@ -29202,7 +29266,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -29210,7 +29274,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45291</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="322">
@@ -29598,7 +29662,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -29679,7 +29743,7 @@
         </is>
       </c>
       <c r="U326" s="2" t="n">
-        <v>45301</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="327">
@@ -31742,7 +31806,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -31815,7 +31879,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>129199</v>
+        <v>129424</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -31823,7 +31887,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45309</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="351">
@@ -32304,7 +32368,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -32381,7 +32445,7 @@
         </is>
       </c>
       <c r="U356" s="2" t="n">
-        <v>45301</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="357">
@@ -34135,7 +34199,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -34208,7 +34272,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>53180</v>
+        <v>53355</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -34216,7 +34280,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="376">
@@ -34329,7 +34393,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -34410,7 +34474,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45302</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="378">
@@ -35776,7 +35840,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -35849,7 +35913,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45259</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="393">
@@ -35865,7 +35929,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -35946,7 +36010,7 @@
         </is>
       </c>
       <c r="U393" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="394">
@@ -37312,7 +37376,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -37370,7 +37434,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O408" t="inlineStr"/>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P408" t="n">
         <v>0</v>
       </c>
@@ -37381,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>52691</v>
+        <v>54176</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -37389,7 +37457,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45275</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="409">
@@ -37599,7 +37667,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -37657,7 +37725,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O411" t="inlineStr"/>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P411" t="n">
         <v>0</v>
       </c>
@@ -37668,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>11735</v>
+        <v>11800</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -37676,7 +37748,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45286</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="412">
@@ -37874,7 +37946,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -37947,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="S414" t="n">
-        <v>29683</v>
+        <v>29753</v>
       </c>
       <c r="T414" t="inlineStr">
         <is>
@@ -37955,7 +38027,7 @@
         </is>
       </c>
       <c r="U414" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="415">
@@ -40166,7 +40238,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -40239,7 +40311,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>5692</v>
+        <v>5756</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -40247,7 +40319,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="439">
@@ -40360,7 +40432,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -40418,7 +40490,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O440" t="inlineStr"/>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P440" t="n">
         <v>0</v>
       </c>
@@ -40429,7 +40505,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -40437,7 +40513,7 @@
         </is>
       </c>
       <c r="U440" s="2" t="n">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="441">
@@ -45383,7 +45459,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/08/21</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -45421,11 +45497,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
-      <c r="M495" t="inlineStr"/>
-      <c r="N495" t="inlineStr"/>
-      <c r="O495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P495" t="n">
         <v>0</v>
       </c>
@@ -45436,7 +45532,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>1437</v>
+        <v>1840</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -45444,7 +45540,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45159</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="496">
@@ -46944,7 +47040,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -47017,7 +47113,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45295</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="513">
@@ -47223,7 +47319,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -47280,7 +47376,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="516">
@@ -47656,7 +47752,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -47714,7 +47810,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O520" t="inlineStr"/>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P520" t="n">
         <v>0</v>
       </c>
@@ -47725,7 +47825,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>1625</v>
+        <v>1729</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -47733,7 +47833,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45272</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="521">
@@ -49566,7 +49666,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -49624,7 +49724,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O542" t="inlineStr"/>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P542" t="n">
         <v>0</v>
       </c>
@@ -49635,7 +49739,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>1754</v>
+        <v>1871</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -49643,7 +49747,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45285</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="543">
@@ -49801,7 +49905,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -49859,7 +49963,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O545" t="inlineStr"/>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P545" t="n">
         <v>0</v>
       </c>
@@ -49870,7 +49978,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T545" t="inlineStr">
         <is>
@@ -49878,7 +49986,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="546">
@@ -50906,7 +51014,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -50964,7 +51072,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O558" t="inlineStr"/>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P558" t="n">
         <v>0</v>
       </c>
@@ -50975,7 +51087,7 @@
         <v>0</v>
       </c>
       <c r="S558" t="n">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="T558" t="inlineStr">
         <is>
@@ -50983,7 +51095,7 @@
         </is>
       </c>
       <c r="U558" s="2" t="n">
-        <v>45273</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="559">
@@ -51379,7 +51491,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -51452,7 +51564,7 @@
         <v>0</v>
       </c>
       <c r="S563" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="T563" t="inlineStr">
         <is>
@@ -51460,7 +51572,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="564">
@@ -52560,7 +52672,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -52625,7 +52737,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -52633,7 +52745,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="577">
@@ -52649,7 +52761,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -52707,7 +52819,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O577" t="inlineStr"/>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P577" t="n">
         <v>0</v>
       </c>
@@ -52718,7 +52834,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="n">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="T577" t="inlineStr">
         <is>
@@ -52726,7 +52842,7 @@
         </is>
       </c>
       <c r="U577" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="578">
@@ -53143,7 +53259,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -53193,7 +53309,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O583" t="inlineStr"/>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P583" t="n">
         <v>0</v>
       </c>
@@ -53204,7 +53324,7 @@
         <v>0</v>
       </c>
       <c r="S583" t="n">
-        <v>4741</v>
+        <v>5140</v>
       </c>
       <c r="T583" t="inlineStr">
         <is>
@@ -53212,7 +53332,7 @@
         </is>
       </c>
       <c r="U583" s="2" t="n">
-        <v>45278</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="584">
@@ -53552,7 +53672,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2023/12/03</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -53610,7 +53730,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O588" t="inlineStr"/>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P588" t="n">
         <v>0</v>
       </c>
@@ -53621,7 +53745,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -53629,7 +53753,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45263</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="589">
@@ -53645,7 +53769,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -53718,7 +53842,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -53726,7 +53850,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45287</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="590">
@@ -55415,59 +55539,23 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Corporación de investigación y avance de la Paleontología e historia natural de Atacama</t>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>2024/01/26</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="inlineStr"/>
       <c r="N612" t="inlineStr"/>
       <c r="O612" t="inlineStr">
@@ -55485,15 +55573,15 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="T612" t="inlineStr">
         <is>
-          <t>FU020</t>
+          <t>CM284</t>
         </is>
       </c>
       <c r="U612" s="2" t="n">
-        <v>45295</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="613">
@@ -55504,23 +55592,59 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Corporación de investigación y avance de la Paleontología e historia natural de Atacama</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr"/>
-      <c r="H613" t="inlineStr"/>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+          <t>2024/01/04</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M613" t="inlineStr"/>
       <c r="N613" t="inlineStr"/>
       <c r="O613" t="inlineStr">
@@ -55538,15 +55662,15 @@
         <v>0</v>
       </c>
       <c r="S613" t="n">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="T613" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>FU020</t>
         </is>
       </c>
       <c r="U613" s="2" t="n">
-        <v>45308</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="614">
@@ -55557,12 +55681,12 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D614" t="inlineStr"/>
@@ -55591,15 +55715,15 @@
         <v>0</v>
       </c>
       <c r="S614" t="n">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="T614" t="inlineStr">
         <is>
-          <t>CM233</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="U614" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="615">
@@ -55610,12 +55734,12 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
@@ -55628,11 +55752,7 @@
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr"/>
       <c r="M615" t="inlineStr"/>
-      <c r="N615" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N615" t="inlineStr"/>
       <c r="O615" t="inlineStr">
         <is>
           <t>x</t>
@@ -55648,15 +55768,15 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>583</v>
+        <v>13</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>CM233</t>
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="616">
@@ -55667,12 +55787,12 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/11</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
@@ -55685,7 +55805,11 @@
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr"/>
       <c r="M616" t="inlineStr"/>
-      <c r="N616" t="inlineStr"/>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O616" t="inlineStr">
         <is>
           <t>x</t>
@@ -55701,15 +55825,15 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45306</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="617">
@@ -55720,12 +55844,12 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/15</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
@@ -55754,15 +55878,15 @@
         <v>0</v>
       </c>
       <c r="S617" t="n">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="T617" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45307</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="618">
@@ -55773,7 +55897,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -55807,11 +55931,11 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="T618" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="U618" s="2" t="n">
@@ -55826,12 +55950,12 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
@@ -55860,14 +55984,67 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
+        <v>14</v>
+      </c>
+      <c r="T619" t="inlineStr">
+        <is>
+          <t>MU064</t>
+        </is>
+      </c>
+      <c r="U619" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
+      <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
+      <c r="S620" t="n">
         <v>412</v>
       </c>
-      <c r="T619" t="inlineStr">
+      <c r="T620" t="inlineStr">
         <is>
           <t>FU003</t>
         </is>
       </c>
-      <c r="U619" s="2" t="n">
+      <c r="U620" s="2" t="n">
         <v>45308</v>
       </c>
     </row>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U620"/>
+  <dimension ref="A1:U624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -502,11 +502,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
@@ -527,7 +523,7 @@
         </is>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="3">
@@ -1927,7 +1923,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1960,7 +1956,7 @@
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="24">
@@ -3073,7 +3069,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3146,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4417</v>
+        <v>4463</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3154,7 +3150,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="38">
@@ -3267,7 +3263,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3348,7 +3344,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45302</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="40">
@@ -4291,7 +4287,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -4324,7 +4320,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45282</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="52">
@@ -4579,7 +4575,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4637,7 +4633,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>11753</v>
+        <v>11898</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="56">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>70387</v>
+        <v>72137</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45265</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="59">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>12816</v>
+        <v>12876</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="66">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45300</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="73">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45302</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="84">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="104">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="U109" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="110">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="114">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45317</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="125">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11581,7 +11581,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P131" t="n">
         <v>0</v>
       </c>
@@ -11592,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>37504</v>
+        <v>37535</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -11600,7 +11604,7 @@
         </is>
       </c>
       <c r="U131" s="2" t="n">
-        <v>45307</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="132">
@@ -12728,7 +12732,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12801,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -12809,7 +12813,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="145">
@@ -13108,7 +13112,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13181,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>9201</v>
+        <v>9347</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -13189,7 +13193,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45314</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="149">
@@ -13577,7 +13581,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13650,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>12535</v>
+        <v>12536</v>
       </c>
       <c r="T153" t="inlineStr">
         <is>
@@ -13658,7 +13662,7 @@
         </is>
       </c>
       <c r="U153" s="2" t="n">
-        <v>45306</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="154">
@@ -14151,7 +14155,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -14184,7 +14188,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45296</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="160">
@@ -14972,7 +14976,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -15030,7 +15034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P168" t="n">
         <v>0</v>
       </c>
@@ -15041,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -15049,7 +15057,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45307</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="169">
@@ -16464,7 +16472,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -16537,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>38665</v>
+        <v>38666</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
@@ -16545,7 +16553,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="185">
@@ -16755,7 +16763,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -16836,7 +16844,7 @@
         </is>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="188">
@@ -17471,7 +17479,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -17544,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>18384</v>
+        <v>18385</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -17552,7 +17560,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="196">
@@ -17568,7 +17576,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -17641,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>21771</v>
+        <v>21964</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -17649,7 +17657,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="197">
@@ -17859,7 +17867,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -17932,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>2855</v>
+        <v>2927</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -17940,7 +17948,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45275</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="200">
@@ -19901,7 +19909,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19982,7 +19990,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="222">
@@ -20556,7 +20564,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -20599,10 +20607,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P228" t="n">
         <v>0</v>
       </c>
@@ -20613,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -20621,7 +20645,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45190</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="229">
@@ -20729,12 +20753,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Rurales de la Región Metropolitana de Santiago (AMUR)</t>
+          <t>Asociación de Municipalidades Rurales (AMUR)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -20792,7 +20816,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P230" t="n">
         <v>0</v>
       </c>
@@ -20803,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T230" t="inlineStr">
         <is>
@@ -20811,7 +20839,7 @@
         </is>
       </c>
       <c r="U230" s="2" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="231">
@@ -20827,7 +20855,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -20896,7 +20924,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -20904,7 +20932,7 @@
         </is>
       </c>
       <c r="U231" s="2" t="n">
-        <v>45296</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="232">
@@ -23164,7 +23192,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -23245,7 +23273,7 @@
         </is>
       </c>
       <c r="U256" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="257">
@@ -25468,7 +25496,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -25549,7 +25577,7 @@
         </is>
       </c>
       <c r="U280" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="281">
@@ -25752,7 +25780,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -25825,7 +25853,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>37783</v>
+        <v>37848</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -25833,7 +25861,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45288</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="285">
@@ -27155,7 +27183,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -27236,7 +27264,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45309</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="300">
@@ -27640,7 +27668,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
@@ -27673,7 +27701,7 @@
         </is>
       </c>
       <c r="U304" s="2" t="n">
-        <v>45295</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="305">
@@ -28659,7 +28687,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -28740,7 +28768,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="316">
@@ -30337,7 +30365,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
@@ -30370,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="S333" t="n">
-        <v>398</v>
+        <v>748</v>
       </c>
       <c r="T333" t="inlineStr">
         <is>
@@ -30378,7 +30406,7 @@
         </is>
       </c>
       <c r="U333" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="334">
@@ -30941,7 +30969,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -31014,7 +31042,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>55949</v>
+        <v>55950</v>
       </c>
       <c r="T341" t="inlineStr">
         <is>
@@ -31022,7 +31050,7 @@
         </is>
       </c>
       <c r="U341" s="2" t="n">
-        <v>45303</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="342">
@@ -31038,7 +31066,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -31096,7 +31124,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O342" t="inlineStr"/>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P342" t="n">
         <v>0</v>
       </c>
@@ -31107,7 +31139,7 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>18107</v>
+        <v>18432</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -31115,7 +31147,7 @@
         </is>
       </c>
       <c r="U342" s="2" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="343">
@@ -31325,7 +31357,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -31394,7 +31426,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>2349</v>
+        <v>2401</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -31402,7 +31434,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45306</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="346">
@@ -31418,7 +31450,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -31499,7 +31531,7 @@
         </is>
       </c>
       <c r="U346" s="2" t="n">
-        <v>45299</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="347">
@@ -31515,7 +31547,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -31596,7 +31628,7 @@
         </is>
       </c>
       <c r="U347" s="2" t="n">
-        <v>45308</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="348">
@@ -31612,7 +31644,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -31693,7 +31725,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="349">
@@ -31806,7 +31838,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -31879,7 +31911,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>129424</v>
+        <v>129532</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -31887,7 +31919,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45317</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="351">
@@ -32461,7 +32493,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -32534,7 +32566,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>31700</v>
+        <v>32257</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -32542,7 +32574,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45301</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="358">
@@ -33334,7 +33366,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -33392,7 +33424,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O366" t="inlineStr"/>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P366" t="n">
         <v>0</v>
       </c>
@@ -33403,7 +33439,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>2304</v>
+        <v>2344</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -33411,7 +33447,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45267</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="367">
@@ -34296,7 +34332,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -34369,7 +34405,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>4465</v>
+        <v>4549</v>
       </c>
       <c r="T376" t="inlineStr">
         <is>
@@ -34377,7 +34413,7 @@
         </is>
       </c>
       <c r="U376" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="377">
@@ -37089,7 +37125,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -37170,7 +37206,7 @@
         </is>
       </c>
       <c r="U405" s="2" t="n">
-        <v>45305</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="406">
@@ -38419,7 +38455,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -38500,7 +38536,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="420">
@@ -38516,7 +38552,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -38597,7 +38633,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45302</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="421">
@@ -39381,7 +39417,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -39439,7 +39475,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O429" t="inlineStr"/>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P429" t="n">
         <v>0</v>
       </c>
@@ -39450,7 +39490,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>18935</v>
+        <v>19077</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -39458,7 +39498,7 @@
         </is>
       </c>
       <c r="U429" s="2" t="n">
-        <v>45275</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="430">
@@ -41920,7 +41960,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -42001,7 +42041,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45306</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="457">
@@ -42308,7 +42348,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -42381,7 +42421,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>14044</v>
+        <v>14148</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -42389,7 +42429,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="461">
@@ -43614,7 +43654,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -43695,7 +43735,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45300</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="475">
@@ -44241,7 +44281,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -44322,7 +44362,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45294</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="482">
@@ -46397,7 +46437,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -46470,7 +46510,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="n">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
@@ -46478,7 +46518,7 @@
         </is>
       </c>
       <c r="U505" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="506">
@@ -46591,7 +46631,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -46660,7 +46700,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -46668,7 +46708,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45296</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="508">
@@ -47040,7 +47080,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -47093,7 +47133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N512" t="inlineStr"/>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="n">
         <v>0</v>
@@ -47105,7 +47149,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -47113,7 +47157,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="513">
@@ -47319,7 +47363,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -47376,7 +47420,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="516">
@@ -47655,7 +47699,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -47728,7 +47772,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -47736,7 +47780,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45301</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="520">
@@ -50196,7 +50240,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -50273,7 +50317,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45296</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="549">
@@ -52381,7 +52425,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -52454,7 +52498,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -52462,7 +52506,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="574">
@@ -53866,7 +53910,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -53919,7 +53963,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N590" t="inlineStr"/>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O590" t="inlineStr"/>
       <c r="P590" t="n">
         <v>0</v>
@@ -53931,7 +53979,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>928</v>
+        <v>974</v>
       </c>
       <c r="T590" t="inlineStr">
         <is>
@@ -53939,7 +53987,7 @@
         </is>
       </c>
       <c r="U590" s="2" t="n">
-        <v>45288</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="591">
@@ -55159,7 +55207,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -55240,7 +55288,7 @@
         </is>
       </c>
       <c r="U607" s="2" t="n">
-        <v>45303</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="608">
@@ -55734,12 +55782,12 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
+          <t>Asociación Cultural Municipal de Cerrillos</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
@@ -55768,15 +55816,15 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
-          <t>CM233</t>
+          <t>MA068</t>
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45301</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="616">
@@ -55787,12 +55835,12 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Corporación Municipal de Deportes y Recreación de Panguipulli</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
@@ -55805,11 +55853,7 @@
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr"/>
       <c r="M616" t="inlineStr"/>
-      <c r="N616" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr">
         <is>
           <t>x</t>
@@ -55825,15 +55869,15 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>583</v>
+        <v>13</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>CM233</t>
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45302</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="617">
@@ -55844,12 +55888,12 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D617" t="inlineStr"/>
@@ -55878,15 +55922,15 @@
         <v>0</v>
       </c>
       <c r="S617" t="n">
-        <v>171</v>
+        <v>579</v>
       </c>
       <c r="T617" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45306</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="618">
@@ -55897,12 +55941,12 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/15</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
@@ -55931,15 +55975,15 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="T618" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45307</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="619">
@@ -55950,7 +55994,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -55984,11 +56028,11 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="T619" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="U619" s="2" t="n">
@@ -56003,12 +56047,12 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D620" t="inlineStr"/>
@@ -56037,15 +56081,219 @@
         <v>0</v>
       </c>
       <c r="S620" t="n">
+        <v>14</v>
+      </c>
+      <c r="T620" t="inlineStr">
+        <is>
+          <t>MU064</t>
+        </is>
+      </c>
+      <c r="U620" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr"/>
+      <c r="N621" t="inlineStr"/>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
+      <c r="S621" t="n">
         <v>412</v>
       </c>
-      <c r="T620" t="inlineStr">
+      <c r="T621" t="inlineStr">
         <is>
           <t>FU003</t>
         </is>
       </c>
-      <c r="U620" s="2" t="n">
+      <c r="U621" s="2" t="n">
         <v>45308</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>2024/02/01</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr"/>
+      <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
+      <c r="S622" t="n">
+        <v>57</v>
+      </c>
+      <c r="T622" t="inlineStr">
+        <is>
+          <t>FU004</t>
+        </is>
+      </c>
+      <c r="U622" s="2" t="n">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Municipalidad de Algarrobo</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>2024/02/02</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr"/>
+      <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
+      <c r="S623" t="n">
+        <v>87</v>
+      </c>
+      <c r="T623" t="inlineStr">
+        <is>
+          <t>MU001</t>
+        </is>
+      </c>
+      <c r="U623" s="2" t="n">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>2024/02/02</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr"/>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
+      <c r="S624" t="n">
+        <v>2</v>
+      </c>
+      <c r="T624" t="inlineStr">
+        <is>
+          <t>CM156</t>
+        </is>
+      </c>
+      <c r="U624" s="2" t="n">
+        <v>45324</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U628"/>
+  <dimension ref="A1:U629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3033,12 +3033,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>27166</v>
+        <v>27203</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45280</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="37">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43561</v>
+        <v>43566</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45331</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="40">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="U42" s="2" t="n">
-        <v>45277</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="43">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="47">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>72137</v>
+        <v>73202</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45323</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="59">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1194</v>
+        <v>1405</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="U63" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="64">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45293</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="67">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>4619</v>
+        <v>4661</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45303</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="75">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="78">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6899,7 +6899,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>5363</v>
+        <v>5486</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -6918,7 +6922,7 @@
         </is>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="82">
@@ -8248,7 +8252,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8321,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>5916</v>
+        <v>5921</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8329,7 +8333,7 @@
         </is>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45303</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="97">
@@ -8830,7 +8834,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -8911,7 +8915,7 @@
         </is>
       </c>
       <c r="U102" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="103">
@@ -9623,7 +9627,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9696,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>92808</v>
+        <v>93851</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -9704,7 +9708,7 @@
         </is>
       </c>
       <c r="U111" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="112">
@@ -10585,7 +10589,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10654,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>9688</v>
+        <v>9887</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -10662,7 +10666,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45308</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="122">
@@ -11454,7 +11458,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -11527,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>224108</v>
+        <v>224433</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -11535,7 +11539,7 @@
         </is>
       </c>
       <c r="U130" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="131">
@@ -14620,7 +14624,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -14693,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>42206</v>
+        <v>42294</v>
       </c>
       <c r="T164" t="inlineStr">
         <is>
@@ -14701,7 +14705,7 @@
         </is>
       </c>
       <c r="U164" s="2" t="n">
-        <v>45329</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="165">
@@ -15558,7 +15562,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -15631,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>16578</v>
+        <v>16734</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -15639,7 +15643,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="175">
@@ -15655,7 +15659,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -15713,7 +15717,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P175" t="n">
         <v>0</v>
       </c>
@@ -15724,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>23421</v>
+        <v>23664</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -15732,7 +15740,7 @@
         </is>
       </c>
       <c r="U175" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="176">
@@ -16124,7 +16132,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -16205,7 +16213,7 @@
         </is>
       </c>
       <c r="U180" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="181">
@@ -21748,7 +21756,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -21821,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>29349</v>
+        <v>29844</v>
       </c>
       <c r="T240" t="inlineStr">
         <is>
@@ -21829,7 +21837,7 @@
         </is>
       </c>
       <c r="U240" s="2" t="n">
-        <v>45302</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="241">
@@ -22710,7 +22718,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -22783,7 +22791,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>22658</v>
+        <v>22770</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
@@ -22791,7 +22799,7 @@
         </is>
       </c>
       <c r="U250" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="251">
@@ -23305,7 +23313,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>12857</v>
+        <v>12883</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -24101,7 +24109,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24174,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>76952</v>
+        <v>77137</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -24182,7 +24190,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="266">
@@ -27619,7 +27627,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -27692,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>39585</v>
+        <v>40021</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -27700,7 +27708,7 @@
         </is>
       </c>
       <c r="U303" s="2" t="n">
-        <v>45303</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="304">
@@ -30126,7 +30134,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -30199,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>44576</v>
+        <v>45227</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -30207,7 +30215,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="331">
@@ -30320,7 +30328,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -30389,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T332" t="inlineStr">
         <is>
@@ -30397,7 +30405,7 @@
         </is>
       </c>
       <c r="U332" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="333">
@@ -30519,7 +30527,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -30588,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="S335" t="n">
-        <v>59609</v>
+        <v>60157</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -30596,7 +30604,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="336">
@@ -31979,7 +31987,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -32060,7 +32068,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="352">
@@ -32250,7 +32258,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -32323,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="S354" t="n">
-        <v>2755</v>
+        <v>3035</v>
       </c>
       <c r="T354" t="inlineStr">
         <is>
@@ -32331,7 +32339,7 @@
         </is>
       </c>
       <c r="U354" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="355">
@@ -32444,7 +32452,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -32521,7 +32529,7 @@
         </is>
       </c>
       <c r="U356" s="2" t="n">
-        <v>45317</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="357">
@@ -32828,7 +32836,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -32901,7 +32909,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>12431</v>
+        <v>12544</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -32909,7 +32917,7 @@
         </is>
       </c>
       <c r="U360" s="2" t="n">
-        <v>45307</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="361">
@@ -34085,7 +34093,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -34158,7 +34166,7 @@
         <v>0</v>
       </c>
       <c r="S373" t="n">
-        <v>8650</v>
+        <v>8752</v>
       </c>
       <c r="T373" t="inlineStr">
         <is>
@@ -34166,7 +34174,7 @@
         </is>
       </c>
       <c r="U373" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="374">
@@ -34279,7 +34287,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -34352,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>53355</v>
+        <v>53983</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -34360,7 +34368,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45313</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="376">
@@ -35144,7 +35152,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -35217,7 +35225,7 @@
         <v>0</v>
       </c>
       <c r="S384" t="n">
-        <v>175583</v>
+        <v>177382</v>
       </c>
       <c r="T384" t="inlineStr">
         <is>
@@ -35225,7 +35233,7 @@
         </is>
       </c>
       <c r="U384" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="385">
@@ -36106,7 +36114,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -36179,7 +36187,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>15127</v>
+        <v>15131</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -36187,7 +36195,7 @@
         </is>
       </c>
       <c r="U394" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="395">
@@ -36490,7 +36498,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -36563,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>66143</v>
+        <v>66142</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -36571,7 +36579,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="399">
@@ -36587,7 +36595,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -36660,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="S399" t="n">
-        <v>21318</v>
+        <v>21638</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -36668,7 +36676,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="400">
@@ -37456,7 +37464,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -37529,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>54224</v>
+        <v>55758</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -37537,7 +37545,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45335</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="409">
@@ -37941,7 +37949,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -38014,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -38022,7 +38030,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45334</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="414">
@@ -38802,7 +38810,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -38875,7 +38883,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -38883,7 +38891,7 @@
         </is>
       </c>
       <c r="U422" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="423">
@@ -39376,7 +39384,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -39457,7 +39465,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="429">
@@ -39764,7 +39772,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -39837,7 +39845,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -39845,7 +39853,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="433">
@@ -40051,7 +40059,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -40124,7 +40132,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>33399</v>
+        <v>33796</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -40132,7 +40140,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="436">
@@ -41102,7 +41110,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
@@ -41135,7 +41143,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45300</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="447">
@@ -42598,7 +42606,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -42671,7 +42679,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>9869</v>
+        <v>9878</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -42679,7 +42687,7 @@
         </is>
       </c>
       <c r="U462" s="2" t="n">
-        <v>45303</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="463">
@@ -42695,7 +42703,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -42753,7 +42761,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O463" t="inlineStr"/>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P463" t="n">
         <v>0</v>
       </c>
@@ -42764,7 +42776,7 @@
         <v>0</v>
       </c>
       <c r="S463" t="n">
-        <v>46838</v>
+        <v>47851</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -42772,7 +42784,7 @@
         </is>
       </c>
       <c r="U463" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="464">
@@ -44632,7 +44644,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -44705,7 +44717,7 @@
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -44713,7 +44725,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="485">
@@ -47435,7 +47447,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -47492,7 +47504,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="516">
@@ -47508,7 +47520,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -47581,7 +47593,7 @@
         <v>0</v>
       </c>
       <c r="S516" t="n">
-        <v>11211</v>
+        <v>11752</v>
       </c>
       <c r="T516" t="inlineStr">
         <is>
@@ -47589,7 +47601,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="517">
@@ -49928,7 +49940,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -49997,7 +50009,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>1510</v>
+        <v>1558</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -50005,7 +50017,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45303</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="545">
@@ -50312,7 +50324,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -50381,7 +50393,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>1485</v>
+        <v>1542</v>
       </c>
       <c r="T548" t="inlineStr">
         <is>
@@ -50389,7 +50401,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45322</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="549">
@@ -51227,7 +51239,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -51308,7 +51320,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="560">
@@ -51615,7 +51627,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -51688,7 +51700,7 @@
         <v>0</v>
       </c>
       <c r="S563" t="n">
-        <v>672</v>
+        <v>737</v>
       </c>
       <c r="T563" t="inlineStr">
         <is>
@@ -51696,7 +51708,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45335</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="564">
@@ -53743,7 +53755,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/05/25</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -53788,7 +53800,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45071</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="588">
@@ -54695,7 +54707,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
@@ -54744,7 +54756,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -54752,7 +54764,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45302</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="600">
@@ -55279,7 +55291,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -55352,7 +55364,7 @@
         <v>0</v>
       </c>
       <c r="S607" t="n">
-        <v>109895</v>
+        <v>119383</v>
       </c>
       <c r="T607" t="inlineStr">
         <is>
@@ -55360,7 +55372,7 @@
         </is>
       </c>
       <c r="U607" s="2" t="n">
-        <v>45321</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="608">
@@ -55973,10 +55985,14 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
+          <t>2024/02/15</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="inlineStr"/>
@@ -56002,7 +56018,7 @@
         <v>0</v>
       </c>
       <c r="S617" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T617" t="inlineStr">
         <is>
@@ -56010,7 +56026,7 @@
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="618">
@@ -56572,6 +56588,59 @@
         <v>45337</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Cultura de TilTil</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>2024/02/16</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
+      <c r="S629" t="n">
+        <v>9</v>
+      </c>
+      <c r="T629" t="inlineStr">
+        <is>
+          <t>CM258</t>
+        </is>
+      </c>
+      <c r="U629" s="2" t="n">
+        <v>45338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado4.xlsx
+++ b/consolidado4.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U629"/>
+  <dimension ref="A1:U630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="11">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9093</v>
+        <v>9200</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45300</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="21">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45309</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="23">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45327</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="30">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="U32" s="2" t="n">
-        <v>45293</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="33">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3033,7 +3033,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>x</t>
@@ -3049,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>27203</v>
+        <v>27325</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3057,7 +3061,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="37">
@@ -3170,7 +3174,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3243,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17742</v>
+        <v>17976</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3251,7 +3255,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="39">
@@ -3461,7 +3465,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3518,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3526,7 +3530,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45239</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="42">
@@ -5578,7 +5582,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5636,7 +5640,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
@@ -5647,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>27113</v>
+        <v>27562</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -5655,7 +5663,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="67">
@@ -5671,7 +5679,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -5708,7 +5716,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="68">
@@ -6065,7 +6073,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6138,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>24215</v>
+        <v>24520</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -6146,7 +6154,7 @@
         </is>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45329</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="74">
@@ -8349,7 +8357,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8422,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>7488</v>
+        <v>7591</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8430,7 +8438,7 @@
         </is>
       </c>
       <c r="U97" s="2" t="n">
-        <v>45302</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="98">
@@ -10492,7 +10500,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10565,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>16364</v>
+        <v>16614</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -10573,7 +10581,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45315</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="121">
@@ -10973,7 +10981,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -11046,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>12026</v>
+        <v>12177</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -11054,7 +11062,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45308</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="126">
@@ -13051,7 +13059,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13120,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -13128,7 +13136,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45303</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="148">
@@ -13993,7 +14001,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -14066,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>46243</v>
+        <v>46259</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -14074,7 +14082,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45334</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="158">
@@ -14721,7 +14729,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -14790,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>7049</v>
+        <v>7058</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -14798,7 +14806,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45294</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="166">
@@ -16035,7 +16043,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -16108,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>18125</v>
+        <v>18142</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -16116,7 +16124,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45335</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="180">
@@ -16997,7 +17005,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -17070,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>30511</v>
+        <v>30956</v>
       </c>
       <c r="T189" t="inlineStr">
         <is>
@@ -17078,7 +17086,7 @@
         </is>
       </c>
       <c r="U189" s="2" t="n">
-        <v>45307</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="190">
@@ -17911,7 +17919,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -17984,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>2927</v>
+        <v>3000</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -17992,7 +18000,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45322</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="200">
@@ -18340,7 +18348,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -18384,9 +18392,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P204" t="n">
         <v>0</v>
       </c>
@@ -18397,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>3539</v>
+        <v>3763</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -18405,7 +18425,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45240</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="205">
@@ -19670,7 +19690,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -19751,7 +19771,7 @@
         </is>
       </c>
       <c r="U218" s="2" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="219">
@@ -20054,7 +20074,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -20123,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>21382</v>
+        <v>21404</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -20131,7 +20151,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45306</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="223">
@@ -20438,7 +20458,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -20511,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="S226" t="n">
-        <v>20248</v>
+        <v>20779</v>
       </c>
       <c r="T226" t="inlineStr">
         <is>
@@ -20519,7 +20539,7 @@
         </is>
       </c>
       <c r="U226" s="2" t="n">
-        <v>45303</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="227">
@@ -20612,7 +20632,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -20685,7 +20705,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -20693,7 +20713,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45324</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="229">
@@ -21465,7 +21485,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -21538,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>11193</v>
+        <v>11272</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -21546,7 +21566,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="238">
@@ -21950,7 +21970,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -22023,7 +22043,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>22700</v>
+        <v>22719</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -22031,7 +22051,7 @@
         </is>
       </c>
       <c r="U242" s="2" t="n">
-        <v>45332</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="243">
@@ -22144,7 +22164,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -22217,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -22225,7 +22245,7 @@
         </is>
       </c>
       <c r="U244" s="2" t="n">
-        <v>45336</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="245">
@@ -24109,7 +24129,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24182,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>77137</v>
+        <v>77138</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -24190,7 +24210,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="266">
@@ -24303,7 +24323,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -24376,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T267" t="inlineStr">
         <is>
@@ -24384,7 +24404,7 @@
         </is>
       </c>
       <c r="U267" s="2" t="n">
-        <v>45314</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="268">
@@ -24400,7 +24420,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -24473,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>12381</v>
+        <v>12431</v>
       </c>
       <c r="T268" t="inlineStr">
         <is>
@@ -24481,7 +24501,7 @@
         </is>
       </c>
       <c r="U268" s="2" t="n">
-        <v>45309</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="269">
@@ -24497,7 +24517,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24570,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>9285</v>
+        <v>9454</v>
       </c>
       <c r="T269" t="inlineStr">
         <is>
@@ -24578,7 +24598,7 @@
         </is>
       </c>
       <c r="U269" s="2" t="n">
-        <v>45335</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="270">
@@ -25787,7 +25807,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
@@ -25820,7 +25840,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="284">
@@ -25933,7 +25953,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -26006,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="T285" t="inlineStr">
         <is>
@@ -26014,7 +26034,7 @@
         </is>
       </c>
       <c r="U285" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="286">
@@ -26273,7 +26293,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -26346,7 +26366,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>65471</v>
+        <v>66571</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -26354,7 +26374,7 @@
         </is>
       </c>
       <c r="U289" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="290">
@@ -30620,7 +30640,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -30693,7 +30713,7 @@
         <v>0</v>
       </c>
       <c r="S336" t="n">
-        <v>13196</v>
+        <v>13305</v>
       </c>
       <c r="T336" t="inlineStr">
         <is>
@@ -30701,7 +30721,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="337">
@@ -31599,7 +31619,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -31672,7 +31692,7 @@
         <v>0</v>
       </c>
       <c r="S347" t="n">
-        <v>10131</v>
+        <v>10142</v>
       </c>
       <c r="T347" t="inlineStr">
         <is>
@@ -31680,7 +31700,7 @@
         </is>
       </c>
       <c r="U347" s="2" t="n">
-        <v>45335</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="348">
@@ -33996,7 +34016,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -34069,7 +34089,7 @@
         <v>0</v>
       </c>
       <c r="S372" t="n">
-        <v>5987</v>
+        <v>6085</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
@@ -34077,7 +34097,7 @@
         </is>
       </c>
       <c r="U372" s="2" t="n">
-        <v>45278</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="373">
@@ -34481,7 +34501,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -34554,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>2030</v>
+        <v>2065</v>
       </c>
       <c r="T377" t="inlineStr">
         <is>
@@ -34562,7 +34582,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45329</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="378">
@@ -34578,7 +34598,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -34651,7 +34671,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>1997</v>
+        <v>2029</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -34659,7 +34679,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45309</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="379">
@@ -35346,7 +35366,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -35419,7 +35439,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>32483</v>
+        <v>32989</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -35427,7 +35447,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45331</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="387">
@@ -35443,7 +35463,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -35516,7 +35536,7 @@
         <v>0</v>
       </c>
       <c r="S387" t="n">
-        <v>14483</v>
+        <v>14490</v>
       </c>
       <c r="T387" t="inlineStr">
         <is>
@@ -35524,7 +35544,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="388">
@@ -36692,7 +36712,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -36765,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>7027</v>
+        <v>7090</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -36773,7 +36793,7 @@
         </is>
       </c>
       <c r="U400" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="401">
@@ -38333,7 +38353,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -38406,7 +38426,7 @@
         </is>
       </c>
       <c r="U417" s="2" t="n">
-        <v>45252</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="418">
@@ -38422,7 +38442,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -38495,7 +38515,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>16229</v>
+        <v>16596</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -38503,7 +38523,7 @@
         </is>
       </c>
       <c r="U418" s="2" t="n">
-        <v>45308</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="419">
@@ -38713,7 +38733,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -38786,7 +38806,7 @@
         <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>14281</v>
+        <v>14459</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -38794,7 +38814,7 @@
         </is>
       </c>
       <c r="U421" s="2" t="n">
-        <v>45302</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="422">
@@ -39962,7 +39982,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -40043,7 +40063,7 @@
         </is>
       </c>
       <c r="U434" s="2" t="n">
-        <v>45302</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="435">
@@ -40342,7 +40362,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -40415,7 +40435,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>5757</v>
+        <v>5821</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -40423,7 +40443,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="439">
@@ -40536,7 +40556,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -40609,7 +40629,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -40617,7 +40637,7 @@
         </is>
       </c>
       <c r="U440" s="2" t="n">
-        <v>45316</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="441">
@@ -41733,7 +41753,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -41806,7 +41826,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>29264</v>
+        <v>29545</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -41814,7 +41834,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="454">
@@ -42218,7 +42238,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -42291,7 +42311,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -42299,7 +42319,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45329</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="459">
@@ -42412,7 +42432,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -42493,7 +42513,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45334</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="461">
@@ -42800,7 +42820,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -42873,7 +42893,7 @@
         <v>0</v>
       </c>
       <c r="S464" t="n">
-        <v>50059</v>
+        <v>50791</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -42881,7 +42901,7 @@
         </is>
       </c>
       <c r="U464" s="2" t="n">
-        <v>45306</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="465">
@@ -44357,7 +44377,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -44430,7 +44450,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>3062</v>
+        <v>3173</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -44438,7 +44458,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45324</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="482">
@@ -44741,7 +44761,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -44790,8 +44810,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N485" t="inlineStr"/>
-      <c r="O485" t="inlineStr"/>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P485" t="n">
         <v>0</v>
       </c>
@@ -44802,7 +44830,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>890</v>
+        <v>1018</v>
       </c>
       <c r="T485" t="inlineStr">
         <is>
@@ -44810,7 +44838,7 @@
         </is>
       </c>
       <c r="U485" s="2" t="n">
-        <v>45281</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="486">
@@ -44826,7 +44854,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -44868,7 +44896,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O486" t="inlineStr"/>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P486" t="n">
         <v>0</v>
       </c>
@@ -44879,7 +44911,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="n">
-        <v>1785</v>
+        <v>1988</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
@@ -44887,7 +44919,7 @@
         </is>
       </c>
       <c r="U486" s="2" t="n">
-        <v>45281</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="487">
@@ -45575,7 +45607,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -45648,7 +45680,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>1840</v>
+        <v>1920</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -45656,7 +45688,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45314</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="496">
@@ -46129,7 +46161,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -46202,7 +46234,7 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>1011</v>
+        <v>1064</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
@@ -46210,7 +46242,7 @@
         </is>
       </c>
       <c r="U501" s="2" t="n">
-        <v>45299</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="502">
@@ -47350,7 +47382,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -47423,7 +47455,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>1507</v>
+        <v>1561</v>
       </c>
       <c r="T514" t="inlineStr">
         <is>
@@ -47431,7 +47463,7 @@
         </is>
       </c>
       <c r="U514" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="515">
@@ -47447,7 +47479,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -47504,7 +47536,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="516">
@@ -47880,7 +47912,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -47953,7 +47985,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>1729</v>
+        <v>1844</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -47961,7 +47993,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45314</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="521">
@@ -48260,10 +48292,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
+          <t>2024/02/19</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
@@ -48285,7 +48321,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="T524" t="inlineStr">
         <is>
@@ -48293,7 +48329,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45286</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="525">
@@ -51433,7 +51469,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -51506,7 +51542,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="T561" t="inlineStr">
         <is>
@@ -51514,7 +51550,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45303</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="562">
@@ -52173,7 +52209,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -52202,9 +52238,21 @@
         </is>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr"/>
@@ -52218,7 +52266,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -52226,7 +52274,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45205</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="570">
@@ -52242,7 +52290,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
@@ -52315,7 +52363,7 @@
         </is>
       </c>
       <c r="U570" s="2" t="n">
-        <v>45331</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="571">
@@ -52331,7 +52379,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -52404,7 +52452,7 @@
         <v>0</v>
       </c>
       <c r="S571" t="n">
-        <v>2308</v>
+        <v>2577</v>
       </c>
       <c r="T571" t="inlineStr">
         <is>
@@ -52412,7 +52460,7 @@
         </is>
       </c>
       <c r="U571" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="572">
@@ -52719,7 +52767,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -52792,7 +52840,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -52800,7 +52848,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="576">
@@ -53670,7 +53718,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -53731,7 +53779,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>911</v>
+        <v>1005</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -53739,7 +53787,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45309</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="587">
@@ -53755,7 +53803,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -53774,9 +53822,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr"/>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr"/>
       <c r="M587" t="inlineStr"/>
@@ -53792,7 +53852,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -53800,7 +53860,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="588">
@@ -54780,7 +54840,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -54861,7 +54921,7 @@
         </is>
       </c>
       <c r="U600" s="2" t="n">
-        <v>45335</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="601">
@@ -55672,7 +55732,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -55737,7 +55797,7 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="T612" t="inlineStr">
         <is>
@@ -55745,7 +55805,7 @@
         </is>
       </c>
       <c r="U612" s="2" t="n">
-        <v>45295</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="613">
@@ -56405,7 +56465,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -56418,8 +56478,16 @@
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr"/>
       <c r="M625" t="inlineStr"/>
-      <c r="N625" t="inlineStr"/>
-      <c r="O625" t="inlineStr"/>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P625" t="n">
         <v>0</v>
       </c>
@@ -56430,7 +56498,7 @@
         <v>0</v>
       </c>
       <c r="S625" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="T625" t="inlineStr">
         <is>
@@ -56438,7 +56506,7 @@
         </is>
       </c>
       <c r="U625" s="2" t="n">
-        <v>45329</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="626">
@@ -56641,6 +56709,55 @@
         <v>45338</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>TA_PersonalCodigotrabajo</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento y Desarrollo Comunal de Sierra Gorda</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>2024/02/20</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr"/>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
+      <c r="S630" t="n">
+        <v>88</v>
+      </c>
+      <c r="T630" t="inlineStr">
+        <is>
+          <t>CM054</t>
+        </is>
+      </c>
+      <c r="U630" s="2" t="n">
+        <v>45342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
